--- a/statistic/document.xlsx
+++ b/statistic/document.xlsx
@@ -219,6 +219,9 @@
     <t>Başbakan Yıldırım: Bu ihanet çetesini milletimizin gücü etkisiz hale getirecektir. Çok aptalca, çılgınca bir girişimdir.</t>
   </si>
   <si>
+    <t>27 Şubat, Gregoryen Takvimi'ne göre yılın 58. günüdür. Yıl sonuna kadar kalan 307 gün vardır (artık yıllarda 308).</t>
+  </si>
+  <si>
     <t>😍😍Açık Büfe #Kahvaltı - Bambi Garden/ #İstanbul ( #Üsküdar )
 🍳 Kahvaltı Servis Saati 10:00 - 14:00
 💵 35₺/ Kişi Başı
@@ -434,9 +437,6 @@
   </si>
   <si>
     <t>27/02/1964 - Coca-Cola'nın dünya üzerindeki 1916'ncı fabrikası İstanbul'da açıldı. https://t.co/XZUasvKkp4</t>
-  </si>
-  <si>
-    <t>27 Şubat, Gregoryen Takvimi'ne göre yılın 58. günüdür. Yıl sonuna kadar kalan 307 gün vardır (artık yıllarda 308).</t>
   </si>
   <si>
     <t>26/02/1992 - Hocalı Katliamı; Azerbaycan'ın Hocalı kentine giren silahlı Ermeni gruplar 613 Azeri'yi öldürdü. https://t.co/nyHvBuOJxm</t>
@@ -853,7 +853,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B139"/>
+  <dimension ref="A1:B140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1839,7 +1839,7 @@
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>122</v>
+        <v>53</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -1847,7 +1847,7 @@
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -1855,7 +1855,7 @@
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -1863,7 +1863,7 @@
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -1871,7 +1871,7 @@
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -1879,7 +1879,7 @@
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -1887,7 +1887,7 @@
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -1895,7 +1895,7 @@
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -1903,7 +1903,7 @@
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -1911,7 +1911,7 @@
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -1919,7 +1919,7 @@
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -1927,7 +1927,7 @@
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -1935,7 +1935,7 @@
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -1943,7 +1943,7 @@
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -1951,7 +1951,7 @@
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -1959,7 +1959,7 @@
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -1967,6 +1967,14 @@
         <v>137</v>
       </c>
       <c r="B139" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="s">
         <v>138</v>
       </c>
     </row>

--- a/statistic/document.xlsx
+++ b/statistic/document.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="257">
   <si>
     <t>tweet</t>
   </si>
@@ -108,6 +108,9 @@
     <t>25/02/1836 - Samuel Colt, ürettiği silahın (Colt (tabanca)) patentini aldı.</t>
   </si>
   <si>
+    <t>18/12/1865 - ABD'de kölelik kaldırıldı.</t>
+  </si>
+  <si>
     <t>30/10/1973 - Boğaziçi Köprüsü, Cumhurbaşkanı Fahri Korutürk tarafından açıldı.</t>
   </si>
   <si>
@@ -120,9 +123,36 @@
     <t>30/09/1964 - Oyuncu ve eski model Monica Belluci İtalya'da doğdu. https://t.co/WV0LmPZJ93</t>
   </si>
   <si>
+    <t>16/09/1953 - İlk sinemaskop film gösterimi New York'ta yapıldı.</t>
+  </si>
+  <si>
+    <t>14/09/1944 - Radyo istasyonlarının kurulması ve genişletilmesi yasası çıktı.</t>
+  </si>
+  <si>
     <t>30/08/1952 - Erzurum'da Aziziye Anıtı açıldı.</t>
   </si>
   <si>
+    <t>27/08/1859 - Dünyanın ilk petrol kuyusu ABD’nin Pensilvanya eyaletinde açıldı.</t>
+  </si>
+  <si>
+    <t>09/08/1928 - Arap Alfabesi yerine Latin Alfabesi'nin benimsendiği Harf Devrimi gerçekleştirildi.</t>
+  </si>
+  <si>
+    <t>11/05/1924 - Gottlieb Daimler ve Karl Benz şiketleri birleşerek Mercedes-Benz şirketini oluşturdular.</t>
+  </si>
+  <si>
+    <t>10/04/1912 - RMS Titanic ilk seferine çıktı. https://t.co/EiqZkZRDD6</t>
+  </si>
+  <si>
+    <t>20/02/1872 - Metropolitan Museum of Art, New York'ta açıldı. https://t.co/jKW7n0oenO</t>
+  </si>
+  <si>
+    <t>14/02/1982 - Oyuncu Özge Borak İstanbul'da doğdu. https://t.co/6wOKVQXlLW</t>
+  </si>
+  <si>
+    <t>İzmir'de de okullar tatil edildi.</t>
+  </si>
+  <si>
     <t>23/12/1954 - İlk organ nakli (böbrek) Boston'da gerçekleştirildi.</t>
   </si>
   <si>
@@ -138,16 +168,54 @@
     <t>#DünyaBarışGünü https://t.co/vWahJTBMFx</t>
   </si>
   <si>
+    <t>07/09/1782 - William Herschel kendi tasarımı olan teleskopla Satürn Bulutsusunu keşfetti. https://t.co/3slWmqotOx</t>
+  </si>
+  <si>
+    <t>24/07/1923 - Lozan Antlaşması imzalandı.</t>
+  </si>
+  <si>
     <t>#AliİsmailKorkmaz https://t.co/73E5e8ZWGe</t>
   </si>
   <si>
     <t>08/07/1621 - Yazar La Fontaine Fransa'da doğdu. (ö. 1695) https://t.co/3KqukXuIpX</t>
   </si>
   <si>
+    <t>05/05/1474 - Kristof Kolomb Jamaika Adasına ayak bastı ve adaya Santa Gloria adını verdi.</t>
+  </si>
+  <si>
+    <t>15/04/1929 - İstanbul'da terzilik mektebi açıldı.</t>
+  </si>
+  <si>
     <t>27/03/1994 - Eurofighter Typhoon ilk test uçuşunu yaptı. https://t.co/sNKlbJpfo5</t>
   </si>
   <si>
+    <t>06/03/1869 - Dimitri Mendeleyev, ilk periyodik tabloyu açıkladı. https://t.co/BkXdNnepj9</t>
+  </si>
+  <si>
+    <t>09/02/1621 - İstanbul Boğazı dondu. https://t.co/fkR5vpo5fq</t>
+  </si>
+  <si>
     <t>04/02/1902 - Paris'te Birinci Jön Türk Kongresi yapıldı. https://t.co/PFKnnkRn4T</t>
+  </si>
+  <si>
+    <t>Isslama #Köfte - Isslama Köfte / İstanbul ( #Acıbadem, #Ataşehir ) 
+🕦 Çalışma Saatleri 11:00 - 22:00
+☎ 444 10 06
+💵 19,50₺/ 1 Porsiyon
+💵 27,50₺/ 1,5 Porsiyon
+📹 1,5 Porsiyon
+🍹Alkolsüz Mekan
+🚲 Paket Servis Var
+#yemekneredeyenircom https://t.co/ucXhAu6eVz</t>
+  </si>
+  <si>
+    <t>Dördü Bir Arada Atom - #Künefe Cenneti / İstanbul (#Mahmutbey - #Kocasinan) 
+🕦 Çalışma Saatleri 10:00-02:00
+☎ 0 212 630 97 44 
+💵 70₺ / 4 Kişilik 
+💵 102₺ / 6 Kişilik
+📹 4 Kişilik 
+#yemekneredeyenircom https://t.co/yvD9EEDYRf</t>
   </si>
   <si>
     <t>#Kebap Çeşitleri - Akcanlar Ocakbaşı / #İstanbul (#Elmadağ -#Şişli)
@@ -162,6 +230,26 @@
 #yemekneredeyenircom https://t.co/eRtN0JNcZm</t>
   </si>
   <si>
+    <t>#Ciğer Şiş  - Hanek Gaziantep Sofrası / #İstanbul ( #Koşuyolu ) 
+🕦 Çalışma Saatleri 09:30 - 22:00
+☎ 0216 340 23 40
+💵 32₺
+🍹 Alkolsüz Mekan 
+🚴 Paket Servis Var
+💳 Sodexo, Ticket, Multinet, Setcard Var
+#yemekneredeyenircom https://t.co/SfbXmGBzpJ</t>
+  </si>
+  <si>
+    <t>Cevizzade - Künefe Cenneti / #İstanbul (#Mahmutbey - #Kocasinan)
+🕦 Çalışma Saatleri 10:00-02:00
+☎ 0 212 630 97 44 
+💵 17₺ / 1 Kişilik 
+💵 65₺ / 4 Kişilik 
+💵 95₺ / 6 Kişilik 
+📹 4 Kişilik 
+#yemekneredeyenircom https://t.co/lxZZOIguCk</t>
+  </si>
+  <si>
     <t>#Çorba Çeşitleri - Baruthane Pilavcısı/#İstanbul (#Kurtuluş)
 ☎ 0 212 296 01 02
 💵 7₺ / Ezogelin Çorbası
@@ -204,6 +292,26 @@
 #yemekneredeyenircom https://t.co/LKNowO8gE8</t>
   </si>
   <si>
+    <t>RT @basakmaviss: Dost gerçekten de kara günde belli oluyor ❤️ https://t.co/ucBG5iCnz1</t>
+  </si>
+  <si>
+    <t>Ağlayan Pasta &amp;amp; Kaymaklı Ayva Tatlısı - Prasini Papia Cafe / İstanbul ( Gayrettepe ) 
+🕦 Çalışma Saatleri Hafta İçi 06:30 - 19:00
+🕦 Çalışma Saatleri Cumartesi 09:00 - 17:00
+☎ 0 533 138 65 46
+💵 14₺/ Kaymaklı Ayva Tatlısı
+💵 14₺/ Ağlayan Pasta
+#yemekneredeyenircom https://t.co/62KIdxDFRq</t>
+  </si>
+  <si>
+    <t>Havuç Dilim - Cihan Et Kasap Pişiricisi  /  (#İzmir - Forum Bornova Karşısı) 
+🕦 Çalışma Saatleri 11:00-23:00
+☎ 0 232 469 19 56 
+💵 14₺ Porsiyon 
+💵 17₺ /  Dondurmalı 
+#yemekneredeyenircom https://t.co/eLg1vOKupb</t>
+  </si>
+  <si>
     <t>@pelinkrkc Gel, günaha girelim 😎</t>
   </si>
   <si>
@@ -216,10 +324,35 @@
     <t>RT @dilarataogllu: Yemekneredeyenircom'a uzun uzun bakıp ic gecirdiğimiz saatlere hosgeldiniz</t>
   </si>
   <si>
+    <t>Yumurta Çeşitleri - Coşkun Et / İstanbul ( İstoç, Kağıthane, Bağcılar )
+💵 18₺/ Kahvaltı Tabağı
+💵 13₺/ Yumurtalı #Kavurma
+#yemekneredeyenir https://t.co/uhWRh8ddNI</t>
+  </si>
+  <si>
+    <t>Nam nam 😇
+İsli Dana Bacon Burger - #Hamburger Kafası / #İstanbul ( #Cihangir #Firuzağa İlkokulu Yanı )
+💵 40₺/ 220 Gram
+#yemekneredeyenir https://t.co/RK3Y6xCIuZ</t>
+  </si>
+  <si>
+    <t>Her yerimiz hamburger 😅
+Mantar Burger - Hamburger Kafası / İstanbul ( #Cihangir #Firuzağa İlkokulu Yanı ) 
+💵 20₺/ 110 Gram
+#yemekneredeyenir https://t.co/YU1HaU96hg</t>
+  </si>
+  <si>
     <t>Başbakan Yıldırım: Bu ihanet çetesini milletimizin gücü etkisiz hale getirecektir. Çok aptalca, çılgınca bir girişimdir.</t>
   </si>
   <si>
     <t>27 Şubat, Gregoryen Takvimi'ne göre yılın 58. günüdür. Yıl sonuna kadar kalan 307 gün vardır (artık yıllarda 308).</t>
+  </si>
+  <si>
+    <t>Günaydın 😍
+Serpme Köy Kahvaltısı - Ayder Sofrası #İstanbul ( #Sarıyer )
+💵 25₺ / Kavurma
+💵 40₺/ Kişi Başı
+#yemekneredeyenir https://t.co/DIDFAkmzYo</t>
   </si>
   <si>
     <t>😍😍Açık Büfe #Kahvaltı - Bambi Garden/ #İstanbul ( #Üsküdar )
@@ -234,6 +367,18 @@
 #yemekneredeyenir https://t.co/XR8HpU2ymM</t>
   </si>
   <si>
+    <t>@yarentheminnok Ölümlü dünya aman boşver 😛</t>
+  </si>
+  <si>
+    <t>Rengarenk 🎈 Ara Sıcaklar &amp;amp; Meze Çeşitleri - Balıkçı Hüseyin Usta / İzmir ( Forum Bornova Girişi )
+Detaylı Bilgi: https://t.co/X2DnKpVc1S https://t.co/Vd9vOYB4Y1</t>
+  </si>
+  <si>
+    <t>Yaklaşık 1 saattir bakışıyoruz 🤗 #SerpmeKahvaltı Seven Hills Restaurant #İstanbul #Sultanahmet
+☎️ 0 212 516 94 97
+💵 50₺/ Kişi Başı https://t.co/vJso77fzb6</t>
+  </si>
+  <si>
     <t>#Günaydın ☺️ Bam's Sıcak Kahvaltı &amp;amp; Bam's Klasik #Kahvaltı Bam's Cafe Restaurant #İstanbul #Acıbadem https://t.co/kkn8PdNRyu</t>
   </si>
   <si>
@@ -242,6 +387,12 @@
 💵 10₺ https://t.co/11EBuwvrBr</t>
   </si>
   <si>
+    <t>Acıktık 🤓 #EtliWrap Coffee Shop Company #Adana ( Uğrum Mumcu Bulvarı, M1 AVM )
+🕦 Çalışma Saatleri 08:30-00:00
+☎ 0 322 235 33 01
+💵 24,50₺ https://t.co/JXalys3Klt</t>
+  </si>
+  <si>
     <t>Severiz ❤️
 Samsalı Serpme Kahvaltı - Dumanti / İstanbul #Halkalı #kahvaltı▫ https://t.co/v2lVd5s0Db</t>
   </si>
@@ -256,12 +407,22 @@
 💵 44₺ / 200 Gram https://t.co/Tvv6wuG23v</t>
   </si>
   <si>
+    <t>Eridik 😐 Beyran - Kimyon / İstanbul #Moda #KadifeSokak #beyran https://t.co/jx50JySyxb</t>
+  </si>
+  <si>
     <t>Vakti gelmişti 👊🏻 Et Döner - Parça Döner / İstanbul (Beşiktaş) https://t.co/ElURgTnbfS</t>
   </si>
   <si>
+    <t>Etçiler burada mı ? 
+Shatobiryan - Shato Steakhouse #İstanbul Yıldırım #Bayrampaşa https://t.co/4qESO0xB5f</t>
+  </si>
+  <si>
     <t>TCMB: KAPASİTE KULLANIM ORANI MART'TA YÜZDE 77,8 (ÖNCEKİ YÜZDE 77,8)</t>
   </si>
   <si>
+    <t>BORSA İSTANBUL GÜNÜ YÜZDE 1.51 ORANINDA DÜŞÜŞLE 115 BİN 450 PUANDAN TAMAMLADI</t>
+  </si>
+  <si>
     <t>Polis koleji sınavında usulsüzlük operasyonu - https://t.co/rsYTMkyAjX https://t.co/5nPnlkH7aF</t>
   </si>
   <si>
@@ -271,27 +432,78 @@
     <t>İsrail'de askerlik krizi - https://t.co/LAwMWjsmS7 https://t.co/hmGiNLRL5T</t>
   </si>
   <si>
+    <t>Putin'e muhalif isim İngiltere'de ölü bulundu - https://t.co/4mTHepzSU1 https://t.co/VXM3Dkdoho</t>
+  </si>
+  <si>
     <t>Fenerbahçe'den Alex açıklaması - https://t.co/EE2lyeyq6I https://t.co/cd5GUqVAuu</t>
   </si>
   <si>
+    <t>ABD: Türkiye ile Afrin sorununu çözmeye çalışıyoruz - https://t.co/eaepiPMxB3 https://t.co/JUB7QYnCbs</t>
+  </si>
+  <si>
     <t>Yolcu bıçaklayan taksiciye 1.5 yıl hapis cezası istendi - https://t.co/fnpToJLYKP https://t.co/jWRfPvP4mo</t>
   </si>
   <si>
+    <t>Fenerbahçe, Zalgiris Kaunas'ı mağlup etti - https://t.co/75ZJIqG9Cg https://t.co/aeDUz1bJup</t>
+  </si>
+  <si>
     <t>ABD'de silahlı saldırı! Rehineler var - https://t.co/gELVoSvXcR https://t.co/Am8Y1Za7yu</t>
   </si>
   <si>
     <t>Morgan Stanley: Dolar zayıflayacak - https://t.co/QxJLGBlRDz https://t.co/BLQ7yTH8gI</t>
   </si>
   <si>
+    <t>Emekliye 224 TL zam - https://t.co/djTIAcfnIP https://t.co/DnHihZhebD</t>
+  </si>
+  <si>
+    <t>TSK, Cinderes merkezini ele geçirdi - https://t.co/fpdpTuJiwn https://t.co/PipDFuxQg4</t>
+  </si>
+  <si>
+    <t>Raci Şaşmaz Denge'de alım yapıyor - https://t.co/IgB6bSZ0JS https://t.co/O2PfcoAe5z</t>
+  </si>
+  <si>
+    <t>ÖİB o ihale için yeniden süre uzattı - https://t.co/RzaqzMndF3 https://t.co/MNzpZtvUNs</t>
+  </si>
+  <si>
+    <t>Dallas Fed Başkanı'ndan NAFTA uyarısı - https://t.co/cprQUjeOH6 https://t.co/DtfewSRYum</t>
+  </si>
+  <si>
+    <t>Türk dizilerinin yayından kaldırılışında Prens parmağı mı var - https://t.co/ls0bwgMxmr https://t.co/HG7MECFyTQ</t>
+  </si>
+  <si>
     <t>Teşvik döneminde 1 milyonu aşkın istihdam gerçekleşti - https://t.co/UGomlYV5zQ https://t.co/kafWEoIZE1</t>
   </si>
   <si>
+    <t>Sivas'taki FETÖ'cüler tutuklandı - https://t.co/6v2m5kyMgx https://t.co/8biiaoypbh</t>
+  </si>
+  <si>
+    <t>Trump'a Amerikan iş dünyasından ek gümrük vergisi tepkisi - https://t.co/4fTdElQenU https://t.co/wsAvq1DEim</t>
+  </si>
+  <si>
+    <t>Erdoğan: 2348 terörist etkisiz hale getirildi - https://t.co/ujGq4Buh9e https://t.co/10pm6b6KF1</t>
+  </si>
+  <si>
+    <t>BORSA İSTANBUL GÜNÜ YÜZDE 0.66 ORANINDA DÜŞÜŞLE 116 BİN 859 PUANDAN KAPADI</t>
+  </si>
+  <si>
+    <t>Salih Müslim'e her durakta kırmızı bülten - https://t.co/cwmpGWhm3D https://t.co/mK3AZpd5gQ</t>
+  </si>
+  <si>
+    <t>Bosna Hersek'e EBRD'den 750 milyon euro kredi - https://t.co/rMd8Mxxo0w https://t.co/fSheKOSavS</t>
+  </si>
+  <si>
+    <t>Akdağ çocuk istismarında öngörülen cezayı açıkladı - https://t.co/1HYK0GQO7N https://t.co/H3dIfU8yB7</t>
+  </si>
+  <si>
     <t>KRGYO: Karlılığı azaldı - https://t.co/zAetWnXMOW https://t.co/47K89xQFS4</t>
   </si>
   <si>
     <t>Arap basınından müthiş takas iddiası - https://t.co/2XUZx5E0jt https://t.co/6K2AlMz8z1</t>
   </si>
   <si>
+    <t>Tahliye edildi ABD’ye kaçtı - https://t.co/cJ8eGqx4Ti https://t.co/F9UTrW1O36</t>
+  </si>
+  <si>
     <t>Borsa İstanbul yükselişle açıldı - https://t.co/XkzeYUetO1 https://t.co/NMMxj6XGs0</t>
   </si>
   <si>
@@ -301,6 +513,9 @@
     <t>CHP'den istifa edip AK Parti'ye geçtiler - https://t.co/T85AzpRNZI https://t.co/ANO3EhVKYG</t>
   </si>
   <si>
+    <t>Metro Holding'in 2017 karı bir önceki yıla göre %397 arttı - https://t.co/sloMSddi8M https://t.co/i9oG50NKf5</t>
+  </si>
+  <si>
     <t>Milyonları ilgilendiren düzenleme haftaya Meclis'te - https://t.co/wfc4e35wiD https://t.co/cLjbscebGL</t>
   </si>
   <si>
@@ -310,36 +525,114 @@
     <t>Ali Koç Aziz Yıldırım'a meydan okudu - https://t.co/GFlbLLfhJS https://t.co/EaxfXI8NKZ</t>
   </si>
   <si>
+    <t>ABD borsaları düştü, küresel piyasalar karışık seyretti - https://t.co/cznncCvKBl https://t.co/zJDEppGmmn</t>
+  </si>
+  <si>
+    <t>Rekor! 2017'de 1 milyon 323 bin konuta ruhsat  - https://t.co/zJeu3o269C https://t.co/Hq1N4vfo1L</t>
+  </si>
+  <si>
+    <t>İttifakın ince ayrıntıları - https://t.co/D2hjUILa5E https://t.co/ydE58t4YOC</t>
+  </si>
+  <si>
+    <t>Erdoğan ile Putin görüştü - https://t.co/jUUV0C0kb8 https://t.co/XpfueD5zUa</t>
+  </si>
+  <si>
+    <t>Türkiye'de ilk kez! Yerli şanzıman - https://t.co/o3rTn3E8gp https://t.co/EkP8kPJYy9</t>
+  </si>
+  <si>
+    <t>Balkaya Pastanesi ( Balıkesir ) #bugunnereyegitsem https://t.co/6HwE9WtbAc</t>
+  </si>
+  <si>
     <t>Maharet Döner ( İzmir , Bayraklı ) #bugunnereyegitsem @maharetdoner @ Maharet Döner https://t.co/YdSBHqsVTY</t>
   </si>
   <si>
+    <t>Manufaktura , Belgrade #bugunnereyegitsem @ Manufaktura Belgrade https://t.co/b4zEBgByS0</t>
+  </si>
+  <si>
     <t>Daha iyisi yok 💪🏼👊🏼 Öz İkizler Künefe ( Gaziantep ) #bugunnereyegitsem @ Öz İkizler Künefe https://t.co/2BgJqE5IeS</t>
   </si>
   <si>
     <t>İmam Çağdaş ( Gaziantep ) #bugunnereyegitsem @ İmam Çağdaş https://t.co/19F61Vb0Y9</t>
   </si>
   <si>
+    <t>Gönül Kahvesi ( Caddebostan ) #bugunnereyegitsem @ Gönül Kahvesi-Caddebostan https://t.co/FmPgYytp9u</t>
+  </si>
+  <si>
+    <t>Kemal Usta Waffle ( Erenköy ) #bugunnereyegitsem @ Kemal Usta Waffles Erenköy https://t.co/gIQr87ge20</t>
+  </si>
+  <si>
+    <t>The Galliard ( Etiler ) #bugunnereyegitsem @ersinsuzer thegalliard #14subat @ The GALLIARD https://t.co/6p2fD8WDds</t>
+  </si>
+  <si>
+    <t>Nar Bahçesi ( Çengelköy ) #bugunnereyegitsem @narbahcesicafe @ Nar Bahçesi https://t.co/r1orYJZxnY</t>
+  </si>
+  <si>
+    <t>#iyigeceler #arkadaslarinizietiketleyin 😍😁 https://t.co/y7QWZBGEPL</t>
+  </si>
+  <si>
+    <t>3 Adamı İzleyenler el kaldırsın ✋🏼😁 @ Sur Yapı Exen İstanbul https://t.co/Yp1U9qsQti</t>
+  </si>
+  <si>
+    <t>Lacivert Restaurant ( Anadoluhisarı ) #bugunnereyegitsem @ Lacivert https://t.co/ZyMyt7zH1m</t>
+  </si>
+  <si>
+    <t>Sevdiklerinizi Mutlu Edin 😍 ciceksepeti #ciceksepeti #bng https://t.co/yiuql5aTYx</t>
+  </si>
+  <si>
+    <t>Cumartesi klasiği Dürümcü Emmi'de Beyran 🙊 @ Dürümcü Emmi https://t.co/euovdrRcg4</t>
+  </si>
+  <si>
+    <t>Sapphire Istanbul ( 4.Levent ) #bugunnereyegitsem #bng @ Sapphire İstanbul https://t.co/GvimGwsgPJ</t>
+  </si>
+  <si>
+    <t>Sapphire Istanbul #bugunnereyegitsem @ İstanbul Sapphire Seyir Terasi https://t.co/TOM98qVGt0</t>
+  </si>
+  <si>
+    <t>34,5 Ege Fast Food ( Koşuyolu ) #bugunnereyegitsem #bng @ 34,5 Ege Fast Food https://t.co/seuhL2aRiV</t>
+  </si>
+  <si>
+    <t>Keşke hep böyle olsan 😒 #Allahkabuletsin #istanbul https://t.co/mkFFlo8JAn</t>
+  </si>
+  <si>
     <t>Sahurda Nerdesiniz ? ☺️ @ Varyap Meridian C blok https://t.co/vsSim0yiSL</t>
   </si>
   <si>
     <t>Godiva ( Akasya Avm ) #bugunnereyegitsem #bng @ Godiva Akasya Avm https://t.co/G4hQH2sorl</t>
   </si>
   <si>
+    <t>Koşuyoluna böyle bir mekan lazımdı hayırlı olsun ✌🏻️👏🏻 Sherbet ( Koşuyolu ) #bugunnereyegitsem https://t.co/NbzdkAt36d</t>
+  </si>
+  <si>
     <t>Sole Mare ( Çeşme ) #bugunnereyegitsem @cesmesolemare https://t.co/MPqXrraV8g</t>
   </si>
   <si>
+    <t>Herşey için teşekkürler güzeeeeeeeeeeel insan 😁😍😑 @aysehatunonal11 @ Sheraton Bursa https://t.co/wyO5fSckpf</t>
+  </si>
+  <si>
     <t>Pazar Kahvaltısı ☺️✌🏻️🎈 Cookline Pancake ( Bağdat Caddesi - Şaşkınbakkal ) #bng #bugunnereyegitsem… https://t.co/wTPuwUAXGE</t>
   </si>
   <si>
+    <t>LIVE on #Periscope: Süpermoms Şenliği - Maltepe Cevahir Otel https://t.co/yewwe1cts6</t>
+  </si>
+  <si>
     <t>Kemal Usta Waffle ( Mado ) #bugunnereyegitsem #bng #kemalustawaffle @ Kemal Usta Waffles Moda https://t.co/ywGwZS3BJW</t>
   </si>
   <si>
+    <t>Mado Emirgan #bugunnereyegitsem #bng @ Emirgan MADO http://t.co/WYDOx3FWiS</t>
+  </si>
+  <si>
+    <t>Cookline Pancake ( Bağdat Caddesi - Şaşkınbakkal ) #bng #bugunnereyegitsem #bagdatcaddesi #cookline… http://t.co/K7MwfzCq24</t>
+  </si>
+  <si>
     <t>Ankara'ya doğru yola çıktık akşam yemegine nereye gidelim, önerileri alalım ? 😁 http://t.co/2jAgemNcri</t>
   </si>
   <si>
     <t>Anı Yakala ✌️ http://t.co/6GF4QM5gpC</t>
   </si>
   <si>
+    <t>Gazebo Cafe &amp;amp; Restaurant #bugunnnereyegitsem #bng #gazebo @ Gazebo Cafe &amp;amp; Restaurant http://t.co/k1k4BpY2QO</t>
+  </si>
+  <si>
     <t>Kahvaltı önerimiz The Mono Restaurant ( Sakarya ) #bugunnereyegitsem #günaydın #sakarya #kahvaltı http://t.co/bxNraATuTP</t>
   </si>
   <si>
@@ -349,9 +642,18 @@
     <t>Akşam yemegi önerimiz Çömlek Çamlıca #bugunnereyegitsem #çömlek @ Çömlek Kurufasulye Çamlıca http://t.co/DPeXkQvfAh</t>
   </si>
   <si>
+    <t>Tatlı önerimiz Cara &amp;amp; Mocca ( Koşuyolu ) #bugunnereyegitsem @ Mocca Koşuyolu http://t.co/sOiKcomElJ</t>
+  </si>
+  <si>
+    <t>Harika sunumlarıyla ve şık dekorasyonuyla Fiyonk Bakery #bugunnereyegitsem #fiyonkbakery @ Fiyonk… http://t.co/S7zBiM3usp</t>
+  </si>
+  <si>
     <t>Kızının doğduğu gün annesi öldü iki oğlu yoğun bakımda https://t.co/dKEU2TcRey https://t.co/pNjsJ2YhaD</t>
   </si>
   <si>
+    <t>Kendisine tecavüz eden kişiyi öldüren Nevin Yıldırım için karar verildi https://t.co/M1vLVolRze https://t.co/4yNKPFrieK</t>
+  </si>
+  <si>
     <t>Çavuşoğlu'ndan Merkel'e yanıt: YPG ile aynı üslup https://t.co/Oin4k8cGKm</t>
   </si>
   <si>
@@ -361,34 +663,82 @@
     <t>Belediye Başkanının makam odasında beylik sancağı https://t.co/IHdsjtlfz6 https://t.co/arV0jQSK7H</t>
   </si>
   <si>
+    <t>RT @cnnturksndakika: #SONDAKİKA İstanbul Esenyurt'ta silahlı saldırı https://t.co/e7rUD94deC https://t.co/EmeMd0tFim</t>
+  </si>
+  <si>
+    <t>RT @CNNTURKSpor: Kyle Korver'ın kardeşi hayatını kaybetti https://t.co/u4Yt5kVp3x https://t.co/jROYktb0CA</t>
+  </si>
+  <si>
     <t>Çavuşoğlu ABD'nin açıklamasına yanıt verdi ➤ https://t.co/m6Jw2ukCQY</t>
   </si>
   <si>
     <t>Afrin'de teröristlerin tünelleri görüntüledi ➤ https://t.co/yrv9d58u0k</t>
   </si>
   <si>
+    <t>Cumhurbaşkanı Erdoğan AK Parti'li 45 milletvekiliyle görüşüyor https://t.co/ha0OnI8Ooe https://t.co/S1KBBdDjS6</t>
+  </si>
+  <si>
     <t>Türk bayrağına bastığı fotoğrafı paylaşmıştı, tutuklandı https://t.co/N4FbhZXVvc https://t.co/DDE01bfeRX</t>
   </si>
   <si>
     <t>Fransa'da üniversiteye kayyum atandı https://t.co/l0rRYNE4AI https://t.co/VmVnBGCjtQ</t>
   </si>
   <si>
+    <t>Irak'ta baharın başlangıcını simgeleyen Nevruz bayramı kutlandı, yüzlerce kişi meşalelerle Akre Tepesi'ne çıktı https://t.co/QOXcG10ofm https://t.co/ApfjaLM8sZ</t>
+  </si>
+  <si>
+    <t>Mehmed Bir Cihan Fatihi dizisinde Kosova Muharebesi nefesleri kesti! https://t.co/xqkhaiUWom</t>
+  </si>
+  <si>
+    <t>RT @CNNTURKSpor: Eczacıbaşı finale çıktı https://t.co/ZTlI77eg8w https://t.co/whBzCyvpZq</t>
+  </si>
+  <si>
     <t>Halk otobüsünde iğrenç olay! Üniversitelileri taciz edip mastürbasyon yaptı https://t.co/ZPoHf0YGf0 https://t.co/Isqp3QatvM</t>
   </si>
   <si>
     <t>Üsküdar'ın bakkal Kanber amcası 'İyilik Ödülleri' töreninde ödüle layık görülmüştü ► https://t.co/q9YsEdVdpF</t>
   </si>
   <si>
+    <t>RT @cnnturkrenk: Elon Musk'tan şaşırtan açıklama: "Babam bir şeytan" https://t.co/WRUT17YhMW https://t.co/665AwZ1Ygo</t>
+  </si>
+  <si>
+    <t>Davutoğlu, İBB Başkanlığı'na aday olacağı yolundaki iddiaya yanıt verdi https://t.co/wreN8VssOB https://t.co/5HgvZEuEWk</t>
+  </si>
+  <si>
+    <t>Muhalif Rus iş adamı Londra'da boğularak öldürüldü https://t.co/qHFtxxpECF https://t.co/gXE5rhLdep</t>
+  </si>
+  <si>
+    <t>Genelkurmay arşivinden 'Çanakkale Zaferi' fotoğrafları https://t.co/EfS97AzTv6 https://t.co/k2Dao6b0xp</t>
+  </si>
+  <si>
     <t>Bakanlık harekete geçti! Çiftlik Bank'tan sonra sırada Çılgın Tavuklar var https://t.co/7d89vkzgWE https://t.co/8ZRCGTmtoK</t>
   </si>
   <si>
+    <t>Kaza yaptı, yaralı arkadaşlarını bırakıp kaçtı https://t.co/BGVyUAn87B https://t.co/wJa8dYBZfu</t>
+  </si>
+  <si>
     <t>Afrin şehir merkezine Türk bayrağı asıldı https://t.co/phnXbR5x0G https://t.co/EdaMvoSfvK</t>
   </si>
   <si>
+    <t>Çanakkale'de bu yollar kapatılacak https://t.co/TTGligsnAK https://t.co/vlaAnLnEfz</t>
+  </si>
+  <si>
     <t>Bahçelievler'de iki araba kundaklandı https://t.co/UbarLpQJNT https://t.co/SdlNmZ76dF</t>
   </si>
   <si>
+    <t>Çanakkale'de bu yollar kapatılacak https://t.co/TTGligsnAK https://t.co/JGAnYdypP4</t>
+  </si>
+  <si>
+    <t>Polis, kaçan şüphelilerin attığı uyuşturucu maddeleri tek tek topladı https://t.co/ZkVakD0uaj https://t.co/VUxycewzS7</t>
+  </si>
+  <si>
     <t>Lise öğrencilerinden Mehmetçik'e destek  https://t.co/3KwmxZUfZL https://t.co/92ufobk5QE</t>
+  </si>
+  <si>
+    <t>CHP'li Haluk Pekşen: "Bu ittifak yasası kanuna karşı hile" https://t.co/ITIw8lCpVL https://t.co/TSYByEqQF2</t>
+  </si>
+  <si>
+    <t>RT @CNNTURKKSanat: Eski sevgili sizinle aynı gün yan salonda evlenirse… https://t.co/NGzbmgpvN8</t>
   </si>
   <si>
     <t>RT @CNNTURKSpor: Beşiktaş'ın 115. yıl forması ortalığı karıştırdı https://t.co/4b6uwEjkb9 https://t.co/ItJ6u1VLv0</t>
@@ -505,6 +855,80 @@
   </si>
   <si>
     <t>Bu yağmurlu havada 😁 #bng https://t.co/2DIqAU1BV7</t>
+  </si>
+  <si>
+    <t>01:31’de gerçekleşen 6.2 büyüklüğünde merkezüssü Muğla olan deprem, İzmir ve çevre illerden de hissedildi. https://t.co/qc2odc01yU</t>
+  </si>
+  <si>
+    <t>Avrupa Konseyi rakamları açıkladı: Türkiye, Avrupa'daki 43 ülke arasında tutuklu ve hükümlü sayısında birinci https://t.co/Rarg9BhbOP https://t.co/ILlOLlXKTS</t>
+  </si>
+  <si>
+    <t>Neden böyle bakıyorsun 🙄
+Big Chacha's - Chacha's Burger &amp;amp; Pizza &amp;amp; Steak / İstanbul #Çengelköy #burger #cuma #steak▫ https://t.co/FzlWBEIeBf</t>
+  </si>
+  <si>
+    <t>Günaydın 🎈 #SerpmeKahvaltı Hak Evrensel Hatay Sofrası #İstanbul #Florya
+☎️ 0 212 663 07 00
+💵 45₺ / Kişi Başı https://t.co/2T5bfODKtm</t>
+  </si>
+  <si>
+    <t>21 Eylül, Miladi takvim'ne göre yılın 264. (artık yıllarda 265.) günüdür. Yıl sonuna kadar kalan 101 gün vardır.</t>
+  </si>
+  <si>
+    <t>RT @CNNTURKSpor: Cedi Osman'dan mesaj var: Sevilmek kadar mutluluk verici bir şey yok https://t.co/XsPSTwuOmu https://t.co/AbU4ox0gxY</t>
+  </si>
+  <si>
+    <t>Bam's Kahvaltı - Bam's Cafe Restaurant / İstanbul ( Acıbadem ) @bams_cafe ▫️
+🕦 Çalışma Saatleri 06:00-03:00
+☎️ 0 21… https://t.co/jIRcR76VCH</t>
+  </si>
+  <si>
+    <t>Tıp Bayramı Kutlu Olsun https://t.co/Avro6F9Csi</t>
+  </si>
+  <si>
+    <t>4 Mayıs, Gregoryen Takvimi'ne göre yılın 124. (artık yıllarda 125.) günüdür. Yıl sonuna kadar kalan 241 gün vardır.</t>
+  </si>
+  <si>
+    <t>29/12/1990 - 1961 yılında işletmeden kaldırılan tramvay, İstiklal Caddesi'nde çalışmaya başladı. https://t.co/LCdbLeXCx2</t>
+  </si>
+  <si>
+    <t>Saadet Partisi lideri: "Erdoğan'a kırgınız, Gül'ün adaylığı ihtimal dahilinde" https://t.co/E0nsu50cCW https://t.co/A8lbaGAGjs</t>
+  </si>
+  <si>
+    <t>Ramazanın neşesi ☺️ Mejdul #Hurma HUЯRMACI #İstanbul #Sultanahmet
+🕦 Çalışma Saatleri 08:00 - 22:00
+💵 70₺/ Mejdul Hurma https://t.co/l7Ph4YQGEe</t>
+  </si>
+  <si>
+    <t>Chef Kahvaltı Tabağı - Burj Cafe / İstanbul ( Fenerbahçe ) 🍳
+🕦 Çalışma Saatleri 09:00-04:00
+🕦 Kahvaltı Servisi 09:0… https://t.co/OofM9hvWnD</t>
+  </si>
+  <si>
+    <t>13 Temmuz, Gregoryen Takvimi'ne göre yılın 194. (artık yıllarda 195.) günüdür. Yıl sonuna kadar kalan 171 gün vardır.</t>
+  </si>
+  <si>
+    <t>01/02/1979 - Milliyet Gazetesi Genel Yayın Yönetmeni Abdi İpekçi, suikast sonucu öldürüldü. https://t.co/L72W31Es7e</t>
+  </si>
+  <si>
+    <t>Saadet Partisi lideri: "Erdoğan'a kırgınız, Gül'ün adaylığı ihtimal dahilinde" https://t.co/E0nsu50cCW https://t.co/CslvuUBUL0</t>
+  </si>
+  <si>
+    <t>e-Devlet'te yeni bir özellik daha geliyor: Tek tıkla taşınma sonrası kurum kurum gezmeye son https://t.co/ozRvEQfUJz https://t.co/0MuKTyRDkq</t>
+  </si>
+  <si>
+    <t>Doymuyoruz 😋
+Kuzu #Kaburga &amp;amp; Metrelik #Kebap - Meşhur Kaburgacı Yaşar/ #Adana ( #Yüreğir )
+#yemekneredeyenir https://t.co/FBdKqW1V6k</t>
+  </si>
+  <si>
+    <t>15/07/1955 - Nobel Ödülü almış 18 bilim adamı, nükleer silah karşıtı Mainau Deklarasyonu'nu yayınladılar.</t>
+  </si>
+  <si>
+    <t>Hayır, diyebilir misin 🙄Yumurtalı Pastırmalı Karışık Tost - Kardeşler Büfe #İzmir #tost #MutluHaftalar https://t.co/y11yC8g58C</t>
+  </si>
+  <si>
+    <t>Yediğim en lezzetli döner gerçekten klasikleşmiş döner tadının dışına çıkmışlar 👍 Deneyimli döner… http://t.co/mDdG4pOmqb</t>
   </si>
 </sst>
 </file>
@@ -853,7 +1277,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B140"/>
+  <dimension ref="A1:B260"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1839,7 +2263,7 @@
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>53</v>
+        <v>122</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -1847,7 +2271,7 @@
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -1855,7 +2279,7 @@
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -1863,7 +2287,7 @@
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -1871,7 +2295,7 @@
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -1879,7 +2303,7 @@
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -1887,7 +2311,7 @@
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -1895,7 +2319,7 @@
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -1903,7 +2327,7 @@
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -1911,7 +2335,7 @@
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -1919,7 +2343,7 @@
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -1927,7 +2351,7 @@
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -1935,7 +2359,7 @@
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -1943,7 +2367,7 @@
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -1951,7 +2375,7 @@
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -1959,7 +2383,7 @@
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -1967,7 +2391,7 @@
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -1975,7 +2399,967 @@
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2">
+      <c r="A251" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2">
+      <c r="A253" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2">
+      <c r="A254" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2">
+      <c r="A255" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B255" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2">
+      <c r="A256" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2">
+      <c r="A257" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2">
+      <c r="A258" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B258" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2">
+      <c r="A259" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B259" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2">
+      <c r="A260" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B260" t="s">
+        <v>256</v>
       </c>
     </row>
   </sheetData>

--- a/statistic/document.xlsx
+++ b/statistic/document.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="270">
   <si>
     <t>tweet</t>
   </si>
@@ -108,6 +107,9 @@
     <t>25/02/1836 - Samuel Colt, ürettiği silahın (Colt (tabanca)) patentini aldı.</t>
   </si>
   <si>
+    <t>29/12/1941 - NBC, Türkçe radyo yayınına başladı.</t>
+  </si>
+  <si>
     <t>18/12/1865 - ABD'de kölelik kaldırıldı.</t>
   </si>
   <si>
@@ -184,6 +186,9 @@
   </si>
   <si>
     <t>15/04/1929 - İstanbul'da terzilik mektebi açıldı.</t>
+  </si>
+  <si>
+    <t>02/04/2007 - Büyük Okyanus'da meydana gelen 8,1 büyüklüğündeki depremin oluşturduğu tsunami, Solomon Adaları'nı vurdu: 28 kişi öldü.</t>
   </si>
   <si>
     <t>27/03/1994 - Eurofighter Typhoon ilk test uçuşunu yaptı. https://t.co/sNKlbJpfo5</t>
@@ -348,6 +353,12 @@
     <t>27 Şubat, Gregoryen Takvimi'ne göre yılın 58. günüdür. Yıl sonuna kadar kalan 307 gün vardır (artık yıllarda 308).</t>
   </si>
   <si>
+    <t>Gece gece iyi geldi 😋
+Beyaz Çikolatalı #Sufle - Roma Dondurmacısı / #İstanbul ( #Gaziosmanpaşa )
+💵 12₺
+#yemekneredeyenir https://t.co/Y8NsQTwQoX</t>
+  </si>
+  <si>
     <t>Günaydın 😍
 Serpme Köy Kahvaltısı - Ayder Sofrası #İstanbul ( #Sarıyer )
 💵 25₺ / Kavurma
@@ -441,6 +452,9 @@
     <t>ABD: Türkiye ile Afrin sorununu çözmeye çalışıyoruz - https://t.co/eaepiPMxB3 https://t.co/JUB7QYnCbs</t>
   </si>
   <si>
+    <t>Çiftlik Bank'ın CEO'su bir zamanlar isyankar rapçiymiş - https://t.co/sZk4DFbxBl https://t.co/Pa7e9DdOxm</t>
+  </si>
+  <si>
     <t>Yolcu bıçaklayan taksiciye 1.5 yıl hapis cezası istendi - https://t.co/fnpToJLYKP https://t.co/jWRfPvP4mo</t>
   </si>
   <si>
@@ -588,6 +602,9 @@
     <t>Sapphire Istanbul #bugunnereyegitsem @ İstanbul Sapphire Seyir Terasi https://t.co/TOM98qVGt0</t>
   </si>
   <si>
+    <t>Rumeli Çikolatacısı ( Acibadem ) #bugunnereyegitsem #bng Iftar sonrası ziyarete geldik .. Bekleriz..… https://t.co/GDOHd367kJ</t>
+  </si>
+  <si>
     <t>34,5 Ege Fast Food ( Koşuyolu ) #bugunnereyegitsem #bng @ 34,5 Ege Fast Food https://t.co/seuhL2aRiV</t>
   </si>
   <si>
@@ -618,6 +635,9 @@
     <t>Kemal Usta Waffle ( Mado ) #bugunnereyegitsem #bng #kemalustawaffle @ Kemal Usta Waffles Moda https://t.co/ywGwZS3BJW</t>
   </si>
   <si>
+    <t>Kimler burada olmak ister ? 😁😳✌️ https://t.co/wBONrowZlg</t>
+  </si>
+  <si>
     <t>Mado Emirgan #bugunnereyegitsem #bng @ Emirgan MADO http://t.co/WYDOx3FWiS</t>
   </si>
   <si>
@@ -718,6 +738,9 @@
   </si>
   <si>
     <t>Afrin şehir merkezine Türk bayrağı asıldı https://t.co/phnXbR5x0G https://t.co/EdaMvoSfvK</t>
+  </si>
+  <si>
+    <t>RT @cnnturkrenk: Özcan Deniz ile Feyza Aktan evlendi! İşte ilk fotoğraflar https://t.co/AVfEMU1utX https://t.co/8JoFrfZGX7</t>
   </si>
   <si>
     <t>Çanakkale'de bu yollar kapatılacak https://t.co/TTGligsnAK https://t.co/vlaAnLnEfz</t>
@@ -930,27 +953,62 @@
   <si>
     <t>Yediğim en lezzetli döner gerçekten klasikleşmiş döner tadının dışına çıkmışlar 👍 Deneyimli döner… http://t.co/mDdG4pOmqb</t>
   </si>
+  <si>
+    <t>Hollanda'nın Patriotları 22 Ocak'ta İskenderun'da olacak
+Hollanda'dan Türkiye'ye 7 Ocak'ta gönderilecek iki adet Patirot bataryasının 22 Ocak'ta İskenderun Limanın'da olacağı bildirildi.
+ Hollanda Savunma Bakanlığı Genel Sekreteri Sündüz Çelen, Cihan Haber Ajansı'na  yaptığı açıklamada, Patriot füze bataryalarının Groningen Eemshaven Limanı'ndan yola çıkacağını ve iki haftalık yolculuktan sonra İskenderun'a varacağını ifade etti.
+ Çelen "Şu anda tüm hazırlıklar tamam. 30 Hollandalı ve 20 Alman askeri yetkiliden oluşan heyet için 8 Ocak Salı günü Eindhoven'da bir tören yapılacak. Burada Hollanda Savunma Bakanı Jeanine Hennis-Plasschaert\Hollanda Genel Kurmayı Başkanı ve diğer üst düzey yetkililer hazır bulunacaklar. Diğer taraftan Patriotların kurulması ile ilgili 270 Hollandalı asker 21 Ocak'ta yine Eindhoven'den yola çıkacak." dedi.
+ Hollanda'dan Türkiye'ye gönderilecek Patriotların Türkiye sınırında bir yıl kalacağı ve Hollandalı askerle birlikte ülkeye olan maliyetinin 42 milyon Euro olacağı ifade edildi
+ Patriot Füze Savunma Sistemleri ve radarları, komuta ve kontrol merkezleri, muhaberat ve lojistik tesisleriyle karmaşık ve hacimli bir sisteme sahip olması deniz ulaşımıyla nakledilmesini gerektiriyor.
+ Diğer yandan NATO yetkilileri Türkiye'ye ayrıca Suriye'den fırlatılabilecek füzeleri tespit edebilecek uçaklar (AWACS) gönderileceğini de açıklamıştı. Suriye'nin elinde bazıları kimyasal başlık da taşıyabilen kısa menzilli füzeler bulunduğu düşünülüyor. Bunlar arasında hedef tutturma bakımından oldukça etkin Sovyet yapımı SS-21 Scarab ve Scud-B füzeleri de sayılıyor.
+ NATO, Türkiye'ye Patriot konuşlandırma kararını tamamen savunma amaçlı olarak tanımlıyor ama Rusya, Suriye ve İran bu adımı, bölgede istikrarsızlığı artıracağını söyleyerek eleştiriyor.
+ (CİHAN)</t>
+  </si>
+  <si>
+    <t>20/04/1962 - Dolandırıcılığıyla ünlü Sülün Osman cezaevinde 'Alınteri ile Yaşamak' konulu konferans verdi.</t>
+  </si>
+  <si>
+    <t>Haydarpaşa Numune Hastanesi’ne  geceyarısı saat 02.30’a kadar 6 sivil ölü il çok sayıda yaralı getirildi. https://t.co/kSTn3hsEtD</t>
+  </si>
+  <si>
+    <t>Aksa Enerji, hisselerini Goldman Sachs’tan geri aldı - https://t.co/PWFK6iCXH4 https://t.co/ELapxWRTfQ</t>
+  </si>
+  <si>
+    <t>Kaymaklı Nutellalı Atom &amp;amp; Kaymaklı Atom - Lezzet-i Şark Gusto/ İstanbul ( Başakşehir - Fatih Terim Stadyumu Altı ) 
+🕦 Çalışma Saatleri 11:00-03:00
+☎ 0 212 488 27 27
+💵 20₺
+📍İşletme Pazartesi günleri kapalıdır.
+#yemekneredeyenircom https://t.co/wdKsp8EdpN</t>
+  </si>
+  <si>
+    <t>Diyarbakır’ın Bismil ilçesinde 61 adet el yapımı bomba ile çok sayıda bomba yapımında kullanılan malzeme ele geçirildi.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -965,26 +1023,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -1272,18 +1339,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B260"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B273"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
@@ -1291,7 +1352,7 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -1299,7 +1360,7 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
@@ -1307,7 +1368,7 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
@@ -1315,7 +1376,7 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
@@ -1323,7 +1384,7 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="1" t="n">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
@@ -1331,7 +1392,7 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="1" t="n">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
@@ -1339,7 +1400,7 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="1" t="n">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
@@ -1347,7 +1408,7 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="1" t="n">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
@@ -1355,7 +1416,7 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="1" t="n">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
@@ -1363,7 +1424,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="1" t="n">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
@@ -1371,7 +1432,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="1" t="n">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
@@ -1379,7 +1440,7 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="1" t="n">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
@@ -1387,7 +1448,7 @@
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="1" t="n">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
@@ -1395,7 +1456,7 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="1" t="n">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
@@ -1403,7 +1464,7 @@
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="1" t="n">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
@@ -1411,7 +1472,7 @@
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="1" t="n">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
@@ -1419,7 +1480,7 @@
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="1" t="n">
+      <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
@@ -1427,7 +1488,7 @@
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="1" t="n">
+      <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
@@ -1435,7 +1496,7 @@
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="1" t="n">
+      <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
@@ -1443,7 +1504,7 @@
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="1" t="n">
+      <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
@@ -1451,7 +1512,7 @@
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="1" t="n">
+      <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
@@ -1459,7 +1520,7 @@
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="1" t="n">
+      <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
@@ -1467,7 +1528,7 @@
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="1" t="n">
+      <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
@@ -1475,7 +1536,7 @@
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="1" t="n">
+      <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
@@ -1483,7 +1544,7 @@
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="1" t="n">
+      <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
@@ -1491,7 +1552,7 @@
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="1" t="n">
+      <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
@@ -1499,7 +1560,7 @@
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="1" t="n">
+      <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
@@ -1507,7 +1568,7 @@
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="1" t="n">
+      <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
@@ -1515,7 +1576,7 @@
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="1" t="n">
+      <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
@@ -1523,7 +1584,7 @@
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="1" t="n">
+      <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
@@ -1531,7 +1592,7 @@
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="1" t="n">
+      <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
@@ -1539,7 +1600,7 @@
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="1" t="n">
+      <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
@@ -1547,7 +1608,7 @@
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="1" t="n">
+      <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
@@ -1555,7 +1616,7 @@
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="1" t="n">
+      <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" t="s">
@@ -1563,7 +1624,7 @@
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="1" t="n">
+      <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" t="s">
@@ -1571,7 +1632,7 @@
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="1" t="n">
+      <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" t="s">
@@ -1579,7 +1640,7 @@
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="1" t="n">
+      <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" t="s">
@@ -1587,7 +1648,7 @@
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="1" t="n">
+      <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" t="s">
@@ -1595,7 +1656,7 @@
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="1" t="n">
+      <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" t="s">
@@ -1603,7 +1664,7 @@
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="1" t="n">
+      <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" t="s">
@@ -1611,7 +1672,7 @@
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="1" t="n">
+      <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" t="s">
@@ -1619,7 +1680,7 @@
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="1" t="n">
+      <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" t="s">
@@ -1627,7 +1688,7 @@
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="1" t="n">
+      <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" t="s">
@@ -1635,7 +1696,7 @@
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="1" t="n">
+      <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" t="s">
@@ -1643,7 +1704,7 @@
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="1" t="n">
+      <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" t="s">
@@ -1651,7 +1712,7 @@
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="1" t="n">
+      <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" t="s">
@@ -1659,7 +1720,7 @@
       </c>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="1" t="n">
+      <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" t="s">
@@ -1667,7 +1728,7 @@
       </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="1" t="n">
+      <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" t="s">
@@ -1675,7 +1736,7 @@
       </c>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" s="1" t="n">
+      <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50" t="s">
@@ -1683,7 +1744,7 @@
       </c>
     </row>
     <row r="51" spans="1:2">
-      <c r="A51" s="1" t="n">
+      <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51" t="s">
@@ -1691,7 +1752,7 @@
       </c>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="1" t="n">
+      <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52" t="s">
@@ -1699,7 +1760,7 @@
       </c>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="1" t="n">
+      <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53" t="s">
@@ -1707,7 +1768,7 @@
       </c>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" s="1" t="n">
+      <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54" t="s">
@@ -1715,7 +1776,7 @@
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="1" t="n">
+      <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55" t="s">
@@ -1723,7 +1784,7 @@
       </c>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56" s="1" t="n">
+      <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56" t="s">
@@ -1731,7 +1792,7 @@
       </c>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="1" t="n">
+      <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57" t="s">
@@ -1739,7 +1800,7 @@
       </c>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" s="1" t="n">
+      <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58" t="s">
@@ -1747,7 +1808,7 @@
       </c>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="1" t="n">
+      <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59" t="s">
@@ -1755,7 +1816,7 @@
       </c>
     </row>
     <row r="60" spans="1:2">
-      <c r="A60" s="1" t="n">
+      <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60" t="s">
@@ -1763,7 +1824,7 @@
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="1" t="n">
+      <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61" t="s">
@@ -1771,7 +1832,7 @@
       </c>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="1" t="n">
+      <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62" t="s">
@@ -1779,7 +1840,7 @@
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="1" t="n">
+      <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63" t="s">
@@ -1787,7 +1848,7 @@
       </c>
     </row>
     <row r="64" spans="1:2">
-      <c r="A64" s="1" t="n">
+      <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64" t="s">
@@ -1795,7 +1856,7 @@
       </c>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="1" t="n">
+      <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65" t="s">
@@ -1803,7 +1864,7 @@
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="1" t="n">
+      <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66" t="s">
@@ -1811,7 +1872,7 @@
       </c>
     </row>
     <row r="67" spans="1:2">
-      <c r="A67" s="1" t="n">
+      <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67" t="s">
@@ -1819,7 +1880,7 @@
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="1" t="n">
+      <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68" t="s">
@@ -1827,7 +1888,7 @@
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="1" t="n">
+      <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69" t="s">
@@ -1835,7 +1896,7 @@
       </c>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" s="1" t="n">
+      <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70" t="s">
@@ -1843,7 +1904,7 @@
       </c>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="1" t="n">
+      <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71" t="s">
@@ -1851,7 +1912,7 @@
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="1" t="n">
+      <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72" t="s">
@@ -1859,7 +1920,7 @@
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="1" t="n">
+      <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73" t="s">
@@ -1867,7 +1928,7 @@
       </c>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74" s="1" t="n">
+      <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74" t="s">
@@ -1875,7 +1936,7 @@
       </c>
     </row>
     <row r="75" spans="1:2">
-      <c r="A75" s="1" t="n">
+      <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75" t="s">
@@ -1883,7 +1944,7 @@
       </c>
     </row>
     <row r="76" spans="1:2">
-      <c r="A76" s="1" t="n">
+      <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76" t="s">
@@ -1891,7 +1952,7 @@
       </c>
     </row>
     <row r="77" spans="1:2">
-      <c r="A77" s="1" t="n">
+      <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77" t="s">
@@ -1899,7 +1960,7 @@
       </c>
     </row>
     <row r="78" spans="1:2">
-      <c r="A78" s="1" t="n">
+      <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78" t="s">
@@ -1907,7 +1968,7 @@
       </c>
     </row>
     <row r="79" spans="1:2">
-      <c r="A79" s="1" t="n">
+      <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79" t="s">
@@ -1915,7 +1976,7 @@
       </c>
     </row>
     <row r="80" spans="1:2">
-      <c r="A80" s="1" t="n">
+      <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80" t="s">
@@ -1923,7 +1984,7 @@
       </c>
     </row>
     <row r="81" spans="1:2">
-      <c r="A81" s="1" t="n">
+      <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81" t="s">
@@ -1931,7 +1992,7 @@
       </c>
     </row>
     <row r="82" spans="1:2">
-      <c r="A82" s="1" t="n">
+      <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82" t="s">
@@ -1939,7 +2000,7 @@
       </c>
     </row>
     <row r="83" spans="1:2">
-      <c r="A83" s="1" t="n">
+      <c r="A83" s="1">
         <v>81</v>
       </c>
       <c r="B83" t="s">
@@ -1947,7 +2008,7 @@
       </c>
     </row>
     <row r="84" spans="1:2">
-      <c r="A84" s="1" t="n">
+      <c r="A84" s="1">
         <v>82</v>
       </c>
       <c r="B84" t="s">
@@ -1955,7 +2016,7 @@
       </c>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" s="1" t="n">
+      <c r="A85" s="1">
         <v>83</v>
       </c>
       <c r="B85" t="s">
@@ -1963,7 +2024,7 @@
       </c>
     </row>
     <row r="86" spans="1:2">
-      <c r="A86" s="1" t="n">
+      <c r="A86" s="1">
         <v>84</v>
       </c>
       <c r="B86" t="s">
@@ -1971,7 +2032,7 @@
       </c>
     </row>
     <row r="87" spans="1:2">
-      <c r="A87" s="1" t="n">
+      <c r="A87" s="1">
         <v>85</v>
       </c>
       <c r="B87" t="s">
@@ -1979,7 +2040,7 @@
       </c>
     </row>
     <row r="88" spans="1:2">
-      <c r="A88" s="1" t="n">
+      <c r="A88" s="1">
         <v>86</v>
       </c>
       <c r="B88" t="s">
@@ -1987,7 +2048,7 @@
       </c>
     </row>
     <row r="89" spans="1:2">
-      <c r="A89" s="1" t="n">
+      <c r="A89" s="1">
         <v>87</v>
       </c>
       <c r="B89" t="s">
@@ -1995,7 +2056,7 @@
       </c>
     </row>
     <row r="90" spans="1:2">
-      <c r="A90" s="1" t="n">
+      <c r="A90" s="1">
         <v>88</v>
       </c>
       <c r="B90" t="s">
@@ -2003,7 +2064,7 @@
       </c>
     </row>
     <row r="91" spans="1:2">
-      <c r="A91" s="1" t="n">
+      <c r="A91" s="1">
         <v>89</v>
       </c>
       <c r="B91" t="s">
@@ -2011,7 +2072,7 @@
       </c>
     </row>
     <row r="92" spans="1:2">
-      <c r="A92" s="1" t="n">
+      <c r="A92" s="1">
         <v>90</v>
       </c>
       <c r="B92" t="s">
@@ -2019,7 +2080,7 @@
       </c>
     </row>
     <row r="93" spans="1:2">
-      <c r="A93" s="1" t="n">
+      <c r="A93" s="1">
         <v>91</v>
       </c>
       <c r="B93" t="s">
@@ -2027,7 +2088,7 @@
       </c>
     </row>
     <row r="94" spans="1:2">
-      <c r="A94" s="1" t="n">
+      <c r="A94" s="1">
         <v>92</v>
       </c>
       <c r="B94" t="s">
@@ -2035,7 +2096,7 @@
       </c>
     </row>
     <row r="95" spans="1:2">
-      <c r="A95" s="1" t="n">
+      <c r="A95" s="1">
         <v>93</v>
       </c>
       <c r="B95" t="s">
@@ -2043,7 +2104,7 @@
       </c>
     </row>
     <row r="96" spans="1:2">
-      <c r="A96" s="1" t="n">
+      <c r="A96" s="1">
         <v>94</v>
       </c>
       <c r="B96" t="s">
@@ -2051,7 +2112,7 @@
       </c>
     </row>
     <row r="97" spans="1:2">
-      <c r="A97" s="1" t="n">
+      <c r="A97" s="1">
         <v>95</v>
       </c>
       <c r="B97" t="s">
@@ -2059,7 +2120,7 @@
       </c>
     </row>
     <row r="98" spans="1:2">
-      <c r="A98" s="1" t="n">
+      <c r="A98" s="1">
         <v>96</v>
       </c>
       <c r="B98" t="s">
@@ -2067,7 +2128,7 @@
       </c>
     </row>
     <row r="99" spans="1:2">
-      <c r="A99" s="1" t="n">
+      <c r="A99" s="1">
         <v>97</v>
       </c>
       <c r="B99" t="s">
@@ -2075,7 +2136,7 @@
       </c>
     </row>
     <row r="100" spans="1:2">
-      <c r="A100" s="1" t="n">
+      <c r="A100" s="1">
         <v>98</v>
       </c>
       <c r="B100" t="s">
@@ -2083,7 +2144,7 @@
       </c>
     </row>
     <row r="101" spans="1:2">
-      <c r="A101" s="1" t="n">
+      <c r="A101" s="1">
         <v>99</v>
       </c>
       <c r="B101" t="s">
@@ -2091,7 +2152,7 @@
       </c>
     </row>
     <row r="102" spans="1:2">
-      <c r="A102" s="1" t="n">
+      <c r="A102" s="1">
         <v>100</v>
       </c>
       <c r="B102" t="s">
@@ -2099,7 +2160,7 @@
       </c>
     </row>
     <row r="103" spans="1:2">
-      <c r="A103" s="1" t="n">
+      <c r="A103" s="1">
         <v>101</v>
       </c>
       <c r="B103" t="s">
@@ -2107,7 +2168,7 @@
       </c>
     </row>
     <row r="104" spans="1:2">
-      <c r="A104" s="1" t="n">
+      <c r="A104" s="1">
         <v>102</v>
       </c>
       <c r="B104" t="s">
@@ -2115,7 +2176,7 @@
       </c>
     </row>
     <row r="105" spans="1:2">
-      <c r="A105" s="1" t="n">
+      <c r="A105" s="1">
         <v>103</v>
       </c>
       <c r="B105" t="s">
@@ -2123,7 +2184,7 @@
       </c>
     </row>
     <row r="106" spans="1:2">
-      <c r="A106" s="1" t="n">
+      <c r="A106" s="1">
         <v>104</v>
       </c>
       <c r="B106" t="s">
@@ -2131,7 +2192,7 @@
       </c>
     </row>
     <row r="107" spans="1:2">
-      <c r="A107" s="1" t="n">
+      <c r="A107" s="1">
         <v>105</v>
       </c>
       <c r="B107" t="s">
@@ -2139,7 +2200,7 @@
       </c>
     </row>
     <row r="108" spans="1:2">
-      <c r="A108" s="1" t="n">
+      <c r="A108" s="1">
         <v>106</v>
       </c>
       <c r="B108" t="s">
@@ -2147,7 +2208,7 @@
       </c>
     </row>
     <row r="109" spans="1:2">
-      <c r="A109" s="1" t="n">
+      <c r="A109" s="1">
         <v>107</v>
       </c>
       <c r="B109" t="s">
@@ -2155,7 +2216,7 @@
       </c>
     </row>
     <row r="110" spans="1:2">
-      <c r="A110" s="1" t="n">
+      <c r="A110" s="1">
         <v>108</v>
       </c>
       <c r="B110" t="s">
@@ -2163,7 +2224,7 @@
       </c>
     </row>
     <row r="111" spans="1:2">
-      <c r="A111" s="1" t="n">
+      <c r="A111" s="1">
         <v>109</v>
       </c>
       <c r="B111" t="s">
@@ -2171,7 +2232,7 @@
       </c>
     </row>
     <row r="112" spans="1:2">
-      <c r="A112" s="1" t="n">
+      <c r="A112" s="1">
         <v>110</v>
       </c>
       <c r="B112" t="s">
@@ -2179,7 +2240,7 @@
       </c>
     </row>
     <row r="113" spans="1:2">
-      <c r="A113" s="1" t="n">
+      <c r="A113" s="1">
         <v>111</v>
       </c>
       <c r="B113" t="s">
@@ -2187,7 +2248,7 @@
       </c>
     </row>
     <row r="114" spans="1:2">
-      <c r="A114" s="1" t="n">
+      <c r="A114" s="1">
         <v>112</v>
       </c>
       <c r="B114" t="s">
@@ -2195,7 +2256,7 @@
       </c>
     </row>
     <row r="115" spans="1:2">
-      <c r="A115" s="1" t="n">
+      <c r="A115" s="1">
         <v>113</v>
       </c>
       <c r="B115" t="s">
@@ -2203,7 +2264,7 @@
       </c>
     </row>
     <row r="116" spans="1:2">
-      <c r="A116" s="1" t="n">
+      <c r="A116" s="1">
         <v>114</v>
       </c>
       <c r="B116" t="s">
@@ -2211,7 +2272,7 @@
       </c>
     </row>
     <row r="117" spans="1:2">
-      <c r="A117" s="1" t="n">
+      <c r="A117" s="1">
         <v>115</v>
       </c>
       <c r="B117" t="s">
@@ -2219,7 +2280,7 @@
       </c>
     </row>
     <row r="118" spans="1:2">
-      <c r="A118" s="1" t="n">
+      <c r="A118" s="1">
         <v>116</v>
       </c>
       <c r="B118" t="s">
@@ -2227,7 +2288,7 @@
       </c>
     </row>
     <row r="119" spans="1:2">
-      <c r="A119" s="1" t="n">
+      <c r="A119" s="1">
         <v>117</v>
       </c>
       <c r="B119" t="s">
@@ -2235,7 +2296,7 @@
       </c>
     </row>
     <row r="120" spans="1:2">
-      <c r="A120" s="1" t="n">
+      <c r="A120" s="1">
         <v>118</v>
       </c>
       <c r="B120" t="s">
@@ -2243,7 +2304,7 @@
       </c>
     </row>
     <row r="121" spans="1:2">
-      <c r="A121" s="1" t="n">
+      <c r="A121" s="1">
         <v>119</v>
       </c>
       <c r="B121" t="s">
@@ -2251,7 +2312,7 @@
       </c>
     </row>
     <row r="122" spans="1:2">
-      <c r="A122" s="1" t="n">
+      <c r="A122" s="1">
         <v>120</v>
       </c>
       <c r="B122" t="s">
@@ -2259,7 +2320,7 @@
       </c>
     </row>
     <row r="123" spans="1:2">
-      <c r="A123" s="1" t="n">
+      <c r="A123" s="1">
         <v>121</v>
       </c>
       <c r="B123" t="s">
@@ -2267,7 +2328,7 @@
       </c>
     </row>
     <row r="124" spans="1:2">
-      <c r="A124" s="1" t="n">
+      <c r="A124" s="1">
         <v>122</v>
       </c>
       <c r="B124" t="s">
@@ -2275,7 +2336,7 @@
       </c>
     </row>
     <row r="125" spans="1:2">
-      <c r="A125" s="1" t="n">
+      <c r="A125" s="1">
         <v>123</v>
       </c>
       <c r="B125" t="s">
@@ -2283,7 +2344,7 @@
       </c>
     </row>
     <row r="126" spans="1:2">
-      <c r="A126" s="1" t="n">
+      <c r="A126" s="1">
         <v>124</v>
       </c>
       <c r="B126" t="s">
@@ -2291,7 +2352,7 @@
       </c>
     </row>
     <row r="127" spans="1:2">
-      <c r="A127" s="1" t="n">
+      <c r="A127" s="1">
         <v>125</v>
       </c>
       <c r="B127" t="s">
@@ -2299,7 +2360,7 @@
       </c>
     </row>
     <row r="128" spans="1:2">
-      <c r="A128" s="1" t="n">
+      <c r="A128" s="1">
         <v>126</v>
       </c>
       <c r="B128" t="s">
@@ -2307,7 +2368,7 @@
       </c>
     </row>
     <row r="129" spans="1:2">
-      <c r="A129" s="1" t="n">
+      <c r="A129" s="1">
         <v>127</v>
       </c>
       <c r="B129" t="s">
@@ -2315,7 +2376,7 @@
       </c>
     </row>
     <row r="130" spans="1:2">
-      <c r="A130" s="1" t="n">
+      <c r="A130" s="1">
         <v>128</v>
       </c>
       <c r="B130" t="s">
@@ -2323,7 +2384,7 @@
       </c>
     </row>
     <row r="131" spans="1:2">
-      <c r="A131" s="1" t="n">
+      <c r="A131" s="1">
         <v>129</v>
       </c>
       <c r="B131" t="s">
@@ -2331,7 +2392,7 @@
       </c>
     </row>
     <row r="132" spans="1:2">
-      <c r="A132" s="1" t="n">
+      <c r="A132" s="1">
         <v>130</v>
       </c>
       <c r="B132" t="s">
@@ -2339,7 +2400,7 @@
       </c>
     </row>
     <row r="133" spans="1:2">
-      <c r="A133" s="1" t="n">
+      <c r="A133" s="1">
         <v>131</v>
       </c>
       <c r="B133" t="s">
@@ -2347,7 +2408,7 @@
       </c>
     </row>
     <row r="134" spans="1:2">
-      <c r="A134" s="1" t="n">
+      <c r="A134" s="1">
         <v>132</v>
       </c>
       <c r="B134" t="s">
@@ -2355,7 +2416,7 @@
       </c>
     </row>
     <row r="135" spans="1:2">
-      <c r="A135" s="1" t="n">
+      <c r="A135" s="1">
         <v>133</v>
       </c>
       <c r="B135" t="s">
@@ -2363,7 +2424,7 @@
       </c>
     </row>
     <row r="136" spans="1:2">
-      <c r="A136" s="1" t="n">
+      <c r="A136" s="1">
         <v>134</v>
       </c>
       <c r="B136" t="s">
@@ -2371,7 +2432,7 @@
       </c>
     </row>
     <row r="137" spans="1:2">
-      <c r="A137" s="1" t="n">
+      <c r="A137" s="1">
         <v>135</v>
       </c>
       <c r="B137" t="s">
@@ -2379,7 +2440,7 @@
       </c>
     </row>
     <row r="138" spans="1:2">
-      <c r="A138" s="1" t="n">
+      <c r="A138" s="1">
         <v>136</v>
       </c>
       <c r="B138" t="s">
@@ -2387,7 +2448,7 @@
       </c>
     </row>
     <row r="139" spans="1:2">
-      <c r="A139" s="1" t="n">
+      <c r="A139" s="1">
         <v>137</v>
       </c>
       <c r="B139" t="s">
@@ -2395,7 +2456,7 @@
       </c>
     </row>
     <row r="140" spans="1:2">
-      <c r="A140" s="1" t="n">
+      <c r="A140" s="1">
         <v>138</v>
       </c>
       <c r="B140" t="s">
@@ -2403,7 +2464,7 @@
       </c>
     </row>
     <row r="141" spans="1:2">
-      <c r="A141" s="1" t="n">
+      <c r="A141" s="1">
         <v>139</v>
       </c>
       <c r="B141" t="s">
@@ -2411,7 +2472,7 @@
       </c>
     </row>
     <row r="142" spans="1:2">
-      <c r="A142" s="1" t="n">
+      <c r="A142" s="1">
         <v>140</v>
       </c>
       <c r="B142" t="s">
@@ -2419,7 +2480,7 @@
       </c>
     </row>
     <row r="143" spans="1:2">
-      <c r="A143" s="1" t="n">
+      <c r="A143" s="1">
         <v>141</v>
       </c>
       <c r="B143" t="s">
@@ -2427,7 +2488,7 @@
       </c>
     </row>
     <row r="144" spans="1:2">
-      <c r="A144" s="1" t="n">
+      <c r="A144" s="1">
         <v>142</v>
       </c>
       <c r="B144" t="s">
@@ -2435,7 +2496,7 @@
       </c>
     </row>
     <row r="145" spans="1:2">
-      <c r="A145" s="1" t="n">
+      <c r="A145" s="1">
         <v>143</v>
       </c>
       <c r="B145" t="s">
@@ -2443,7 +2504,7 @@
       </c>
     </row>
     <row r="146" spans="1:2">
-      <c r="A146" s="1" t="n">
+      <c r="A146" s="1">
         <v>144</v>
       </c>
       <c r="B146" t="s">
@@ -2451,7 +2512,7 @@
       </c>
     </row>
     <row r="147" spans="1:2">
-      <c r="A147" s="1" t="n">
+      <c r="A147" s="1">
         <v>145</v>
       </c>
       <c r="B147" t="s">
@@ -2459,7 +2520,7 @@
       </c>
     </row>
     <row r="148" spans="1:2">
-      <c r="A148" s="1" t="n">
+      <c r="A148" s="1">
         <v>146</v>
       </c>
       <c r="B148" t="s">
@@ -2467,7 +2528,7 @@
       </c>
     </row>
     <row r="149" spans="1:2">
-      <c r="A149" s="1" t="n">
+      <c r="A149" s="1">
         <v>147</v>
       </c>
       <c r="B149" t="s">
@@ -2475,7 +2536,7 @@
       </c>
     </row>
     <row r="150" spans="1:2">
-      <c r="A150" s="1" t="n">
+      <c r="A150" s="1">
         <v>148</v>
       </c>
       <c r="B150" t="s">
@@ -2483,7 +2544,7 @@
       </c>
     </row>
     <row r="151" spans="1:2">
-      <c r="A151" s="1" t="n">
+      <c r="A151" s="1">
         <v>149</v>
       </c>
       <c r="B151" t="s">
@@ -2491,7 +2552,7 @@
       </c>
     </row>
     <row r="152" spans="1:2">
-      <c r="A152" s="1" t="n">
+      <c r="A152" s="1">
         <v>150</v>
       </c>
       <c r="B152" t="s">
@@ -2499,7 +2560,7 @@
       </c>
     </row>
     <row r="153" spans="1:2">
-      <c r="A153" s="1" t="n">
+      <c r="A153" s="1">
         <v>151</v>
       </c>
       <c r="B153" t="s">
@@ -2507,7 +2568,7 @@
       </c>
     </row>
     <row r="154" spans="1:2">
-      <c r="A154" s="1" t="n">
+      <c r="A154" s="1">
         <v>152</v>
       </c>
       <c r="B154" t="s">
@@ -2515,7 +2576,7 @@
       </c>
     </row>
     <row r="155" spans="1:2">
-      <c r="A155" s="1" t="n">
+      <c r="A155" s="1">
         <v>153</v>
       </c>
       <c r="B155" t="s">
@@ -2523,7 +2584,7 @@
       </c>
     </row>
     <row r="156" spans="1:2">
-      <c r="A156" s="1" t="n">
+      <c r="A156" s="1">
         <v>154</v>
       </c>
       <c r="B156" t="s">
@@ -2531,7 +2592,7 @@
       </c>
     </row>
     <row r="157" spans="1:2">
-      <c r="A157" s="1" t="n">
+      <c r="A157" s="1">
         <v>155</v>
       </c>
       <c r="B157" t="s">
@@ -2539,7 +2600,7 @@
       </c>
     </row>
     <row r="158" spans="1:2">
-      <c r="A158" s="1" t="n">
+      <c r="A158" s="1">
         <v>156</v>
       </c>
       <c r="B158" t="s">
@@ -2547,7 +2608,7 @@
       </c>
     </row>
     <row r="159" spans="1:2">
-      <c r="A159" s="1" t="n">
+      <c r="A159" s="1">
         <v>157</v>
       </c>
       <c r="B159" t="s">
@@ -2555,7 +2616,7 @@
       </c>
     </row>
     <row r="160" spans="1:2">
-      <c r="A160" s="1" t="n">
+      <c r="A160" s="1">
         <v>158</v>
       </c>
       <c r="B160" t="s">
@@ -2563,7 +2624,7 @@
       </c>
     </row>
     <row r="161" spans="1:2">
-      <c r="A161" s="1" t="n">
+      <c r="A161" s="1">
         <v>159</v>
       </c>
       <c r="B161" t="s">
@@ -2571,7 +2632,7 @@
       </c>
     </row>
     <row r="162" spans="1:2">
-      <c r="A162" s="1" t="n">
+      <c r="A162" s="1">
         <v>160</v>
       </c>
       <c r="B162" t="s">
@@ -2579,7 +2640,7 @@
       </c>
     </row>
     <row r="163" spans="1:2">
-      <c r="A163" s="1" t="n">
+      <c r="A163" s="1">
         <v>161</v>
       </c>
       <c r="B163" t="s">
@@ -2587,7 +2648,7 @@
       </c>
     </row>
     <row r="164" spans="1:2">
-      <c r="A164" s="1" t="n">
+      <c r="A164" s="1">
         <v>162</v>
       </c>
       <c r="B164" t="s">
@@ -2595,7 +2656,7 @@
       </c>
     </row>
     <row r="165" spans="1:2">
-      <c r="A165" s="1" t="n">
+      <c r="A165" s="1">
         <v>163</v>
       </c>
       <c r="B165" t="s">
@@ -2603,7 +2664,7 @@
       </c>
     </row>
     <row r="166" spans="1:2">
-      <c r="A166" s="1" t="n">
+      <c r="A166" s="1">
         <v>164</v>
       </c>
       <c r="B166" t="s">
@@ -2611,7 +2672,7 @@
       </c>
     </row>
     <row r="167" spans="1:2">
-      <c r="A167" s="1" t="n">
+      <c r="A167" s="1">
         <v>165</v>
       </c>
       <c r="B167" t="s">
@@ -2619,7 +2680,7 @@
       </c>
     </row>
     <row r="168" spans="1:2">
-      <c r="A168" s="1" t="n">
+      <c r="A168" s="1">
         <v>166</v>
       </c>
       <c r="B168" t="s">
@@ -2627,7 +2688,7 @@
       </c>
     </row>
     <row r="169" spans="1:2">
-      <c r="A169" s="1" t="n">
+      <c r="A169" s="1">
         <v>167</v>
       </c>
       <c r="B169" t="s">
@@ -2635,7 +2696,7 @@
       </c>
     </row>
     <row r="170" spans="1:2">
-      <c r="A170" s="1" t="n">
+      <c r="A170" s="1">
         <v>168</v>
       </c>
       <c r="B170" t="s">
@@ -2643,7 +2704,7 @@
       </c>
     </row>
     <row r="171" spans="1:2">
-      <c r="A171" s="1" t="n">
+      <c r="A171" s="1">
         <v>169</v>
       </c>
       <c r="B171" t="s">
@@ -2651,7 +2712,7 @@
       </c>
     </row>
     <row r="172" spans="1:2">
-      <c r="A172" s="1" t="n">
+      <c r="A172" s="1">
         <v>170</v>
       </c>
       <c r="B172" t="s">
@@ -2659,7 +2720,7 @@
       </c>
     </row>
     <row r="173" spans="1:2">
-      <c r="A173" s="1" t="n">
+      <c r="A173" s="1">
         <v>171</v>
       </c>
       <c r="B173" t="s">
@@ -2667,7 +2728,7 @@
       </c>
     </row>
     <row r="174" spans="1:2">
-      <c r="A174" s="1" t="n">
+      <c r="A174" s="1">
         <v>172</v>
       </c>
       <c r="B174" t="s">
@@ -2675,7 +2736,7 @@
       </c>
     </row>
     <row r="175" spans="1:2">
-      <c r="A175" s="1" t="n">
+      <c r="A175" s="1">
         <v>173</v>
       </c>
       <c r="B175" t="s">
@@ -2683,7 +2744,7 @@
       </c>
     </row>
     <row r="176" spans="1:2">
-      <c r="A176" s="1" t="n">
+      <c r="A176" s="1">
         <v>174</v>
       </c>
       <c r="B176" t="s">
@@ -2691,7 +2752,7 @@
       </c>
     </row>
     <row r="177" spans="1:2">
-      <c r="A177" s="1" t="n">
+      <c r="A177" s="1">
         <v>175</v>
       </c>
       <c r="B177" t="s">
@@ -2699,7 +2760,7 @@
       </c>
     </row>
     <row r="178" spans="1:2">
-      <c r="A178" s="1" t="n">
+      <c r="A178" s="1">
         <v>176</v>
       </c>
       <c r="B178" t="s">
@@ -2707,7 +2768,7 @@
       </c>
     </row>
     <row r="179" spans="1:2">
-      <c r="A179" s="1" t="n">
+      <c r="A179" s="1">
         <v>177</v>
       </c>
       <c r="B179" t="s">
@@ -2715,7 +2776,7 @@
       </c>
     </row>
     <row r="180" spans="1:2">
-      <c r="A180" s="1" t="n">
+      <c r="A180" s="1">
         <v>178</v>
       </c>
       <c r="B180" t="s">
@@ -2723,7 +2784,7 @@
       </c>
     </row>
     <row r="181" spans="1:2">
-      <c r="A181" s="1" t="n">
+      <c r="A181" s="1">
         <v>179</v>
       </c>
       <c r="B181" t="s">
@@ -2731,7 +2792,7 @@
       </c>
     </row>
     <row r="182" spans="1:2">
-      <c r="A182" s="1" t="n">
+      <c r="A182" s="1">
         <v>180</v>
       </c>
       <c r="B182" t="s">
@@ -2739,7 +2800,7 @@
       </c>
     </row>
     <row r="183" spans="1:2">
-      <c r="A183" s="1" t="n">
+      <c r="A183" s="1">
         <v>181</v>
       </c>
       <c r="B183" t="s">
@@ -2747,7 +2808,7 @@
       </c>
     </row>
     <row r="184" spans="1:2">
-      <c r="A184" s="1" t="n">
+      <c r="A184" s="1">
         <v>182</v>
       </c>
       <c r="B184" t="s">
@@ -2755,7 +2816,7 @@
       </c>
     </row>
     <row r="185" spans="1:2">
-      <c r="A185" s="1" t="n">
+      <c r="A185" s="1">
         <v>183</v>
       </c>
       <c r="B185" t="s">
@@ -2763,7 +2824,7 @@
       </c>
     </row>
     <row r="186" spans="1:2">
-      <c r="A186" s="1" t="n">
+      <c r="A186" s="1">
         <v>184</v>
       </c>
       <c r="B186" t="s">
@@ -2771,7 +2832,7 @@
       </c>
     </row>
     <row r="187" spans="1:2">
-      <c r="A187" s="1" t="n">
+      <c r="A187" s="1">
         <v>185</v>
       </c>
       <c r="B187" t="s">
@@ -2779,7 +2840,7 @@
       </c>
     </row>
     <row r="188" spans="1:2">
-      <c r="A188" s="1" t="n">
+      <c r="A188" s="1">
         <v>186</v>
       </c>
       <c r="B188" t="s">
@@ -2787,7 +2848,7 @@
       </c>
     </row>
     <row r="189" spans="1:2">
-      <c r="A189" s="1" t="n">
+      <c r="A189" s="1">
         <v>187</v>
       </c>
       <c r="B189" t="s">
@@ -2795,7 +2856,7 @@
       </c>
     </row>
     <row r="190" spans="1:2">
-      <c r="A190" s="1" t="n">
+      <c r="A190" s="1">
         <v>188</v>
       </c>
       <c r="B190" t="s">
@@ -2803,7 +2864,7 @@
       </c>
     </row>
     <row r="191" spans="1:2">
-      <c r="A191" s="1" t="n">
+      <c r="A191" s="1">
         <v>189</v>
       </c>
       <c r="B191" t="s">
@@ -2811,7 +2872,7 @@
       </c>
     </row>
     <row r="192" spans="1:2">
-      <c r="A192" s="1" t="n">
+      <c r="A192" s="1">
         <v>190</v>
       </c>
       <c r="B192" t="s">
@@ -2819,7 +2880,7 @@
       </c>
     </row>
     <row r="193" spans="1:2">
-      <c r="A193" s="1" t="n">
+      <c r="A193" s="1">
         <v>191</v>
       </c>
       <c r="B193" t="s">
@@ -2827,7 +2888,7 @@
       </c>
     </row>
     <row r="194" spans="1:2">
-      <c r="A194" s="1" t="n">
+      <c r="A194" s="1">
         <v>192</v>
       </c>
       <c r="B194" t="s">
@@ -2835,7 +2896,7 @@
       </c>
     </row>
     <row r="195" spans="1:2">
-      <c r="A195" s="1" t="n">
+      <c r="A195" s="1">
         <v>193</v>
       </c>
       <c r="B195" t="s">
@@ -2843,7 +2904,7 @@
       </c>
     </row>
     <row r="196" spans="1:2">
-      <c r="A196" s="1" t="n">
+      <c r="A196" s="1">
         <v>194</v>
       </c>
       <c r="B196" t="s">
@@ -2851,7 +2912,7 @@
       </c>
     </row>
     <row r="197" spans="1:2">
-      <c r="A197" s="1" t="n">
+      <c r="A197" s="1">
         <v>195</v>
       </c>
       <c r="B197" t="s">
@@ -2859,7 +2920,7 @@
       </c>
     </row>
     <row r="198" spans="1:2">
-      <c r="A198" s="1" t="n">
+      <c r="A198" s="1">
         <v>196</v>
       </c>
       <c r="B198" t="s">
@@ -2867,7 +2928,7 @@
       </c>
     </row>
     <row r="199" spans="1:2">
-      <c r="A199" s="1" t="n">
+      <c r="A199" s="1">
         <v>197</v>
       </c>
       <c r="B199" t="s">
@@ -2875,7 +2936,7 @@
       </c>
     </row>
     <row r="200" spans="1:2">
-      <c r="A200" s="1" t="n">
+      <c r="A200" s="1">
         <v>198</v>
       </c>
       <c r="B200" t="s">
@@ -2883,7 +2944,7 @@
       </c>
     </row>
     <row r="201" spans="1:2">
-      <c r="A201" s="1" t="n">
+      <c r="A201" s="1">
         <v>199</v>
       </c>
       <c r="B201" t="s">
@@ -2891,7 +2952,7 @@
       </c>
     </row>
     <row r="202" spans="1:2">
-      <c r="A202" s="1" t="n">
+      <c r="A202" s="1">
         <v>200</v>
       </c>
       <c r="B202" t="s">
@@ -2899,7 +2960,7 @@
       </c>
     </row>
     <row r="203" spans="1:2">
-      <c r="A203" s="1" t="n">
+      <c r="A203" s="1">
         <v>201</v>
       </c>
       <c r="B203" t="s">
@@ -2907,7 +2968,7 @@
       </c>
     </row>
     <row r="204" spans="1:2">
-      <c r="A204" s="1" t="n">
+      <c r="A204" s="1">
         <v>202</v>
       </c>
       <c r="B204" t="s">
@@ -2915,7 +2976,7 @@
       </c>
     </row>
     <row r="205" spans="1:2">
-      <c r="A205" s="1" t="n">
+      <c r="A205" s="1">
         <v>203</v>
       </c>
       <c r="B205" t="s">
@@ -2923,7 +2984,7 @@
       </c>
     </row>
     <row r="206" spans="1:2">
-      <c r="A206" s="1" t="n">
+      <c r="A206" s="1">
         <v>204</v>
       </c>
       <c r="B206" t="s">
@@ -2931,7 +2992,7 @@
       </c>
     </row>
     <row r="207" spans="1:2">
-      <c r="A207" s="1" t="n">
+      <c r="A207" s="1">
         <v>205</v>
       </c>
       <c r="B207" t="s">
@@ -2939,7 +3000,7 @@
       </c>
     </row>
     <row r="208" spans="1:2">
-      <c r="A208" s="1" t="n">
+      <c r="A208" s="1">
         <v>206</v>
       </c>
       <c r="B208" t="s">
@@ -2947,7 +3008,7 @@
       </c>
     </row>
     <row r="209" spans="1:2">
-      <c r="A209" s="1" t="n">
+      <c r="A209" s="1">
         <v>207</v>
       </c>
       <c r="B209" t="s">
@@ -2955,7 +3016,7 @@
       </c>
     </row>
     <row r="210" spans="1:2">
-      <c r="A210" s="1" t="n">
+      <c r="A210" s="1">
         <v>208</v>
       </c>
       <c r="B210" t="s">
@@ -2963,7 +3024,7 @@
       </c>
     </row>
     <row r="211" spans="1:2">
-      <c r="A211" s="1" t="n">
+      <c r="A211" s="1">
         <v>209</v>
       </c>
       <c r="B211" t="s">
@@ -2971,7 +3032,7 @@
       </c>
     </row>
     <row r="212" spans="1:2">
-      <c r="A212" s="1" t="n">
+      <c r="A212" s="1">
         <v>210</v>
       </c>
       <c r="B212" t="s">
@@ -2979,7 +3040,7 @@
       </c>
     </row>
     <row r="213" spans="1:2">
-      <c r="A213" s="1" t="n">
+      <c r="A213" s="1">
         <v>211</v>
       </c>
       <c r="B213" t="s">
@@ -2987,7 +3048,7 @@
       </c>
     </row>
     <row r="214" spans="1:2">
-      <c r="A214" s="1" t="n">
+      <c r="A214" s="1">
         <v>212</v>
       </c>
       <c r="B214" t="s">
@@ -2995,7 +3056,7 @@
       </c>
     </row>
     <row r="215" spans="1:2">
-      <c r="A215" s="1" t="n">
+      <c r="A215" s="1">
         <v>213</v>
       </c>
       <c r="B215" t="s">
@@ -3003,7 +3064,7 @@
       </c>
     </row>
     <row r="216" spans="1:2">
-      <c r="A216" s="1" t="n">
+      <c r="A216" s="1">
         <v>214</v>
       </c>
       <c r="B216" t="s">
@@ -3011,7 +3072,7 @@
       </c>
     </row>
     <row r="217" spans="1:2">
-      <c r="A217" s="1" t="n">
+      <c r="A217" s="1">
         <v>215</v>
       </c>
       <c r="B217" t="s">
@@ -3019,7 +3080,7 @@
       </c>
     </row>
     <row r="218" spans="1:2">
-      <c r="A218" s="1" t="n">
+      <c r="A218" s="1">
         <v>216</v>
       </c>
       <c r="B218" t="s">
@@ -3027,7 +3088,7 @@
       </c>
     </row>
     <row r="219" spans="1:2">
-      <c r="A219" s="1" t="n">
+      <c r="A219" s="1">
         <v>217</v>
       </c>
       <c r="B219" t="s">
@@ -3035,71 +3096,71 @@
       </c>
     </row>
     <row r="220" spans="1:2">
-      <c r="A220" s="1" t="n">
+      <c r="A220" s="1">
         <v>218</v>
       </c>
       <c r="B220" t="s">
-        <v>79</v>
+        <v>219</v>
       </c>
     </row>
     <row r="221" spans="1:2">
-      <c r="A221" s="1" t="n">
+      <c r="A221" s="1">
         <v>219</v>
       </c>
       <c r="B221" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="222" spans="1:2">
-      <c r="A222" s="1" t="n">
+      <c r="A222" s="1">
         <v>220</v>
       </c>
       <c r="B222" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="223" spans="1:2">
-      <c r="A223" s="1" t="n">
+      <c r="A223" s="1">
         <v>221</v>
       </c>
       <c r="B223" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="224" spans="1:2">
-      <c r="A224" s="1" t="n">
+      <c r="A224" s="1">
         <v>222</v>
       </c>
       <c r="B224" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="225" spans="1:2">
-      <c r="A225" s="1" t="n">
+      <c r="A225" s="1">
         <v>223</v>
       </c>
       <c r="B225" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="226" spans="1:2">
-      <c r="A226" s="1" t="n">
+      <c r="A226" s="1">
         <v>224</v>
       </c>
       <c r="B226" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="227" spans="1:2">
-      <c r="A227" s="1" t="n">
+      <c r="A227" s="1">
         <v>225</v>
       </c>
       <c r="B227" t="s">
-        <v>225</v>
+        <v>81</v>
       </c>
     </row>
     <row r="228" spans="1:2">
-      <c r="A228" s="1" t="n">
+      <c r="A228" s="1">
         <v>226</v>
       </c>
       <c r="B228" t="s">
@@ -3107,7 +3168,7 @@
       </c>
     </row>
     <row r="229" spans="1:2">
-      <c r="A229" s="1" t="n">
+      <c r="A229" s="1">
         <v>227</v>
       </c>
       <c r="B229" t="s">
@@ -3115,7 +3176,7 @@
       </c>
     </row>
     <row r="230" spans="1:2">
-      <c r="A230" s="1" t="n">
+      <c r="A230" s="1">
         <v>228</v>
       </c>
       <c r="B230" t="s">
@@ -3123,7 +3184,7 @@
       </c>
     </row>
     <row r="231" spans="1:2">
-      <c r="A231" s="1" t="n">
+      <c r="A231" s="1">
         <v>229</v>
       </c>
       <c r="B231" t="s">
@@ -3131,7 +3192,7 @@
       </c>
     </row>
     <row r="232" spans="1:2">
-      <c r="A232" s="1" t="n">
+      <c r="A232" s="1">
         <v>230</v>
       </c>
       <c r="B232" t="s">
@@ -3139,7 +3200,7 @@
       </c>
     </row>
     <row r="233" spans="1:2">
-      <c r="A233" s="1" t="n">
+      <c r="A233" s="1">
         <v>231</v>
       </c>
       <c r="B233" t="s">
@@ -3147,7 +3208,7 @@
       </c>
     </row>
     <row r="234" spans="1:2">
-      <c r="A234" s="1" t="n">
+      <c r="A234" s="1">
         <v>232</v>
       </c>
       <c r="B234" t="s">
@@ -3155,7 +3216,7 @@
       </c>
     </row>
     <row r="235" spans="1:2">
-      <c r="A235" s="1" t="n">
+      <c r="A235" s="1">
         <v>233</v>
       </c>
       <c r="B235" t="s">
@@ -3163,7 +3224,7 @@
       </c>
     </row>
     <row r="236" spans="1:2">
-      <c r="A236" s="1" t="n">
+      <c r="A236" s="1">
         <v>234</v>
       </c>
       <c r="B236" t="s">
@@ -3171,7 +3232,7 @@
       </c>
     </row>
     <row r="237" spans="1:2">
-      <c r="A237" s="1" t="n">
+      <c r="A237" s="1">
         <v>235</v>
       </c>
       <c r="B237" t="s">
@@ -3179,7 +3240,7 @@
       </c>
     </row>
     <row r="238" spans="1:2">
-      <c r="A238" s="1" t="n">
+      <c r="A238" s="1">
         <v>236</v>
       </c>
       <c r="B238" t="s">
@@ -3187,71 +3248,71 @@
       </c>
     </row>
     <row r="239" spans="1:2">
-      <c r="A239" s="1" t="n">
+      <c r="A239" s="1">
         <v>237</v>
       </c>
       <c r="B239" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
     </row>
     <row r="240" spans="1:2">
-      <c r="A240" s="1" t="n">
+      <c r="A240" s="1">
         <v>238</v>
       </c>
       <c r="B240" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="241" spans="1:2">
-      <c r="A241" s="1" t="n">
+      <c r="A241" s="1">
         <v>239</v>
       </c>
       <c r="B241" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="242" spans="1:2">
-      <c r="A242" s="1" t="n">
+      <c r="A242" s="1">
         <v>240</v>
       </c>
       <c r="B242" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="243" spans="1:2">
-      <c r="A243" s="1" t="n">
+      <c r="A243" s="1">
         <v>241</v>
       </c>
       <c r="B243" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="244" spans="1:2">
-      <c r="A244" s="1" t="n">
+      <c r="A244" s="1">
         <v>242</v>
       </c>
       <c r="B244" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="245" spans="1:2">
-      <c r="A245" s="1" t="n">
+      <c r="A245" s="1">
         <v>243</v>
       </c>
       <c r="B245" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="246" spans="1:2">
-      <c r="A246" s="1" t="n">
+      <c r="A246" s="1">
         <v>244</v>
       </c>
       <c r="B246" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
     </row>
     <row r="247" spans="1:2">
-      <c r="A247" s="1" t="n">
+      <c r="A247" s="1">
         <v>245</v>
       </c>
       <c r="B247" t="s">
@@ -3259,71 +3320,71 @@
       </c>
     </row>
     <row r="248" spans="1:2">
-      <c r="A248" s="1" t="n">
+      <c r="A248" s="1">
         <v>246</v>
       </c>
       <c r="B248" t="s">
-        <v>221</v>
+        <v>245</v>
       </c>
     </row>
     <row r="249" spans="1:2">
-      <c r="A249" s="1" t="n">
+      <c r="A249" s="1">
         <v>247</v>
       </c>
       <c r="B249" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="250" spans="1:2">
-      <c r="A250" s="1" t="n">
+      <c r="A250" s="1">
         <v>248</v>
       </c>
       <c r="B250" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="251" spans="1:2">
-      <c r="A251" s="1" t="n">
+      <c r="A251" s="1">
         <v>249</v>
       </c>
       <c r="B251" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="252" spans="1:2">
-      <c r="A252" s="1" t="n">
+      <c r="A252" s="1">
         <v>250</v>
       </c>
       <c r="B252" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="253" spans="1:2">
-      <c r="A253" s="1" t="n">
+      <c r="A253" s="1">
         <v>251</v>
       </c>
       <c r="B253" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="254" spans="1:2">
-      <c r="A254" s="1" t="n">
+      <c r="A254" s="1">
         <v>252</v>
       </c>
       <c r="B254" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="255" spans="1:2">
-      <c r="A255" s="1" t="n">
+      <c r="A255" s="1">
         <v>253</v>
       </c>
       <c r="B255" t="s">
-        <v>251</v>
+        <v>228</v>
       </c>
     </row>
     <row r="256" spans="1:2">
-      <c r="A256" s="1" t="n">
+      <c r="A256" s="1">
         <v>254</v>
       </c>
       <c r="B256" t="s">
@@ -3331,7 +3392,7 @@
       </c>
     </row>
     <row r="257" spans="1:2">
-      <c r="A257" s="1" t="n">
+      <c r="A257" s="1">
         <v>255</v>
       </c>
       <c r="B257" t="s">
@@ -3339,7 +3400,7 @@
       </c>
     </row>
     <row r="258" spans="1:2">
-      <c r="A258" s="1" t="n">
+      <c r="A258" s="1">
         <v>256</v>
       </c>
       <c r="B258" t="s">
@@ -3347,7 +3408,7 @@
       </c>
     </row>
     <row r="259" spans="1:2">
-      <c r="A259" s="1" t="n">
+      <c r="A259" s="1">
         <v>257</v>
       </c>
       <c r="B259" t="s">
@@ -3355,14 +3416,118 @@
       </c>
     </row>
     <row r="260" spans="1:2">
-      <c r="A260" s="1" t="n">
+      <c r="A260" s="1">
         <v>258</v>
       </c>
       <c r="B260" t="s">
         <v>256</v>
       </c>
     </row>
+    <row r="261" spans="1:2">
+      <c r="A261" s="1">
+        <v>259</v>
+      </c>
+      <c r="B261" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2">
+      <c r="A262" s="1">
+        <v>260</v>
+      </c>
+      <c r="B262" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2">
+      <c r="A263" s="1">
+        <v>261</v>
+      </c>
+      <c r="B263" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2">
+      <c r="A264" s="1">
+        <v>262</v>
+      </c>
+      <c r="B264" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2">
+      <c r="A265" s="1">
+        <v>263</v>
+      </c>
+      <c r="B265" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2">
+      <c r="A266" s="1">
+        <v>264</v>
+      </c>
+      <c r="B266" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2">
+      <c r="A267" s="1">
+        <v>265</v>
+      </c>
+      <c r="B267" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2">
+      <c r="A268" s="1">
+        <v>266</v>
+      </c>
+      <c r="B268" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2">
+      <c r="A269" s="1">
+        <v>267</v>
+      </c>
+      <c r="B269" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2">
+      <c r="A270" s="1">
+        <v>268</v>
+      </c>
+      <c r="B270" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2">
+      <c r="A271" s="1">
+        <v>269</v>
+      </c>
+      <c r="B271" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2">
+      <c r="A272" s="1">
+        <v>270</v>
+      </c>
+      <c r="B272" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2">
+      <c r="A273" s="1">
+        <v>271</v>
+      </c>
+      <c r="B273" t="s">
+        <v>269</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/statistic/document.xlsx
+++ b/statistic/document.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1039" uniqueCount="1036">
   <si>
     <t>tweet</t>
   </si>
@@ -984,12 +984,2614 @@
   <si>
     <t>Diyarbakır’ın Bismil ilçesinde 61 adet el yapımı bomba ile çok sayıda bomba yapımında kullanılan malzeme ele geçirildi.</t>
   </si>
+  <si>
+    <t>2025 yılına kadar 3,5 milyar kişinin su kıtlığıyla karşı karşıya kalabileceği tahmin ediliyor
+Dünyada 2,1 milyar kişi temiz sudan yoksun https://t.co/wi3jmlTXIP https://t.co/gKAEiCaGKr</t>
+  </si>
+  <si>
+    <t>#İdlib'e hava saldırısı: 16'sı öğrenci 20 kişi hayatını kaybetti https://t.co/ci8CuskUJP https://t.co/42FxSCkvYI</t>
+  </si>
+  <si>
+    <t>15 yılda yapılan 125,8 milyar liralık yatırımla 7 bin 200 tesis hizmete sunuldu
+Türkiye'nin su kaynaklarına 125,8 milyar liralık yatırım https://t.co/K6tlEdn1pb https://t.co/bFA7D1ejfB</t>
+  </si>
+  <si>
+    <t>15 Temmuz Gazisi Arslan: Askerlere 'yapmayın, etmeyin' dedik. Askerler havaya ateş ettiler, biz de 'havaya sıkmakla bu milleti korkutamazsınız' dedik. Askerler daha sonra üzerimize sıktılar https://t.co/OB6XiFwgdN https://t.co/ds31yI2ftG</t>
+  </si>
+  <si>
+    <t>60 saniyede bugün https://t.co/rtDEBN9M5J https://t.co/KwEGWTbEov</t>
+  </si>
+  <si>
+    <t>ABD'nin cari açığı yüzde 26 arttı https://t.co/3HsfVbY2ZS https://t.co/dIEqnS44Xl</t>
+  </si>
+  <si>
+    <t>Başbakan Yıldırım: 16 yılda 4 milyar 39 milyon fidanı toprakla buluşturduk https://t.co/OznYkbfyz7 https://t.co/3uMLlRWe39</t>
+  </si>
+  <si>
+    <t>'Artı 1 fark'la ailesinin 'mucize'si oldu
+Aile ve Sosyal Politikalar Bakanlığı Ankara İl Müdürü Bestami Erkoç, 29 aylık down sendromlu kızı Reyyan, koruyucu ailesi olduğu 19 aylık kızı ve iki oğluyla büyük bir aile olmanın mutluluğunu yaşıyor https://t.co/FcrEN28UGV https://t.co/ED7kxaVgKS</t>
+  </si>
+  <si>
+    <t>Cumhurbaşkanı Erdoğan: Türkiye sınırları boyunca terörist tehdidi ortadan kalkana kadar durmayacak https://t.co/ad92NUEai5 https://t.co/dX0dBIW5Bn</t>
+  </si>
+  <si>
+    <t>❝2 kez Büyük Ağrı, 16 kez de Erciyes Dağı'nda zirve yaptım❞
+Engelli dağcının hedefi Everest https://t.co/O0nkJ04SC5 https://t.co/PMBJdSkcJo</t>
+  </si>
+  <si>
+    <t>Mehmetçik zorlu arazi şartlarında terörist takibinde
+TSK'nın, Irak'ın kuzeyindeki terör kamplarına yönelik operasyonları zorlu arazi koşullarına rağmen başarıyla sürüyor https://t.co/wI0IkSLaKR https://t.co/8U1upcIl2d</t>
+  </si>
+  <si>
+    <t>❝10 dernek 8 bin 842 su kuyusu açtı❞
+Türkiye dünya ülkelerine 'can suyu' taşıyor https://t.co/RGfPVMal1R https://t.co/DhTtO0NJ6r</t>
+  </si>
+  <si>
+    <t>Dışişleri Bakanı Çavuşoğlu: ABD ile anlaşma değil anlayış birliğine vardık https://t.co/c8u4im72BB https://t.co/ioA4uioTSP</t>
+  </si>
+  <si>
+    <t>CHP Genel Başkanı Kılıçdaroğlu, Aşık Veysel'i andı https://t.co/Aj7ul6c4QM https://t.co/yMHHDfznif</t>
+  </si>
+  <si>
+    <t>Türk komandosu Afrin'de destan yazıyor
+#ZeytinDalıHarekatı kapsamında Afrin'e sevk edilen ve terör örgütlerinin korkulu rüyası olan komandolar, bölgedeki savaş mağdurlarının umudu oldu https://t.co/u4ddWybgCv https://t.co/4r1xpwM90b</t>
+  </si>
+  <si>
+    <t>RT @AACanli: #CumhurbaşkanıErdoğan: Neymiş, #Münbiç'ten çıkmayacaklarmış. Bir defa sizin bırakınız oradan çıkmamayı, orada bulunmaya hakkın…</t>
+  </si>
+  <si>
+    <t>RT @AACanli: #CumhurbaşkanıErdoğan: #Afrin şehir merkezi kontrol altına alındı. Hemen süratle okulları bakıma aldık. Hastaneleri, hepsini b…</t>
+  </si>
+  <si>
+    <t>PYD/PKK yanlıları Çeçenistan savaşından #Afrin yalanı üretti
+#ZeytinDalıHarekatı'nı karalamak isteyen terör örgütü PYD/PKK destekçileri yalanlarına devam ediyor https://t.co/1wSe1jV8xC https://t.co/mrEKreuIzR</t>
+  </si>
+  <si>
+    <t>RT @AACanli: Cumhurbaşkanı Erdoğan, Zeytin Dalı Harekatı'nın başlangıcından bu yana 3698 teröristin etkisiz hale getirildiğini açıkladı.</t>
+  </si>
+  <si>
+    <t>RT @AACanli: #CumhurbaşkanıErdoğan: Bugün burada, "Daha Yeşil Bir Türkiye'yi Birlikte İnşa Edelim" sloganıyla yeni bir hamle başlatıyoruz.…</t>
+  </si>
+  <si>
+    <t>❝Biyolojik annesi değilim ama yürekten annesiyim❞
+Üç erkek çocukları olan Akbaşlı ailesi, kız çocuk hasretlerini 25 günlük iken aldıkları bir bebeğe koruyucu aile olarak giderdi https://t.co/n8Z3NbneVj https://t.co/HRiTyQVG8N</t>
+  </si>
+  <si>
+    <t>Teröristlere ait çok sayıda füze ve el yapımı patlayıcı ele geçirildi
+ÖSO, #Afrin'de YPG/PKK cephanesi buldu https://t.co/AIZlqhf4BR https://t.co/DDoXcrW1jV</t>
+  </si>
+  <si>
+    <t>Fetullahçı Terör Örgütü üyesi elektrik mühendisi İmralı'da PKK elebaşı Öcalan'la görüşmüş https://t.co/pWYYb0yu66 https://t.co/pEtGCrq1Iu</t>
+  </si>
+  <si>
+    <t>RT @AACanli: #Canlı: #CumhurbaşkanıErdoğan, "Milletimizle Birlikte Daha Yeşil Türkiye Buluşması"nda konuşuyor https://t.co/bNL9lqarg2</t>
+  </si>
+  <si>
+    <t>• İTO
+• İSO
+• İSTİB
+• DTO
+#İstanbul'daki oda ve borsalarda seçim rüzgarı esiyor https://t.co/zgW3fXSStp https://t.co/hPBizFWyX9</t>
+  </si>
+  <si>
+    <t>• Sadece YPG'nin Münbiç'ten çekilmesi yetmez
+• #Münbiç'ten sonra sıra diğer şehirlere gelecek
+Dışişleri Bakanı Çavuşoğlu'ndan açıklama https://t.co/oJ9s2T7yqv https://t.co/HKBsygj0lr</t>
+  </si>
+  <si>
+    <t>#Türkiye'de konut satışı azaldı https://t.co/v8lkeC8U8C https://t.co/96q2TDB3ld</t>
+  </si>
+  <si>
+    <t>Başbakan Yardımcısı Akdağ: #Afrin'de 29 noktada yiyecek ve hijyen paketleri dağıtıldı https://t.co/deSW7zHlvf https://t.co/xlJY2wVeeC</t>
+  </si>
+  <si>
+    <t>RT @AACanli: Dışişleri Bakanı Çavuşoğlu:"Münbiçten sonra sıra diğer şehirlere gelecektir. Sadece Münbiç ve sadece YPG'nin Münbiç'ten çekilm…</t>
+  </si>
+  <si>
+    <t>PYD/PKK yanlıları Çeçenistan savaşından #Afrin yalanı üretti
+#ZeytinDalıHarekatı'nı karalamak isteyen terör örgütü PYD/PKK destekçileri yalanlarına devam ediyor https://t.co/1wSe1jV8xC https://t.co/JpciJncfbM</t>
+  </si>
+  <si>
+    <t>Ünlü halk ozanı Aşık Veysel Şatıroğlu, ölümünün 45. yılında mezarı başında anıldı https://t.co/IM0pCCZ6E3 https://t.co/JDdwh5hRWd</t>
+  </si>
+  <si>
+    <t>Dışişleri Bakanı Çavuşoğlu, #AAEditörMasası'na konuk olacak https://t.co/Lm4RJYb0p3 https://t.co/CJu1yf2zEV</t>
+  </si>
+  <si>
+    <t>❝Bugün ben çok yakışıklıyım❞
+Tebessüm Kahvesi'nde çalışan down sendromlu Emrah, kendisi gibi gençlere, ailelerine ve topluma umut veriyor 
+👆🏻 Tamamı #YouTube kanalımızda: https://t.co/C6JWirORVt
+#DownSendromuFarkındalıkGünü https://t.co/5gkXTh8Q3d</t>
+  </si>
+  <si>
+    <t>Son teslim tarihinden sonra yapılacak başvurular kabul edilmeyecek
+165 milyon avroluk hibeye başvuru süresi uzatıldı https://t.co/vgEOK3aMeL https://t.co/OZ3lgzQi6h</t>
+  </si>
+  <si>
+    <t>RT @AACanli: #Canlı: #Galatasaray Başkanı Mustafa Cengiz basın mensuplarının sorularını yanıtlıyor https://t.co/iFBWds9tbt</t>
+  </si>
+  <si>
+    <t>PKK'nın terör kamplarına yönelik operasyon sürüyor https://t.co/itJRhkLygu https://t.co/igIggTmBwZ</t>
+  </si>
+  <si>
+    <t>Başlangıcından bu yana #ZeytinDalıHarekatı'nın unutulmaz kareleri bir arada https://t.co/3RjH8OsQeQ https://t.co/JszsIwmkkW</t>
+  </si>
+  <si>
+    <t>#Belarus'un Ankara Büyükelçisi Savinykh: Nasreddin Hoca fıkraları çocukluğumda başucu kitabımdı https://t.co/uCv4H315Qm https://t.co/jB8AHovwqB</t>
+  </si>
+  <si>
+    <t>RT @AACanli: #Canlı: Milli eskrimciler Deniz Selin Ünlüdağ ve Aylin Çakır, #AASporMasası'nda soruları cevaplıyor https://t.co/BsylhC28Qi</t>
+  </si>
+  <si>
+    <t>Cumhurbaşkanı Erdoğan'dan eski MHP Milletvekili emekli büyükelçi Bölükbaşı'nın eşine taziye telefonu https://t.co/1aYLUNywun https://t.co/fyAXdJMCya</t>
+  </si>
+  <si>
+    <t>TSK ve ÖSO'nun #Afrin'de teröristlerin işgalindeki bölgeleri özgürleştirmesiyle yerel meclisler yeniden açılıyor.
+Teröristlerin kapattığı yerel meclisler #ZeytinDalıHarekatı ile hayat buluyor https://t.co/WvCAEI3lTn https://t.co/UmL5VBVQRN</t>
+  </si>
+  <si>
+    <t>İHH, #ZeytinDalıHarekatı kapsamında, terör örgütü PYD/PKK'dan temizlenen #Afrin’e gıda yardımı ulaştırdı https://t.co/zEivtT7Pux https://t.co/iyo9tz1EjU</t>
+  </si>
+  <si>
+    <t>Terör örgütü YPG/PKK'dan temizlenen #Afrin bölgesinde minikler özgürlüğün keyfini yaşıyor https://t.co/8yigsgIpXc https://t.co/MKFYBwXHcn</t>
+  </si>
+  <si>
+    <t>Fetullahçı Terör Örgütü’nün yurt dışına kaçan firarileri https://t.co/MtfKjQHdh8 https://t.co/nkrq3Yb8RS</t>
+  </si>
+  <si>
+    <t>Komiserlik sorularını sızdıran polis ve öğretmen 14 şüpheli hakkında gözaltı kararı alındı https://t.co/ZCw2Kz98Aa https://t.co/0jGn07wxfv</t>
+  </si>
+  <si>
+    <t>Sivillerin kullandığı binalarda tek kurşun izi dahi yok
+Türk Silahlı Kuvvetlerinin sivil hassasiyeti #Afrin’deki binalarda kendini gösterdi https://t.co/56YBjiPEop https://t.co/kLwAX2Rs19</t>
+  </si>
+  <si>
+    <t>#CHP Genel Başkanı Kılıçdaroğlu Nevruz Bayramı'nı kutladı https://t.co/LBIYiGdX1V https://t.co/yDELZRZH7V</t>
+  </si>
+  <si>
+    <t>Bombalı saldırı hazırlığındaki teröristlere yönelik operasyonda 7 şüpheli yakalandı https://t.co/Oqcv1mFq7j https://t.co/Wh3pHOJ9tq</t>
+  </si>
+  <si>
+    <t>Deniz Baykal, tedavisinin tamamlandığı Münih'ten Sağlık Bakanlığına ait ambulans uçakla Ankara'ya getirildi
+Baykal'ın tedavisine Gülhane Eğitim ve Araştırma Hastanesi'nde bir süre daha devam edilecek https://t.co/OLY0LcjxLN https://t.co/hNJiwQiIsY</t>
+  </si>
+  <si>
+    <t>RT @AACanli: Ankara Cumhuriyet Başsavcılığı, 2011'deki Polislikten Komiserliğe Geçiş Sınavı sorularını önceden FETÖ üyelerine sızdırdıkları…</t>
+  </si>
+  <si>
+    <t>❝Üniversitelerin teröristlerden temizlenmesini istiyoruz❞
+Boğaziçi Üniversitesi öğrencilerinden #Afrin açıklaması https://t.co/0lLz4I0Xlu https://t.co/OutJoILTq0</t>
+  </si>
+  <si>
+    <t>#Afrin'de halk 18 teröristi TSK'ya teslim etti https://t.co/bwUPDVLlPh https://t.co/aXsKoqkIwX</t>
+  </si>
+  <si>
+    <t>❝Türk askerini görünce kurban kestik❞ 
+Teröristlerden temizlenen #Afrin’de halk yeniden güvenli günlere kavuşmanın mutluluğunu yaşıyor https://t.co/XGpjdxPsvU https://t.co/wxmWWlJ2na</t>
+  </si>
+  <si>
+    <t>- Eşim sadece vatanını, milletini düşündü
+- Bu şahıslar kendi vatandaşlarına, Türk bayrağına nasıl ateş ettiler?
+Fetullahçı Terör Örgütü'nün darbe girişiminde 15 Temmuz Şehitler Köprüsü'nde şehit düşen Köksal Karmil’in eşi mahkemede konuştu https://t.co/zeIlyDLgpx https://t.co/vDTzQMsbIo</t>
+  </si>
+  <si>
+    <t>🗓 Bugün görülecek FETÖ/PDY davaları https://t.co/1W0yWmytqn</t>
+  </si>
+  <si>
+    <t>RT @AACanli: TSK: "Afrin'de 9 köyde 18 terörist, muhtarlar ve halk tarafından Türk Silahlı Kuvvetlerine teslim edildi."</t>
+  </si>
+  <si>
+    <t>Saldırı hazırlığındaki 12 terörist etkisiz hale getirildi https://t.co/qZPBTLI4Xm https://t.co/P1htIdsZzZ</t>
+  </si>
+  <si>
+    <t>#ABD Senatosundan Yemen tasarısına ret https://t.co/L6mnlwnPAD https://t.co/S81FxbLiA7</t>
+  </si>
+  <si>
+    <t>5 günde 150'den fazla sivil daha hayatını kaybetti
+Esed rejimi #DoğuGuta'daki katliamını sürdürüyor https://t.co/QkD2PEpfzo https://t.co/jdcWJq9mxr</t>
+  </si>
+  <si>
+    <t>AB'nin #Polonya'ya verdiği süre doluyor https://t.co/SgJTn1xLBU https://t.co/TeKarn8nOt</t>
+  </si>
+  <si>
+    <t>356 hakim ve savcının görev yeri değişti
+HSK'dan mazeret ve ihtiyaç kararnamesi https://t.co/kHZ5ZQkTn1 https://t.co/XEqTtq6gMh</t>
+  </si>
+  <si>
+    <t>Hollanda Başbakanı Rutte: Türkiye mülteci anlaşmasına son derece bağlı kaldı https://t.co/MiOqbVjfwB https://t.co/FON9NdfesI</t>
+  </si>
+  <si>
+    <t>Binlerce İranlı Nevruz tatili için Türkiye'ye geçmeyi bekliyor https://t.co/c9KY73kRCq https://t.co/oTjtzTrFrS</t>
+  </si>
+  <si>
+    <t>#Özbekistan ile #Tacikistan arasında vizesiz seyahat başladı https://t.co/Lir0J0KpId https://t.co/AgsSbTERpQ</t>
+  </si>
+  <si>
+    <t>#Avusturya'da Afgan sığınmacıların ülkeden gönderilmesi protesto edildi https://t.co/B0ytIZ9TWo https://t.co/0qqqAUaeEO</t>
+  </si>
+  <si>
+    <t>#Hollanda'da savcılık, cami yapılması planlanan alana haç diken PEGIDA hareketi üyelerinin yargılanmamasına karar verdi https://t.co/e0Z8uXe6Cj https://t.co/IZyFHf0rhB</t>
+  </si>
+  <si>
+    <t>Afrinli ailelerin ekmeği Türkiye'den https://t.co/DNyARUYCcx https://t.co/QUOke94Pkw</t>
+  </si>
+  <si>
+    <t>RT @aa_spor: Darüşşafaka, sahasında Bayern Münih takımını 76-74 yenerek, seride 1-0 öne geçti
+ULEB Avrupa Kupası yarı final ilk maçında Da…</t>
+  </si>
+  <si>
+    <t>Doğu Guta'ya yönelik aralıksız bombardımanlarda 59 sivil daha hayatını kaybetti
+Esed rejimi ve destekçileri Doğu Guta'daki katliamını sürdürüyor https://t.co/ulpiNZE6cv https://t.co/Mvf61OF9Kg</t>
+  </si>
+  <si>
+    <t>Kıbrıslı Türkler, Zeytin Dalı Harekatı'na destek amacıyla topladıkları yardımı Mehmetçik Vakfına bağışladı
+KKTC'de #ZeytinDalıHarekatı'na destek https://t.co/zdY0Vs8Zg4 https://t.co/nvpfJcomSp</t>
+  </si>
+  <si>
+    <t>Fetullahçı Terör Örgütü'nün #15Temmuz darbe girişimi sırasında komuta merkezi olarak kullandığı Akıncı Üssü'ndeki eylemlere ilişkin dava sürüyor https://t.co/FNYQNqMgw4</t>
+  </si>
+  <si>
+    <t>Fetullahçı Terör Örgütü'nün '#Çorum İmamı' olduğu iddia edilen kişi yakalandı https://t.co/d6aUNRHLVr https://t.co/ITf6ZtYBux</t>
+  </si>
+  <si>
+    <t>❝Türk askerini görünce kurban kestik❞ 
+Teröristlerden temizlenen #Afrin’de halk yeniden güvenli günlere kavuşmanın mutluluğunu yaşıyor https://t.co/XGpjdxPsvU https://t.co/bhlxRLU9Uc</t>
+  </si>
+  <si>
+    <t>Erkekler için doğum kontrol hapında yeni gelişme https://t.co/XB76Au9Q9j https://t.co/A24U9qQU55</t>
+  </si>
+  <si>
+    <t>RT @aa_spor: Voleybol Erkekler CEV Kupası'nda Ziraat Bankası finale yükselmeyi garantiledi 
+Ziraat Bankası'nın rakibi Rusya'nın Belogorie…</t>
+  </si>
+  <si>
+    <t>AK Parti'nin #İstanbul'daki 14 ilçe başkan adayı belirlendi https://t.co/Lr2HCXLnaM https://t.co/dHiRhGQxB9</t>
+  </si>
+  <si>
+    <t>AK Parti Sözcüsü Ünal: Seçimler kendi tarihinde olacak https://t.co/hyLkhcLaR5 https://t.co/rpAzwrw4cz</t>
+  </si>
+  <si>
+    <t>AFAD ekipleri #Afrin'de ihtiyaç sahibi 713 aileye, 2. Ordu Komutanı Korgeneral İsmail Metin Temel'in de katılımıyla yardım götürdü
+Suriye'de terörden arındırılan bölgelere insani yardım https://t.co/V4nb0ZT596 https://t.co/iC8nPiGter</t>
+  </si>
+  <si>
+    <t>İsrail mahkemesi, 1948 Filistin İslami Hareketi lideri Raid Salah'ın şartlı tahliyesini prensipte kabul etti 
+Raid Salah'a şartlı tahliye ihtimali https://t.co/ImxWTlvWa8 https://t.co/UeIFvY6nWw</t>
+  </si>
+  <si>
+    <t>❝Bu işin püf noktası işte şu ellerdir❞
+'İnsana dair' videoların tamamı #YouTube kanalımızda ▶ https://t.co/Gz8O87kiBd https://t.co/0qVRZutmtx</t>
+  </si>
+  <si>
+    <t>#Facebook hisseleri yüzde 6 daha değer kaybetti https://t.co/Wzl9QUvvhi https://t.co/z6aTB8JTu8</t>
+  </si>
+  <si>
+    <t>Bakan Kaya'dan 'Zeytin Dalı' paylaşımı https://t.co/pXHDrfZshp https://t.co/qTYDpXywUo</t>
+  </si>
+  <si>
+    <t>Omid Shamizi, #İran medyasının "#ABD'nin #Suriye'de desteklediği terör unsurlarına" ilgisini değerlendirdi https://t.co/7L7iGtI8nT https://t.co/0H5MZkzT2E</t>
+  </si>
+  <si>
+    <t>#Facebook'un kurucususu Zuckerberg, #İngiltere'de ifadeye çağrıldı https://t.co/2p0XkMsp3k https://t.co/DaHiqYDpv8</t>
+  </si>
+  <si>
+    <t>Sivillerin kullandığı binalarda tek kurşun izi dahi yok
+Sivil hassasiyeti #Afrin’deki binalarda kendini gösterdi https://t.co/56YBjj7ffX https://t.co/Z7fbuBoiYn</t>
+  </si>
+  <si>
+    <t>RT @AACanli: Voleybol Erkekler CEV Kupası yarı final rövanşında Ziraat Bankası, Calzedonia karşısında durumu 2-2 yaptı ve finale yükselmeyi…</t>
+  </si>
+  <si>
+    <t>Dışişleri Bakanı Çavuşoğlu, görevden alınan ABD'li mevkidaşı Tillerson ile telefonda görüştü https://t.co/m6nZFln9Wh https://t.co/qCFSENnmy5</t>
+  </si>
+  <si>
+    <t>'Telegram, #Rusya'da yasaklanabilir' https://t.co/ZQw5p5YnQs https://t.co/ePDlIaHZUb</t>
+  </si>
+  <si>
+    <t>Terör örgütü YPG/PKK'dan temizlenen #Afrin bölgesinde minikler özgürlüğün keyfini yaşıyor https://t.co/8yigsh01lM https://t.co/qUfJcKtiz5</t>
+  </si>
+  <si>
+    <t>❝Çiftlik Bank olayında iade ve kırmızı bülten süreçleri başlatılmıştır❞
+Adalet Bakanı Gül'den Çiftlik Bank açıklaması https://t.co/4MdYmUfIaN https://t.co/xIcAx4Cz88</t>
+  </si>
+  <si>
+    <t>Putin ve Trump telefonla görüştü
+Görüşmede Suriye, Kuzey Kore ve Ukrayna'da yaşanan gelişmeler ele alındı https://t.co/EfOoaaIKZG https://t.co/1OkySGwQXZ</t>
+  </si>
+  <si>
+    <t>RT @AACanli: Voleybol Kadınlar CEV Kupası yarı final rövanş maçında SSC Palmberg'e karşı setlerde 2-0 öne geçen Eczacıbaşı VitrA, finale yü…</t>
+  </si>
+  <si>
+    <t>356 hakim ve savcının görev yeri değişti
+HSK'dan mazeret ve ihtiyaç kararnamesi https://t.co/wROxa05zqs https://t.co/bKzWCWq2oC</t>
+  </si>
+  <si>
+    <t>Sayıştaydan seçim zarfı açıklaması https://t.co/9YADuCPayI https://t.co/Lqn5xUNjzL</t>
+  </si>
+  <si>
+    <t>Başbakan Yardımcısı Akdağ: Kanalizasyon suyunda uyuşturucu takibi yapacağız https://t.co/vBxWtjW7Do</t>
+  </si>
+  <si>
+    <t>RT @AACanli: Adalet Bakanı Gül: "Çiftlik Bank olayında iade ve kırmızı bülten süreçleri başlatılmıştır, konu savcılığımız ve bakanlığımızca…</t>
+  </si>
+  <si>
+    <t>❝Kimseden bir müdahalede bulunulmasını talep etmedik❞
+#Yunanistan'dan, Edirne'de askeri yasak bölgede yakalandıktan sonra tutuklanan 'iki Yunan askere' ilişkin açıklama https://t.co/qHSSz57i93 https://t.co/wQ4JRmCDrW</t>
+  </si>
+  <si>
+    <t>Suriyeli bebek Türkiye'de yaşama tutundu 
+Bombadan yaralanan Suriyeli bebek Türkiye'de yaşama tutundu https://t.co/o1i3RRmEDy https://t.co/UrcU8kl9fh</t>
+  </si>
+  <si>
+    <t>Akdamar Adası çiçek açtı
+#Van'ın en önemli tarihi ve turistik değerlerinden biri olan #Akdamar Adası, ilkbahar mevsiminde çiçek açan badem ağaçlarıyla ziyaretçilerini ağırlıyor. https://t.co/xJOuksNaLt</t>
+  </si>
+  <si>
+    <t>'Mavi vatan'ın koruyucuları şimdi de nehirlerde https://t.co/mQnxgA18j2 https://t.co/l2pUBotFuR</t>
+  </si>
+  <si>
+    <t>Afrinli ailelerin ekmeği Türkiye'den https://t.co/YkQOUIgZ31 https://t.co/Vq0gm9DLls</t>
+  </si>
+  <si>
+    <t>IBM, bir tuz kristalinden daha küçük bilgisayar üretti https://t.co/2ppPofVqRv https://t.co/s7jYKtlppn</t>
+  </si>
+  <si>
+    <t>Kılıçdaroğlu'ndan Çiftlik Bank açıklaması: Paranızı alabilirsiniz ama o tosundan değil, BDDK'dan alabilirsiniz https://t.co/98D6Pm3bgZ https://t.co/WP3WZQ66uo</t>
+  </si>
+  <si>
+    <t>Ekonomik zenginlik tek başına ülkelere mutluluk getirmiyor 
+Dünyanın en büyük 10 ekonomisi arasındaki ülkelerden hiçbiri dünya mutluluk endeksinde ilk 10'a giremedi https://t.co/HLAyQBYJpi https://t.co/Gq5qmWRe9o</t>
+  </si>
+  <si>
+    <t>İsrail hükümeti 'lobi desteği'ni kaybediyor 
+@haydaroruc yazdı https://t.co/UEHTRdXHL0 https://t.co/IFqCt4agdL</t>
+  </si>
+  <si>
+    <t>❝İsrail kızımın davasını dünyadan saklamak istiyor❞
+Filistinli Ahed et-Temimi'nin babası Basim et-Temimi, kızının davası öncesinde değerlendirmelerde bulundu https://t.co/T5U9sjXVFv https://t.co/MOrT1dPIKx</t>
+  </si>
+  <si>
+    <t>Türkiye dış ticarette AB'nin 5. büyük ortağı https://t.co/F74xzWVjxB https://t.co/LHug6Dsvnn</t>
+  </si>
+  <si>
+    <t>❝Benim hamileliğim bir gün sürdü❞ https://t.co/7tiTV5tTf8 https://t.co/Qk5DRG2s8D</t>
+  </si>
+  <si>
+    <t>Hasan Celal Güzel son yolculuğuna uğurlandı https://t.co/hI6s1aBdr1 https://t.co/MZ6jez0HTv</t>
+  </si>
+  <si>
+    <t>Enerji ve Tabii Kaynaklar Bakanı: 101 yerleşim yerine daha doğalgaz getirmenin mutluluğunu yaşıyoruz https://t.co/FGqI2c0WuN https://t.co/948YCjwQE1</t>
+  </si>
+  <si>
+    <t>❝Artık korku kalmadı❞
+Türkiye'deki Afrinliler eve dönüş hazırlığında https://t.co/A6zQ7lGjSv https://t.co/9D3s8CEVTA</t>
+  </si>
+  <si>
+    <t>#Türkiye'den #Mısır'ın #Afrin açıklamasına cevap https://t.co/PZxuVQf1Jf https://t.co/4jPSlbTsRV</t>
+  </si>
+  <si>
+    <t>Terör örgütü DHKP-C'nin sözde 'Ankara sorumlusu' yakalandı https://t.co/VOJElGxuGm https://t.co/lmlhFkNDQV</t>
+  </si>
+  <si>
+    <t>Tünellerin uzunluğu 400 metreye ulaşıyor
+AA, teröristlerin #Afrin merkezindeki tünellerini görüntüledi https://t.co/eN8oMV5hML https://t.co/81PnN8ph2w</t>
+  </si>
+  <si>
+    <t>Şehit Uzman Çavuş Çakmak son yolculuğuna uğurlandı https://t.co/W5OFpT0efO https://t.co/btjnqU26Pl</t>
+  </si>
+  <si>
+    <t>• Ayn Darah
+• Basutah
+• Burj Abdallah
+#Afrin'de üç köy daha teröristlerden temizlendi https://t.co/IT228olnXW https://t.co/QKetjrPNYS</t>
+  </si>
+  <si>
+    <t>#BaşbakanYıldırım: Nevruz, barış ve kardeşliğimizi pekiştiren bir simgedir https://t.co/7IeLWzx0k2 https://t.co/DPeJdug91v</t>
+  </si>
+  <si>
+    <t>Türkiye'den BM'nin OHAL ile ilgili belgesine sert tepki https://t.co/KvdSnYzEZt https://t.co/HkiOVzS9vZ</t>
+  </si>
+  <si>
+    <t>RT @AACanli: #CumhurbaşkanıErdoğan: Zeytin Dalı Harekatı'nda etkisiz hale getirilen terörist sayısı 3655 oldu.</t>
+  </si>
+  <si>
+    <t>RT @AACanli: TSK ve ÖSO, Afrin'in  Ayn Darah, Basutah ve Burj Abdallah köylerini teröristlerden temizledi.</t>
+  </si>
+  <si>
+    <t>Dostları Aşık Veysel'i unutmadı
+❝Ben giderim adım kalır/Dostlar beni hatırlasın/Düğün olur bayram gelir/Dostlar beni hatırlasın❞ dizelerinin sahibi dünyaca ünlü halk ozanı Aşık Veysel, ölümünün 45. yılında anılıyor https://t.co/gkkhnZkLuf https://t.co/Okn44oXNzu</t>
+  </si>
+  <si>
+    <t>Mazlumun umudu Türk Kızılayı Afrinlilerin yanında https://t.co/Qr0g9i7CLZ https://t.co/r4Ykzzs1Rf</t>
+  </si>
+  <si>
+    <t>RT @AACanli: #BaşbakanYıldırım: Bugün olduğu gibi bundan sonra da ülkemize yönelen her terör tehdidini aynı kararlılıkla bertaraf edeceğimi…</t>
+  </si>
+  <si>
+    <t>RT @AACanli: #Canlı: #BaşbakanYıldırım, 101 İlçeye Doğalgaz Dağıtım Töreni'nde konuşuyor https://t.co/JAvqIoc8Wf</t>
+  </si>
+  <si>
+    <t>RT @AACanli: Dışişleri Bakanı Çavuşoğlu: "(Afrin'de) Yağmalama veya insanlık dışı muamele konusunda hassasız, bunlara müsaade etmeyiz."</t>
+  </si>
+  <si>
+    <t>#Ceylanpınar’da 23 terörist etkisiz hale getirildi https://t.co/Gf6ORRcl0E https://t.co/iyblUWGyF7</t>
+  </si>
+  <si>
+    <t>Zeytin Dalı Harekatı: Kazananlar ve kaybedenler
+@muratyesiltas, #ZeytinDalıHarekatı'nın AA için değerlendirdi  https://t.co/FadS4GuWgt https://t.co/si8cAK7JTp</t>
+  </si>
+  <si>
+    <t>Teröristler #Afrin'i yakıp yıkarak kaçtı
+#ZeytinDalıHarekatı ile teröristlerden temizlenen #Afrin'de, YPG/PKK'dan geriye çok sayıda tahrip edilmiş yapı ve araçlar kaldı https://t.co/soAiS1iIAW https://t.co/XGn7th5qfW</t>
+  </si>
+  <si>
+    <t>TürkAkım'da herhangi bir gecikme öngörülmüyor https://t.co/3TuferDk0V https://t.co/K1WjxbVNBW</t>
+  </si>
+  <si>
+    <t>TAI'yi ihracat uçurdu
+Türk Havacılık ve Uzay Sanayii AŞ, geçen yıl yakaladığı ihracat başarısıyla dikkati çekti  https://t.co/pLRLX0yjBE https://t.co/6Bf93htxvn</t>
+  </si>
+  <si>
+    <t>RT @AACanli: #Canlı: CHP Genel Başkanı Kılıçdaroğlu, partisinin TBMM'deki Grup Toplantısı'nda konuşuyor https://t.co/nWaTqmXbwm</t>
+  </si>
+  <si>
+    <t>Cumhurbaşkanı Erdoğan, Genelkurmay Başkanı Orgeneral Akar'ı kabul edecek https://t.co/bjreElIUCK https://t.co/UB7cCjc2k0</t>
+  </si>
+  <si>
+    <t>❝Elektrikle ayaklarımı yaktılar, burnumu kırdılar❞
+Afrinli doktor YPG/PKK'nın işkencelerini anlattı https://t.co/agdk1P3mat https://t.co/xHzoOYhbSX</t>
+  </si>
+  <si>
+    <t>#CumhurbaşkanıErdoğan: Hasan Celal Güzel ağabeyimiz mazlumun yanında yer almıştır https://t.co/Epppe7TJNq https://t.co/p2wxfoTDQ6</t>
+  </si>
+  <si>
+    <t>AİHM'den, Alpay ve Altan kararı https://t.co/78VWWkVVUa https://t.co/SUejGj56Ba</t>
+  </si>
+  <si>
+    <t>RT @AACanli: Cumhurbaşkanı Erdoğan, saat 16.00'da Cumhurbaşkanlığı Külliyesi'nde Genelkurmay Başkanı Orgeneral Akar'ı kabul edecek.</t>
+  </si>
+  <si>
+    <t>Tüketici güven endeksi azaldı https://t.co/2uNLIAYXFH https://t.co/uIv6yVzgPY</t>
+  </si>
+  <si>
+    <t>Hasan Celal Güzel için TBMM'de tören düzenlendi https://t.co/n46U789O32 https://t.co/ESJyBC5Z9e</t>
+  </si>
+  <si>
+    <t>Mehmetçik #Afrin'de sevgi gösterileriyle karşılandı https://t.co/xzImeOfdT6 https://t.co/SHBeGg01jp</t>
+  </si>
+  <si>
+    <t>RT @AACanli: #CumhurbaşkanıErdoğan: Amerika'dan sözcü açıklama yapıyor, kaygılıyız diyor. Biz size kaygılarımızı ilettiğimiz zaman, gelin b…</t>
+  </si>
+  <si>
+    <t>❝Geriye dönemezdim, bırakamazdım❞
+Binlerce seçkin video ve belgesel #YouTube kanalımızda ➡ https://t.co/kAKshIjJlu https://t.co/SGjRRBJ4rO</t>
+  </si>
+  <si>
+    <t>#Afrin'deki ailelere insani yardım https://t.co/K5JbU37U48 https://t.co/wjyzYepJTT</t>
+  </si>
+  <si>
+    <t>#Kayseri merkezli 18 ilde FETÖ/PDY operasyonu https://t.co/OXCDADhKgK https://t.co/z12nAWQdER</t>
+  </si>
+  <si>
+    <t>#Fransa'nın eski Cumhurbaşkanı Nicolas Sarkozy gözaltına alındı https://t.co/VBZ4B0BrS0 https://t.co/jIsw0EOTMg</t>
+  </si>
+  <si>
+    <t>Şampiyon adayı taylar dünyaya gelmeye başladı https://t.co/hZLfMwCqYj https://t.co/bjwuVBvrXn</t>
+  </si>
+  <si>
+    <t>❝Anlamak ve iyi niyetle bağdaştırmak mümkün değildir❞
+Dışişleri Bakanlığından BAE Dışişleri Bakanı'nın açıklamasına tepki https://t.co/pAklLYXdoy https://t.co/G5tYty073X</t>
+  </si>
+  <si>
+    <t>Gazzeli basketçi kadınlar
+Filistinli kadınlar, Gazze'deki tekerlekli sandalye basketbol takımlarında oynayarak "engellere" meydan okuyor https://t.co/ZV5iy28b1u https://t.co/6r8zSn057E</t>
+  </si>
+  <si>
+    <t>🗓 Bugün görülecek FETÖ/PDY davaları https://t.co/GtxdxX2DZW</t>
+  </si>
+  <si>
+    <t>Başbakan Yardımcısı Bozdağ: ABD Zeytin Dalı Harekatı’nın mahiyetini hala ya anlamamış ya da anlamak istememektedir https://t.co/0xg3E1VAH3 https://t.co/2jnviaBO0x</t>
+  </si>
+  <si>
+    <t>RT @AACanli: Başbakan Yardımcısı Bozdağ: Türkiye’yi takdir etmesi gerekenlerin; hala yalan ve yanlış bilgilerle algı oluşturmaya çalışmalar…</t>
+  </si>
+  <si>
+    <t>RT @AACanli: Başbakan Yardımcısı Bozdağ: Zeytin Dalı Harekatı’nın DEAŞ ile mücadeleyi zayıflattığı iddiası temelsizdir, yalandır.</t>
+  </si>
+  <si>
+    <t>Uber'in sürücüsüz aracı yaya ölümüne neden oldu https://t.co/fmz8v4mUeK https://t.co/ABasTQCsHo</t>
+  </si>
+  <si>
+    <t>RT @AACanli: Başbakan Yardımcısı Bozdağ: Son açıklamaları göstermektedir ki ABD Zeytin Dalı Harekatı’nın mahiyetini hala ya anlamamış ya da…</t>
+  </si>
+  <si>
+    <t>Afrin şehidi Binbaşı Mithat Dunca'dan duygulandıran vasiyet https://t.co/tCl0N6KMrZ https://t.co/NtaVfldKKg</t>
+  </si>
+  <si>
+    <t>2020'de 5 kişiden biri 60 yaş üstü olacak
+Dünyada yaşlı nüfusu giderek artıyor https://t.co/KHdnxWu6cB https://t.co/2PEmHOF8Kq</t>
+  </si>
+  <si>
+    <t>En pahalı il İstanbul https://t.co/HQfmpQPDQd https://t.co/mXpIl9p0hM</t>
+  </si>
+  <si>
+    <t>Hatay'ın Yayladağı ilçesine #Suriye'den atılan füze düştü https://t.co/1Zf4uvwk1p https://t.co/4He61A5nHr</t>
+  </si>
+  <si>
+    <t>Milli takıma Emre Mor'dan kötü haber https://t.co/Ln18btv1JQ https://t.co/5Kgx9ci5UG</t>
+  </si>
+  <si>
+    <t>İsrail Filistinlileri kendi evini yıkmaya zorluyor https://t.co/TEdQ56tgNp https://t.co/9uPXjI2xMS</t>
+  </si>
+  <si>
+    <t>❝Kimin haklı kimin batıl olduğu ortaya çıktı❞
+Afrinli doktor terör örgütü YPG/PKK'nın işkencelerini anlattı https://t.co/hxyVCx549N https://t.co/3Y0OdVzwjj</t>
+  </si>
+  <si>
+    <t>'Milli Temizlik Tankı' projesi Finlandiya'da finale kaldı https://t.co/PXtq3tZQdB https://t.co/NsBqCumw5d</t>
+  </si>
+  <si>
+    <t>Afrin'in kontrol altına alınmasına giden yol 
+TSK ve ÖSO'nun terör örgütleri YPG/PKK ve DEAŞ'a karşı yürüttüğü harekatta #Afrin ilçe merkezi ve tüm beldeleri kontrol altına alındı #ZeytinDalıHarekatı https://t.co/wA7YsusEAe https://t.co/RLwsxc0hUP</t>
+  </si>
+  <si>
+    <t>TÜBİTAK MAM’DAN YERLİ BACA GAZI ANALİZÖRÜ
+Çok parametreli ve daha düşük üretim maliyetine sahip ilk ve yerli baca gazı analiz cihazı. Bilgi: (0262) 641 2900, ctue@tubitak.gov.tr
+#tubitak #tübitak #mam #bacagazı #baca #gaz #havakalitesi #çevre #hava #kirlilik #endustriyel https://t.co/ETQI2YKrav</t>
+  </si>
+  <si>
+    <t>TÜBİTAK MAM’DAN DERİN VE SIĞ DENİZ ARAŞTIRMA HİZMETLERİ
+DERİN DENİZ ARAŞTIRMALARI
+Hidrografik &amp;amp; Oşinografik Ölçümler
+SIĞ DENİZ ARAŞTIRMALARI
+Sığ Su Hidrografik Sörvey Kabiliyetleri
+#tubitak #derindeniz #sığdeniz #hidrografi #oşinografi #haritalama #cbs #gis #rov #çevre https://t.co/p6Vpz8UHG3</t>
+  </si>
+  <si>
+    <t>RT @Tubitak: TÜBİTAK Başkanı Prof. Dr. Hasan Mandal'ın röportajı: 
+Tübitak'ın "Yeni Nesil" vizyonu!
+https://t.co/ZvnQPSMtUK https://t.co/…</t>
+  </si>
+  <si>
+    <t>TÜBİTAK MAM Türk Donanmasının "ÇÖZÜM ORTAĞI" Olmalıdır
+TÜBİTAK MAM Başkanı Prof.Dr.İbrahim Kılıçaslan Gölcük Donanma Kom.lığına nezaket ziyaretinde bulundu.TÜBİTAK MAM olarak donanmamızın ihtiyacı olan teknolojik çözüm ve Ar-Ge konusunda destek vermeye hazır olduklarını belirtti https://t.co/EZJUzpLmf9</t>
+  </si>
+  <si>
+    <t>TÜBİTAK Başkanı Prof.Dr.Hasan Mandal, TÜBİTAK Gebze Yerleşkesini ziyaret ederek yeni dönem çalışmalarını değerlendirdi. TÜBİTAK Başkanını, MAM Bşk. Prof.Dr.İbrahim Kılıçaslan, BİLGEM Bşk. Prof.Dr.Hacı Ali Mantar, UME Md.Dr.Mustafa Çetintaş ve TÜSSİDE Md.Tezer Battal karşıladı. https://t.co/hcGeZbKjM9</t>
+  </si>
+  <si>
+    <t>Kocaeli Büyükşehir Belediyesinin Teknoloji Çözüm Ortağı Olmak İstiyoruz TÜBİTAK MAM Bşk. Prof.Dr.İbrahim Kılıçaslan Kocaeli Büyükşehir Bel. Gn.Sekreteri İlhan Bayram’ı ziyaret etti.Kamu alımlarının Yerli Teknolojiyi geliştirmede milli ekonomiye yüksek katkı sağlayacağı görüşüldü. https://t.co/KhvkPA8SHc</t>
+  </si>
+  <si>
+    <t>TOBB Türkiye Kimya Sanayi Meclis Bşk.Timur Erk ve Meclis Danışmanı Prof.Dr.Serdar Çelebi,TÜBİTAK MAM Bşk. Prof.Dr.İbrahim Kılıçaslan’ı ziyaret etti. Sektörün temel sorunlarından dışa bağımlılığı aşabilmek,rekabet gücünü artırmak için yenilikçi ve yerli çözümler üretilmesi gerekli https://t.co/aY4mVhoMIq</t>
+  </si>
+  <si>
+    <t>Hedef “Sanayide Teknoloji Yoğunluğunu” Yükseltmek; TÜBİTAK MAM Bşk. Prof.Dr.İbrahim Kılıçaslan, Düzce Vali Yrd.-Kaynaşlı Kaymakamı Cemal Demiryürek ve Kocaeli San.Tekn.İl Md.İlhan Aydın'ı ağırladı.Yüksek teknoloji ürünler hk bilgi verdi,özel sektörün yararlnması gerektğini söyldi https://t.co/kzkutiLIfj</t>
+  </si>
+  <si>
+    <t>Askeri alanda teknik imkan ve kabiliyetlerimizi TSK istifadesine sunmak üzere TÜBİTAK MAM Bşk. Prof.Dr.İbrahim Kılıçaslan 1.Ana Bakım Merkez Kom.lığı Tank Palet Fabrikasını ziyaret ederek teknik ihtiyaçlar hk. bilgi aldı,her türlü teknik iyileştirmeye katkı sağlanacağını belirtti https://t.co/zuDmbtZdsD</t>
+  </si>
+  <si>
+    <t>TÜBİTAK MAM Başkanı Prof.Dr. İbrahim Kılıçaslan, SSM Ar-Ge Projeleri İmza Törenine katıldı. SSM Müsteşarı Prof.Dr. İsmail Demir eşliğinde düzenlenen törende TÜBİTAK MAM Malzeme Enstitümüzün ROKETSAN, ASELSAN, TEİ ile işbirliği içerisinde yer aldığı 3 savunma projesine imza atıldı https://t.co/NnRlA0um0g</t>
+  </si>
+  <si>
+    <t>TÜBİTAK MAM Başkanı Prof.Dr. İbrahim Kılıçaslan, Sakarya Tank Palet Fabrikasını ziyaret etti. Bşk.Dnş. Prof.Dr.Ali Ata ve Enerji Enst. Md. Prof.Dr.Abdulkadir Balıkçı’nın bulunduğu görüşmede işbirlikleri ve yerli teknoloji uygulamaları hk. Fab. Md. Albay Sinan Eren’e bilgi verildi https://t.co/87kxKSDoSx</t>
+  </si>
+  <si>
+    <t>2023 hedefleri ve TÜBİTAK MAM konulu “Beyin Fırtınası” toplantılarının birinde Prof.Dr.İbrahim Dinçer’i misafir ettik. MAM Başkanı Prof.Dr.İbrahim Kılıçaslan önderliğindeki toplantıda “Sürdürülebilir Ekonomi ve Toplum için Araştırma-Yenilik-Ticarileştirme”sunumunu gerçekleştirdi. https://t.co/QYXPlHS6oq</t>
+  </si>
+  <si>
+    <t>Gebze Teknik Üniversitesi Rektörü Prof. Dr. Haluk Görgün TÜBİTAK Marmara Araştırma Merkezi Başkanı Prof. Dr. İbrahim Kılıçaslan’ı ziyaret etti. @halukgorgun'ün ziyaretinde mevcut işbirliğini ileriye taşıyacak yeni çalışmalar konusunda görüş alışverişinde bulunuldu.
+@GtuEduTr https://t.co/OQFlIuE1O2</t>
+  </si>
+  <si>
+    <t>Kocaeli Üniversitesi Müh.Fak.Dekanı İlhan Tekin Öztürk, TÜBİTAK MAM Başkanı Prof.Dr. İbrahim Kılıçaslan’ı ziyaret etti. Dekan ve beraberindeki heyet ile yapılan görüşmede bilim ve eğitimin ayrılmaz bütünlüğüne vurgu yapılarak işbirliği alanlarında bilgi alışverişinde bulunuldu. https://t.co/mNjmccfEH6</t>
+  </si>
+  <si>
+    <t>TÜBİTAK MAM’ın Test ve Analiz Hizmet Verdiği 24.Ülke Rusya Federasyonu Oldu.
+Rusya tıbbi cihaz/malzeme sektöründen sitotosisite, iritasyon, sensitizasyon ve havacılık sektöründen jet yakıtı analizi talebi alındı. Hizmet verilen ülke 4 kıtada 24’e ulaştı. https://t.co/UxxwuAej1T https://t.co/GPy3P7ipa7</t>
+  </si>
+  <si>
+    <t>RT @MSI_Dergisi: ASPİLSAN’ın düzenlediği çalıştayda konuşan ve TÜBİTAK MAM’da Başuzman Araştırmacı olarak görev yapan Dr. Türev Sarıkurt, b…</t>
+  </si>
+  <si>
+    <t>RT @TCSanayi: Bilim, Sanayi ve Teknoloji Bakanı Faruk Özlü, Konya Organize Sanayi Bölgesi'nde, enzime dirençli nişasta üretimi tesisinin aç…</t>
+  </si>
+  <si>
+    <t>TÜBİTAK MAM Gıda Enstitüsü 1.MycoKey Konferansına Belçika’da katıldı. Gıda ve yem zincirinde dünyada tehdit miktoksinler hk. öncelikli konular tartışıldı. Dr.Hayrettin Özer “Realtime electrochemical profiling assay method for detection of aflatoxin B1 in dried figs”sunumunu yaptı https://t.co/34dOSNfhBC</t>
+  </si>
+  <si>
+    <t>TÜBİTAK MAM Başkanı Prof.Dr. İbrahim Kılıçaslan, Çekmeköy Belediye Başkanı Ahmet Poyraz’ı ziyaret etti.
+TÜBİTAK MAM Başkan Yrd. Dr. İbrahim Bekar ve Enerji Enstitüsü Md. Yrd. Dr. Osman Okur’un da bulunduğu görüşmede bilim ve teknoloji alanında işbirliği konuları değerlendirildi. https://t.co/UUZBQ0umTL</t>
+  </si>
+  <si>
+    <t>Kocaeli Sanayi Odası ve TÜBİTAK MAM Temaslarını Sürdürüyor
+Kocaeli San.Odası Yön.Kur.Bşk.Ayhan Zeytinoğlu ve TÜBİTAK MAM Bşk. Prof.Dr.İbrahim Kılıçaslan görüşmesinde bilim, sanayi işbirliğine vurgu yapılarak,sanayimizi yakından ilgilendiren konularda bilgi alışverişinde bulunuldu https://t.co/cwcNQIeGNF</t>
+  </si>
+  <si>
+    <t>Sanayi Bakanlığı Heyetine E-5000 Milli Elektrikli Lokomotif Tanıtıldı.
+BSTB Sanayi Genel Md.lüğü Ulaşım Araçları Daire Bşk. İsmail Aktaş'ı TÜBİTAK MAM Başkanı Prof.Dr.İbrahim Kılıçaslan karşıladı. Elektrikli lokomotif, türbin kanat, yüksek sıcaklık malzemeleri hk. bilgi verildi. https://t.co/Q7TmrztTNQ</t>
+  </si>
+  <si>
+    <t>Günlük Maksimum Toplam Yük Yaklaşımının Gediz Havzasında Uygulanması Projesini başarıyla tamamladık. Gediz Havzasının su kalitesine bağlı kaynaklar için kirletici yüklerin kaynaklar arasında dağıtılması, deşarj limitleri, yayılı kaynaklar için yük azaltım tedbirleri belirlendi. https://t.co/8gaFLR7Fdo</t>
+  </si>
+  <si>
+    <t>3rd IMEKOFOODS Konferansı 67 sözlü bildiri, 78 poster sunumu ve 19 ülkeden 142 katılımcıyla Yunanistan’da düzenlendi. H2020 PRO-METROFOOD projesi desteğiyle düzenlenen konferansta MAM Gıda Enstitüsü 6 sunum yaptı ve Dr. Hayrettin ÖZER, IMEKO TC23 Teknik Komite Üyeliği’ne seçildi. https://t.co/s4ew1dFyai</t>
+  </si>
+  <si>
+    <t>RT @Tubitak: “TÜBA Ödülleri Töreni” 12 Aralık’ta Cumhurbaşkanlığı Külliyesi’nde.
+https://t.co/83cNyoFi3B https://t.co/MhYAiSXh8z</t>
+  </si>
+  <si>
+    <t>RT @UFUK_2020: AB #Horizon2020 programı Bilgi ve İletişim Teknolojileri (#ICT) alanı 2018 yılı açılacak proje çağrı başlıkları yayınlandı:…</t>
+  </si>
+  <si>
+    <t>"Uluslararası Ülke Danışmanları Programı"
+T.C. Başbakanlık Türkiye Yatırım Destek ve Tanıtım Ajansı’nın dünya genelinde ABD, Almanya, Birleşik Arap Emirlikleri, Çin, Fransa, İspanya, Japonya, Kore, İngiltere, Suudi Arabistan gibi ülkelerdeki Ülke Danışmanları TÜBİTAK MAM'da... https://t.co/7C2Laaru2J</t>
+  </si>
+  <si>
+    <t>"TÜBİTAK MAM’dan Obezite ve Diyabete Karşı Dirençli Nişasta"
+TÜBİTAK MAM tarafından, Türkiye'de görülme sıklığı giderek artan obezite ve diyabet hastalıklarını önlemek amacıyla, nişasta katkılı un geliştirildi. Yeni ürünler Helal Expo 2017 fuarında tanıtıldı. https://t.co/shwxPX8Qy3</t>
+  </si>
+  <si>
+    <t>TÜBİTAK MAM Malzeme Enstitüsü'nün düzenlediği Organik Elektronik Çalıştayının ikincisine üniversite öğretim üyeleri, lisansüstü öğrencileri ve firmalar katıldı. Organik güneş hücreleri, organik ışık yayan diyotlar, tranziztörler, perovskitler, sensör uygulamaları vb. ele alındı. https://t.co/FMk4u3suTq</t>
+  </si>
+  <si>
+    <t>RT @Tubitak: #TÜBİTAK ile hızlı ve etkin iletişim kurmak için #TÜBİMER’i kullanabileceğinizi biliyor muydunuz? https://t.co/zZzR090OeB http…</t>
+  </si>
+  <si>
+    <t>Canlı yayına hazır bekliyoruz... https://t.co/K0i7Rvwezj</t>
+  </si>
+  <si>
+    <t>Bugün saat 15:00’de Helal Expo fuarından yapılacak aHaber canlı yayınında obezite ve diyabet riskini azaltan nişastamızı anlatacağız. 
+#helalexpo #diyabet #ahaber #tubitak #tubitakmam #obezite</t>
+  </si>
+  <si>
+    <t>Bugün ve önümüzdeki iki gün boyunca Helal Expo fuarında olacağız. “TÜBİTAK MAM Ülkemizin Beslenme Alışkanlığını Değiştiriyor” sloganıyla katıldığımız fuarda dirençli nişasta, domuz eti tespit kiti, kolesterol düşürücü soğuk çay gibi çeşitli ürünlerimizi sergiliyoruz. https://t.co/0xHybQvwBQ</t>
+  </si>
+  <si>
+    <t>DENİZ KUVVETLERİMİZE YERLİ ÇÖZÜMLER
+TÜBİTAK MAM Bşk. Prof.Dr. İbrahim Kılıçaslan, Deniz Kuv.Kom.Koramiral Adnan Özbal’ı ziyaret etti.
+"Deniz araçları,sonar,ileri akustik,hava tazeleme, güvenlik,tahrik sist,radar soğurucu malzemeler,li-iyon pil,batarya,yakıt pili çalışmalarımız" https://t.co/NAw3xgPsqM</t>
+  </si>
+  <si>
+    <t>Enerji ve Tabii Kaynaklar Bakanlığı Müsteşarı Fatih Dönmez, TÜBİTAK MAM Enerji Enstitüsü ve Malzeme Enstitüsü altyapılarını yerinde inceleyerek yürütülen projeler hakkında bilgi aldı.
+https://t.co/p2sSR8IQc7 https://t.co/H7dmBJwnLZ</t>
+  </si>
+  <si>
+    <t>12-13 Kasım 2017 tarihlerinde TÜBİTAK Gebze Yerleşkesi’nde TÜBİTAK Marmara Araştırma Merkezi’nin (MAM) düzenlediği TÜBİTAK-SAS (Slovak Bilimler Akademisi) Çalıştayı gerçekleştirildi.
+https://t.co/w9yUmRGRZN https://t.co/ZEt51uiIko</t>
+  </si>
+  <si>
+    <t>ENDONEZYA HEYETİ 
+https://t.co/Q5nTg2xupi https://t.co/7lim9GQnJn</t>
+  </si>
+  <si>
+    <t>Tunus Heyeti Ziyareti
+https://t.co/yeN7gDj0eE https://t.co/ddXZGYoaVa</t>
+  </si>
+  <si>
+    <t>TÜBİTAK,Filistinle  İnovasyon ve Mükemmeliyet Bazlı İşbirliklerini Ortak Çağrı, Projeler Kapsamında Hayata Geçiriyor
+https://t.co/zkcCo9LUB8 https://t.co/y7BouWOE5S</t>
+  </si>
+  <si>
+    <t>H2020 BIOMASUD PLUS Projesi Çalıştayı Ankara'da Düzenlendi
+https://t.co/iOnQrmc1yB https://t.co/kfdVfdloiH</t>
+  </si>
+  <si>
+    <t>Akıllı Hareketlilik Kümelenme Toplantısı
+https://t.co/EkZ5BGeqYz https://t.co/4rqj3rCDPm</t>
+  </si>
+  <si>
+    <t>Türkiye'de Kaynak Bazlı Gürültü Modellemesi İçin Envanter Altyapısının Oluşturulması Projesi
+https://t.co/BLp8RJbW8W https://t.co/IwNFl6JvMv</t>
+  </si>
+  <si>
+    <t>EŞDEĞER PARÇA SERTİFİKASYONUNDA BÜYÜK İŞBİRLİĞİ
+https://t.co/2gll4TIe4m https://t.co/wrtfLbNZyM</t>
+  </si>
+  <si>
+    <t>TÜBİTAK ve TSE İşbirliğinde “Güvenilir Helal Gıda Uygunluk Değerlendirme Sisteminin Kurulması” Projesi Toplantısı
+https://t.co/EArx9ZOiZt https://t.co/TMgxy3GRuU</t>
+  </si>
+  <si>
+    <t>Başbakanlık Yatırım Destek Ve Tanıtım Ajansı’nın TÜBİTAK MAM'ı Ziyareti
+https://t.co/iRNE5w49Rj https://t.co/QKABFhEfBM</t>
+  </si>
+  <si>
+    <t>UÇES Proje Kapanış Toplantısı
+https://t.co/8AlgnPEZd5 https://t.co/BRpxqbXvI1</t>
+  </si>
+  <si>
+    <t>https://t.co/pAr7PFO2pB</t>
+  </si>
+  <si>
+    <t>Güney Kore Cumhuriyeti İstanbul Başkonsolosundan TÜBİTAK MAM’a Ziyaret
+https://t.co/FAGfCLWImg https://t.co/sA1utnIVoc</t>
+  </si>
+  <si>
+    <t>Malzeme Enstitüsü Sualtı Akustik Çalışmaları
+https://t.co/2fCpWiBcQY https://t.co/TLTDbiZGov</t>
+  </si>
+  <si>
+    <t>Pakistan ile Ar-Ge Alanında İşbirliği Artıyor
+https://t.co/FmxhHCantp https://t.co/wb98p4BDXX</t>
+  </si>
+  <si>
+    <t>Yakma/Gazlaştırma tesislerinin kavramsal ve detay tasarımları yapılmakta, laboratuvar ve pilot sistemlerde deneysel hizmetler verilmektedir. https://t.co/SxVUoFFaY7</t>
+  </si>
+  <si>
+    <t>ZERO BRINE Projesi Açılış Toplantısı
+https://t.co/JSDygJGKwI https://t.co/jSbnMc2SPH</t>
+  </si>
+  <si>
+    <t>“Yüksek Kaliteli Kuru Kayısı Üretimi için Kükürtleme ve Kurutma Sistemleri” Çalıştayı
+https://t.co/BMmMz6m0Kd https://t.co/RjprpF42Gw</t>
+  </si>
+  <si>
+    <t>TÜBİTAK Başkanı Prof. Dr. A. Arif ERGİN, MAM personeli ile bayramlaştı https://t.co/IjgwdDGqYL</t>
+  </si>
+  <si>
+    <t>TÜBİTAK Başkanı Prof. Dr. A. Arif ERGİN’in katılımıyla TÜBİTAK Gebze Yerleşkesi iftarı yapıldı. https://t.co/ONc3ZCPLsg</t>
+  </si>
+  <si>
+    <t>Nanoteknoloji Kümelenmesi, Ulusal Nanoteknoloji Ar-Ge ve Yenilik Stratejisi Eylem Planı'na Yönelik Çalışmalar
+https://t.co/dkh4Utpc9T https://t.co/nv25DhQIVw</t>
+  </si>
+  <si>
+    <t>TAYSAD’dan TÜBİTAK MAM’a Ziyaret
+https://t.co/XkPMr8ksdx https://t.co/RslUdVpw7i</t>
+  </si>
+  <si>
+    <t>“Evsel Isınma Amaçlı Biyoyakıt Kullanım Anketi” 
+https://t.co/zFEDcCM7mS https://t.co/rbjQyNwtJ7</t>
+  </si>
+  <si>
+    <t>"Beslenme, Sağlık ve Gıda Güvenliği'nde Madalyonun Öteki Yüzü" semineri Gıda Enstitüsü'nden Araştırmacı Erdem Öner'in sunumuyla gerçekleşti. https://t.co/F7flXeqOFl</t>
+  </si>
+  <si>
+    <t>@TUBITAK_MAM is in project meeting at PMD/İslamabad with @Tika_Turkey, @isdb_group, @sesric, @ECO4Science for Pakistan's earthquake studies https://t.co/lWJR8FmScp</t>
+  </si>
+  <si>
+    <t>TÜBİTAK MAM “COMSATS 20. Koordinasyon Konseyi Toplantısı”na Kahire’de Katıldı
+https://t.co/5UVCPEHPko https://t.co/kr8sTZIqVC</t>
+  </si>
+  <si>
+    <t>TÜBİTAK MAM Gen Mühendisliği ve Biyoteknoloji Enstitüsü, Türkmen Delegasyonuna 3 Farklı Konuda Eğitim
+https://t.co/QFgGV1oQwA https://t.co/H7foo4RA3p</t>
+  </si>
+  <si>
+    <t>En Başarılı Araştırma Ekibi Ödülünün diğeri Enerji Enstitüsünden Raylı Taşıt Teknolojileri Proje Grubunun oldu https://t.co/phnr8MeZkT</t>
+  </si>
+  <si>
+    <t>TÜBİTAK Başkanı Prof. Dr. A.Arif Ergin TÜBiTAK MAM 2016 Yılı Araştırma ve Destek Ödül Törenine katılarak konuşma yaptı. https://t.co/I5rFTJr9nK</t>
+  </si>
+  <si>
+    <t>TÜBİTAK MAM 2016 Yılı Araştırma ve Destek Ödül Töreninde 10, 15, 20, 25 ve 30. Çalışma Yılını dolduranlara Teşekkür Belgeleri takdim edildi. https://t.co/YrRtzSdZsu</t>
+  </si>
+  <si>
+    <t>TÜBİTAK MAM 2016 Yılı Araştırma ve Destek Ödül Töreni birazdan başlıyor. https://t.co/Cw34kb555d</t>
+  </si>
+  <si>
+    <t>2. Ulusal Çevre ve Su Yönetimi “ Hazar Gölü” temalı Panel
+https://t.co/86oScXcMz0 https://t.co/vwwBsDbuB9</t>
+  </si>
+  <si>
+    <t>TÜBİTAK ile CERN Arasında Çerçeve İşbirliği Anlaşması İmzalandı
+https://t.co/qBwbWvQhVT https://t.co/Obnjry4wRI</t>
+  </si>
+  <si>
+    <t>Ulusal Eylem Planının Güncellenmesi Projesi Çalıştayı 
+https://t.co/Ao6LIj2HGs https://t.co/t2pDbxJdsE</t>
+  </si>
+  <si>
+    <t>AKILLI HAREKETLİLİK KÜMELENMESİ ULAŞIMIN GELECEĞİNİ ŞEKİLLENDİRİYOR
+https://t.co/AiaRqLUR8E https://t.co/fmZ7ZqZhZO</t>
+  </si>
+  <si>
+    <t>Ülkemizde İklim-Su-Enerji Kapsamında Yapılan Modelleme Çalışmalarının Değerlendirilmesi Toplantısı
+https://t.co/aDfSsEuJvX https://t.co/ZCvywFlOtg</t>
+  </si>
+  <si>
+    <t>2 Yılda 4 Bin Gencimize Bilimsel Merak Aşıladık
+https://t.co/vXJtUWXDDI https://t.co/nlxNuTfYB3</t>
+  </si>
+  <si>
+    <t>TÜBİTAK MAM “IV. Uluslararası Nükleer Santraller Zirvesi”ne Katıldı
+https://t.co/PrsnJ4c4EE https://t.co/fMtlD423Fu</t>
+  </si>
+  <si>
+    <t>TÜBİTAK MAM Çin'den sonra ABD'ye de Hizmet Vermeye Başladı
+https://t.co/TdQa7aNhFA
+https://t.co/C094m2iFLx https://t.co/dkVPW7T9YK</t>
+  </si>
+  <si>
+    <t>TÜBİTAK-TNO Toplantısı
+https://t.co/evsF7S9NRV https://t.co/QhPhvd8hCi</t>
+  </si>
+  <si>
+    <t>Denizlerimizin Kara Kökenli Kirleticilere Karşı Korunmasına Yönelik Ulusal Eylem Planının Güncellenmesi Projesi
+https://t.co/sePUvzEoEQ https://t.co/WodzCRUrqr</t>
+  </si>
+  <si>
+    <t>KBRN Filtreleri ve Empregne Aktif Karbon Üretim ve Satış Hakkı Lisans Sözleşmesi imzalandı
+https://t.co/aLj58pp7TA https://t.co/uAJOpcXvXr</t>
+  </si>
+  <si>
+    <t>TÜBİTAK MAM Gen Mühendisliği ve Biyoteknoloji Enstitüsü “Elginkan Vakfı Teknoloji Ödülü”nün sahibi oldu
+https://t.co/uS7lEQCrOE https://t.co/kO4I7UuLdA</t>
+  </si>
+  <si>
+    <t>TİKA ve TÜBİTAK İşbirliği Toplantısı
+https://t.co/Nqja2t4IvP https://t.co/5iX0JuQVsB</t>
+  </si>
+  <si>
+    <t>KSO’dan TÜBİTAK MAM Malzeme Enstitüsüne Ziyaret
+https://t.co/jq9p6BDd24</t>
+  </si>
+  <si>
+    <t>“Fotovoltaik Güneş Panellerindeki Gelişmeler” konulu seminer
+https://t.co/5f4ilsqSaU https://t.co/2Elu1w1MRL</t>
+  </si>
+  <si>
+    <t>3B Merkezi ve Yetenekleri Çalıştayı Gerçekleştirildi
+https://t.co/z2PkmWPlh1 https://t.co/PWJhBOCifN</t>
+  </si>
+  <si>
+    <t>TÜBİTAK MAM Araştırmacısından BOR Kitabı
+https://t.co/FD9nSjoUYl https://t.co/NENfLAegaJ</t>
+  </si>
+  <si>
+    <t>Test/Analiz Hizmetlerimizi İçeren Video Filmi Yayınlandı
+https://t.co/tK6DlcbMwx</t>
+  </si>
+  <si>
+    <t>TÜBİTAK MAM – MARTEK Bilgi Günü Gerçekleştirildi
+https://t.co/GBNyJasoES https://t.co/as81HgMgPa</t>
+  </si>
+  <si>
+    <t>TÜBİTAK MAM "ICTURKEY Proje Pazarı" etkinliğine katıldı
+https://t.co/7muEzCKBiV https://t.co/EQM1DcfEhJ</t>
+  </si>
+  <si>
+    <t>DİPTAR Projesi Kapanış Çalıştayı Gerçekleştirildi
+https://t.co/AYxCwixN48</t>
+  </si>
+  <si>
+    <t>TÜBİTAK ile Malezya SIRIM işbirliği yapacak 
+https://t.co/dMvRDe77iS https://t.co/cBmtOnWbCZ</t>
+  </si>
+  <si>
+    <t>TEİAŞ, Koruma Bilgi Sistemi’ni Devreye Aldı
+https://t.co/NJAphY9arq https://t.co/U8sMUZozTc</t>
+  </si>
+  <si>
+    <t>TÜBİTAK MAM İran Tebriz’de
+https://t.co/glE8KUP39z https://t.co/bInxrTTJw9</t>
+  </si>
+  <si>
+    <t>Bilim, Sanayi ve Teknoloji Bakanı Faruk Özlü Bilişim
+Vadisi'nde incelemelerde bulundu
+https://t.co/TOGHpEMgN9 https://t.co/KYGhHPvP7G</t>
+  </si>
+  <si>
+    <t>“Fikri
+Hakların Yönetimi ve Ticarileştirilmesi” Modülü Eğitimi yapıldı''
+https://t.co/gTDb3Ffl7d https://t.co/mtYUJhw49A</t>
+  </si>
+  <si>
+    <t>Güney Kore İstanbul Başkonsolosluğu ile Toplantı
+https://t.co/RFWpbNYJMv</t>
+  </si>
+  <si>
+    <t>Marmara Araştırma Merkezi’nden Gölcük Tersane Komutanlığına Ziyaret
+https://t.co/Vyr3fXMaXB</t>
+  </si>
+  <si>
+    <t>TÜBİTAK MAM ile Zaman Yolculuğu
+https://t.co/LLgXknBXTf</t>
+  </si>
+  <si>
+    <t>TÜBİTAK’tan Çekmece Nükleer Araştırma ve Eğitim Merkezi’ne Ziyaret
+https://t.co/y0o98xbTzq https://t.co/pt93qZeNMC</t>
+  </si>
+  <si>
+    <t>Sınai Mülkiyet Hakları: Temel Kavramlar ve Patent İşlem Süreçleri konulu eğitim çalışması
+https://t.co/eh68Me4wfv https://t.co/sGRWOB398Z</t>
+  </si>
+  <si>
+    <t>Türkiye’de İlk: Jelatin’de Gen Tayini Yeterlilik Testihttp://mam.tubitak.gov.tr/tr/haber/turkiyede-ilk-jelatinde-gen-tayini-yeterlilik-testi https://t.co/a3vlgNBC8w</t>
+  </si>
+  <si>
+    <t>Milli Teknolojiyi Önemsiyoruz
+https://t.co/0Wd7rV8O6M https://t.co/JWa2dVeedN</t>
+  </si>
+  <si>
+    <t>Su kütlelerinin etkin yönetiminde artık Coğrafi Bilgi Sistemleri kullanılacak
+https://t.co/0xk9dIyWs0 https://t.co/oGwXEAkZV1</t>
+  </si>
+  <si>
+    <t>ICGEB 2017 DESTEK PROGRAMLARI
+https://t.co/v274QqmHqB…/h…/icgeb-2017-destek-programlari https://t.co/qei7uWkHkE</t>
+  </si>
+  <si>
+    <t>EÜAŞ Heyetinin TÜBİTAK MAM Ziyaretihttp://mam.tubitak.gov.tr/tr/haber/euas-heyetinin-tubitak-mam-ziyareti https://t.co/Ggm86D1Qmi</t>
+  </si>
+  <si>
+    <t>Sanayide Temiz Üretim Olanaklarının ve Uygulanabilirliğinin Belirlenmesi (SANTEM) Projesi Çalıştayı - 2 | https://t.co/xJUIRO7peV</t>
+  </si>
+  <si>
+    <t>TÜBİTAK Başkanı’ndan... 
+https://t.co/vSTgLj3yzG https://t.co/vueOcGjHJx</t>
+  </si>
+  <si>
+    <t>3. Yeni 2boyutlu Malzemeler&amp;amp;Grafen Konferansı
+https://t.co/JB4pfkerca https://t.co/nNAgbfHbZA</t>
+  </si>
+  <si>
+    <t>MÜSİAD Gıda, Tarım ve Hayvancılık Sektör Kurulu TÜBİTAK MAM’ı Ziyaret etti.  https://t.co/EXqkKcvwKP</t>
+  </si>
+  <si>
+    <t>Marmara Araştırma Merkezi ve KOP Bölge Kalkınma İdaresi Başkanlığı Arasında İşbirliği - https://t.co/uSilMiZ6S0 https://t.co/6xnOzXVm56</t>
+  </si>
+  <si>
+    <t>Temiz Üretim İnadıyla Dikkat Çekiyor: OSB’leri İyileştiren Güç | TÜBİTAK MARMARA ARAŞTIRMA MERKEZİ https://t.co/BEuoDK3vRP</t>
+  </si>
+  <si>
+    <t>MOTOR MÜKEMMELİYET MERKEZİ İÇİN GÜÇBİRLİĞİ DEVAM EDİYOR | MARMARA ARAŞTIRMA MERKEZİ https://t.co/gFI4WuS17s</t>
+  </si>
+  <si>
+    <t>MAM Başkanı Doç. Dr. Bahadır Tunaboylu Demokrasi Nöbeti’nde | MARMARA ARAŞTIRMA MERKEZİ https://t.co/UTUafxwGtz</t>
+  </si>
+  <si>
+    <t>TÜBİTAK MAM Bilecik’te Ar–Ge İşbirlikleri Oluşturmayı Amaçlıyor
+https://t.co/7taFqZ5vVm https://t.co/6q8Lk9Pc7k</t>
+  </si>
+  <si>
+    <t>Yurt dışından TÜBİTAK MAM’a olan ilgi artıyor
+https://t.co/5rjAbh3R43 https://t.co/5y6u7nopEE</t>
+  </si>
+  <si>
+    <t>SSM nin 2017-2021 yol haritasına TÜBİTAK MAM desteği
+https://t.co/4vl8iI1dYy https://t.co/g6EHSzDhX4</t>
+  </si>
+  <si>
+    <t>‘’Endüstriyel Hizmet Kataloğu 2016’’ DEİK tarafından tüm üyelerine iletildi
+https://t.co/cYJmIq7PAW https://t.co/y6GkHFGzWI</t>
+  </si>
+  <si>
+    <t>"Akıllı Hareketlilik Kümelenmesi (Smart Mobility Clustering)" Toplantısı 
+https://t.co/Rop7C9wxRZ https://t.co/HlQkXlqYrU</t>
+  </si>
+  <si>
+    <t>"Akıllı Hareketlilik Kümelenmesi (Smart Mobility Clustering)" Toplantısı TÜBİTAK MAM'da
+https://t.co/Rop7C9eX0r https://t.co/B8Za2qDQ0g</t>
+  </si>
+  <si>
+    <t>Türkiye-Hollanda Güneş Enerjisi İkili İşbirliği Çalıştayı ve Proje Pazarı
+https://t.co/o3fy4YJrmL https://t.co/VZYCOujpNi</t>
+  </si>
+  <si>
+    <t>Gürültü Eylem Planları Türkiye’de ilk kez TÜBİTAK MAM tarafından hazırlanıyor
+https://t.co/9M0Pgg4h5g https://t.co/BLTyK4A3AK</t>
+  </si>
+  <si>
+    <t>1MV Hızlandırılmış Kütle Spektroskopisi (AMS) Çalıştayı yapıldı
+https://t.co/SM3qhq4zC4 https://t.co/uTGzaDkIQV</t>
+  </si>
+  <si>
+    <t>T.C. Ulaştırma, Denizcilik ve Haberleşme Bakanlığı Heyeti’nin TÜBİTAK MAM Ziyareti | MARMARA ARAŞTIRMA MERKEZİ https://t.co/2cvwrUPYoW</t>
+  </si>
+  <si>
+    <t>Enerji Arz Güvenliği Çalıştayı TÜBİTAK’ta düzenlendi | MARMARA ARAŞTIRMA MERKEZİ https://t.co/3VXW0gSU8Z</t>
+  </si>
+  <si>
+    <t>Helal Gıda Çalıştayı yapıldı | MARMARA ARAŞTIRMA MERKEZİ https://t.co/sLCfnk1FT4</t>
+  </si>
+  <si>
+    <t>İran ISIRI Heyeti TÜBİTAK MAM’ı Ziyaret Etti | MARMARA ARAŞTIRMA MERKEZİ https://t.co/0eWM5cBLHH</t>
+  </si>
+  <si>
+    <t>"Marmara Bölgesi Enerji Arz Güvenliği Çalıştayı" TÜBİTAK MAM işbirliğiyle düzenlendi.
+https://t.co/3VXW0gBjhr https://t.co/QrYhvcn0yi</t>
+  </si>
+  <si>
+    <t>TÜBİTAK MAM “Sıfır Atık Uygulamaları” kapsamında KEAS Kastamonu Entegre A.Ş.’yi Ziyaret Etti
+https://t.co/QHePtlKyMB https://t.co/eGh3oHx7Tx</t>
+  </si>
+  <si>
+    <t>“Havacılık Teknolojileri Test ve Mükemmeliyet Merkezi Fizibilite Etüdü Projesi” İmza Töreni 
+https://t.co/3PYgW4sZEj https://t.co/FhMby2RkkE</t>
+  </si>
+  <si>
+    <t>https://t.co/AkcBnmK75a</t>
+  </si>
+  <si>
+    <t>"Marmara Bölgesi Enerji Arz Güvenliği Çalıştayı" @TUBITAK_MAM ev sahipliğinde başladı. #enerjiarzguvenligi https://t.co/oO1zwFzvz9</t>
+  </si>
+  <si>
+    <t>15/08/1326 - Osman Bey, İlk Osmanlı beyi hayatını kaybetti.</t>
+  </si>
+  <si>
+    <t>2008 - Konya Taşkent'te özel bir vakfa ait 3 katlı kaçak din eğitimi veren öğrenci yurdu,LPG nin sıkışması sonucu çöktü:18 ölü,27 yaralı.</t>
+  </si>
+  <si>
+    <t>1773 - Tersane Hendesehanesi (Deniz Harp Okulu), Cezayirli Hasan Paşa tarafından İstanbul Kasımpaşa'da açıldı.</t>
+  </si>
+  <si>
+    <t>14/08/1985 - Nazlı Ecevit, Türk ressam hayatını kaybetti (d. 1900). http://t.co/hed1pSqPmh</t>
+  </si>
+  <si>
+    <t>14/08/1990 - Naz Aydemir, Türk voleybolcu dünyaya geldi. http://t.co/LqzgwveZ6I</t>
+  </si>
+  <si>
+    <t>14/08/1966 - Tuncay Özkan, Türk gazeteci ve yazar dünyaya geldi. http://t.co/5NTtXjCG8G</t>
+  </si>
+  <si>
+    <t>14/08/2001 - Adalet ve Kalkınma Partisi kuruldu. http://t.co/76zjaaiqMT</t>
+  </si>
+  <si>
+    <t>14/08/1925 - Türkiye Cumhuriyeti'nin ilk posta pulları tedavüle çıkarıldı. http://t.co/A4i1fR0myA</t>
+  </si>
+  <si>
+    <t>13/08/2003 - Kazım Kartal, Türk sinema oyuncusu hayatını kaybetti (d. 1936). http://t.co/D76emnXBzb</t>
+  </si>
+  <si>
+    <t>13/08/1985 - Köy muhtarlarından, yurttaşların "siyasi temayülü" ve "ideolojik durumu"nu belirtecek belgeler istendi.</t>
+  </si>
+  <si>
+    <t>13/08/1979 - Zonguldak maden ocaklarında grizu patladı, 6 işçi öldü. http://t.co/uN4Igc5Q7f</t>
+  </si>
+  <si>
+    <t>13/08/1956 - Türkiye'de ortaokullara din dersi konuldu.</t>
+  </si>
+  <si>
+    <t>13/08/1951 - Çankırı'da deprem. 56 kişi öldü, 500'e yakın ev yıkıldı. http://t.co/pghuf0BqsL</t>
+  </si>
+  <si>
+    <t>13/08/1923 - Mustafa Kemal Paşa TBMM başkanlığına yeniden seçildi. http://t.co/YlT5LqNBHQ</t>
+  </si>
+  <si>
+    <t>12/08/2000 - Güzin Özipek, tiyatro sanatçısı hayatını kaybetti (d. 1925).</t>
+  </si>
+  <si>
+    <t>12/08/1983 - Meryem Uzerli, Türk aktris dünyaya geldi.</t>
+  </si>
+  <si>
+    <t>12/08/1977 - Burcu Güneş, şarkıcı dünyaya geldi.</t>
+  </si>
+  <si>
+    <t>12/08/1947 - Kâmuran Akkor, Türk aktris dünyaya geldi.</t>
+  </si>
+  <si>
+    <t>12/08/1990 - Meclisin yaptığı gizli oturumda olası bir savaş durumunda hükümete müdahale izni verildi.</t>
+  </si>
+  <si>
+    <t>12/08/1964 - Türkiye, BM Güvenlik Konseyi'nin çağrısı üzerine Kıbrıs üzerindeki askeri uçuşlara son verdi.+++</t>
+  </si>
+  <si>
+    <t>12/08/1930 - Serbest Cumhuriyet Fırkası kuruldu, başkanlığına Fethi Okyar getirildi.</t>
+  </si>
+  <si>
+    <t>12/08/1910 - İstanbul Moda'da ilk tenis kortu açıldı.</t>
+  </si>
+  <si>
+    <t>11/08/2000 - Alim Şerif Onaran, Türk sinema kuramcısı, yazar, akademisyen ve hukukçu hayatını kaybetti (d. 1924). http://t.co/9TpdcTQJte</t>
+  </si>
+  <si>
+    <t>11/08/1988 - Mustafa Pektemek, Türk futbolcu dünyaya geldi. http://t.co/NmcclKpD3S</t>
+  </si>
+  <si>
+    <t>11/08/1978 - Sağmalcılar Cezaevi'nde ülkücüler solculara saldırdı; 1 ölü.</t>
+  </si>
+  <si>
+    <t>11/08/1972 - Hollanda'da Türklerle Hollandalılar çatıştı, Türklerin evleri taşlandı. Çıkan olaylarda 100'e yakın yaralı var.</t>
+  </si>
+  <si>
+    <t>11/08/1969 - Cumhuriyet Halk Partisi Genel Sekreteri Bülent Ecevit köy politikasını açıkladı: "Toprak işleyenin su kullananın".</t>
+  </si>
+  <si>
+    <t>11/08/1963 - Çatalhöyük'te Milattan Önce 8000'de yapılmış buluntulara rastlandığı açıklandı.</t>
+  </si>
+  <si>
+    <t>11/08/1940 - Bakanlar Kurulu, Cumhuriyet gazetesini kapattı.</t>
+  </si>
+  <si>
+    <t>11/08/1929 - Türk Yerli Mallar Sergisi, İstanbul'da Galatasaray Lisesi'nde açıldı.</t>
+  </si>
+  <si>
+    <t>11/08/1925 - Doğu İstiklal Mahkemesi gazetecileri yargılamaya başladı. Mahkeme Vatan gazetesini kapattı.</t>
+  </si>
+  <si>
+    <t>11/08/1923 - TBMM’nin II. dönemi açıldı. http://t.co/MEzycPEJxl</t>
+  </si>
+  <si>
+    <t>11/08/1480 - Gedik Ahmet Paşa komutasındaki Osmanlı donanması, İtalya'nın Otranto limanını zaptetti. http://t.co/YSjdnM8yAR</t>
+  </si>
+  <si>
+    <t>10/08/1992 - Özgür Gündem gazetesi köşe yazarı Hüseyin Deniz Ceylanpınar'da vurularak öldürüldü. http://t.co/rtbiBTET6D</t>
+  </si>
+  <si>
+    <t>10/08/1986 - Süleyman Demirel, "Halk isterse cumhurbaşkanı olurum" dedi.</t>
+  </si>
+  <si>
+    <t>10/08/1960 - Ayşe Sultan, Osmanlı Sultanı II. Abdülhamit'in kızı hayatını kaybetti (d. 1887). http://t.co/TBP9DnC76n</t>
+  </si>
+  <si>
+    <t>10/08/1957 - Zuhal Olcay, Türk oyuncu ve şarkıcı dünyaya geldi. http://t.co/k3MmwVrXUb</t>
+  </si>
+  <si>
+    <t>10/08/1934 - Tevfik Kış, Avrupa, Dünya ve Olimpiyat şampiyonlukları kazanmış Türk güreşçi ve antrenör dünyaya geldi.</t>
+  </si>
+  <si>
+    <t>10/08/1920 - Sevr Antlaşmasını imzalandı.</t>
+  </si>
+  <si>
+    <t>10/08/1914 - İngiliz donanmasından kaçan "Goeben" (Yavuz) ve "Breslau" (Midilli) Alman zırhlıları Türkiye'ye sığındı. http://t.co/4S7HQL9onf</t>
+  </si>
+  <si>
+    <t>10/08/1543 - Kanuni Sultan Süleyman komutasındaki Osmanlı ordusu, Estergon Kalesi'ni fethetti. http://t.co/631uzadorX</t>
+  </si>
+  <si>
+    <t>09/08/1929 - Abdi İpekçi, Türk yazar ve gazeteci (ö. 1979) dünyaya geldi. http://t.co/V7ugcY8ZFB</t>
+  </si>
+  <si>
+    <t>09/08/2000 - Sinema yazarı Alim Şerif Onaran hayatını kaybetti. http://t.co/USvf5yKFea</t>
+  </si>
+  <si>
+    <t>09/08/1997 - 54 gazeteciler cemiyeti ve derneğinin oluşturduğu Gazeteciler Federasyonu 9 Ağustos 1997'de resmen kuruldu.</t>
+  </si>
+  <si>
+    <t>09/08/1994 - Türkiye radyolarının ilk disk cokeylerinden Aykut Sporel hayatını kaybetti.</t>
+  </si>
+  <si>
+    <t>09/08/1982 - Adalet Bakanı Cevdet Menteş, cezaevlerinde 77.295 tutuklu ve hükümlü olduğunu açıkladı.</t>
+  </si>
+  <si>
+    <t>09/08/1975 - Kıbrıs'ta 9 bin Türkün kuzeye göçü başladı.</t>
+  </si>
+  <si>
+    <t>09/08/1951 - Ücretli Hafta Tatili Kanunu çıktı. İşçiler resmi tatil günleriyle hafta tatilinde yarım yevmiye almaya başladılar.</t>
+  </si>
+  <si>
+    <t>09/08/1934 - İstanbul'da halkın deniz hamamları ve plajlar dışında denize girmesi yasaklandı.</t>
+  </si>
+  <si>
+    <t>09/08/1915 - Birinci Anafartalar Zaferi. http://t.co/wM58y4Ac31</t>
+  </si>
+  <si>
+    <t>08/08/2000 - Kültür Bakanı İstemihan Talay İstanbul Devlet Opera ve Balesi Genel Müdürü Yekta Kara'yı görevden aldı.</t>
+  </si>
+  <si>
+    <t>08/08/1996 - ''TV 8'' yayın hayatına başladı. http://t.co/wsYtx8xVh4</t>
+  </si>
+  <si>
+    <t>08/08/1992 - Çorlu'da bir fabrikada metan gazı sıkışması nedeniyle patlama oldu; 29 kişi öldü, 27'si ağır 86 kişi yaralandı.</t>
+  </si>
+  <si>
+    <t>+++  zakkum ekstresinin umutsuz kanser hastaları üzerinde denenmesini kabul etti.</t>
+  </si>
+  <si>
+    <t>08/08/1985 - Şair Abdülkadir Bulut hayatını kaybetti. http://t.co/4CfNeyUASt</t>
+  </si>
+  <si>
+    <t>08/08/1980 - Kahramanmaraş katliamı davası sonuçlandı; 22 sanık ölüm cezasına çarptırıldı. http://t.co/HjTKeEafZQ</t>
+  </si>
+  <si>
+    <t>08/08/1974 - Tiyatro sanatçısı, oyun yazarı İsmail Galip Arcan hayatını kaybetti. http://t.co/NL13Ouyb31</t>
+  </si>
+  <si>
+    <t>08/08/1971 - Abdullah Ercan, Türk futbolcu dünyaya geldi. http://t.co/XOZOo6UHsX</t>
+  </si>
+  <si>
+    <t>08/08/1964 - Cengiz Topel, Pilot yüzbaşı hayatını kaybetti. http://t.co/4AGbys3w6U</t>
+  </si>
+  <si>
+    <t>08/08/1961 - Fakir Baykurt'un Onuncu Köy romanı yayımlandı. http://t.co/jDXxuvZf7c</t>
+  </si>
+  <si>
+    <t>08/08/1936 - Çolpan İlhan, Türk tiyatro ve sinema sanatçısı dünyaya geldi. http://t.co/J2SuzsygvM</t>
+  </si>
+  <si>
+    <t>08/08/1928 - Edip Cansever, Türk şair dünyaya geldi http://t.co/hrrSkHySGx</t>
+  </si>
+  <si>
+    <t>07/08/1953 - Türkiye ve İngiltere arasında imzalanan anlaşmaya göre; Türkiye, İngiltere'ye olan 240 milyon lira kredi borcunu ödemeyecek.</t>
+  </si>
+  <si>
+    <t>07/08/1946 - Türkiye, Sovyetler Birliği'nin, Boğazlar statüsünündeğiştirilmesine yönelik isteklerini reddetti.</t>
+  </si>
+  <si>
+    <t>07/08/1944 - 39 il merkezinde geceleri karartma başladı ve gece sokağa çıkma yasağı getirildi.</t>
+  </si>
+  <si>
+    <t>07/08/1962 - Neveser Kökdeş, Türk besteci, güfteci, tamburi hayatını kaybetti (d. 1904). http://t.co/UYGUv23ofZ</t>
+  </si>
+  <si>
+    <t>07/08/1975 - Koray Candemir, Türk rock grubu Kargo'nun solisti dünyaya geldi.</t>
+  </si>
+  <si>
+    <t>07/08/1989 - Milli Piyango İdaresi 'Kazı-Kazan' oyununu başlattı. http://t.co/2NFUWeAunt</t>
+  </si>
+  <si>
+    <t>+++ Ankara emniyet müdür yardımcısının yanı sıra 7 kişi yaşamını yitirdi, 72 kişi yaralandı.</t>
+  </si>
+  <si>
+    <t>07/08/1964 - Türk Hava Kuvvetleri'ne bağlı savaş uçakları Kıbrıs'ta Rum mevzilerini bombaladı.</t>
+  </si>
+  <si>
+    <t>07/08/1919 - Erzurum Kongresi bitti. http://t.co/cP9RSLwwfv</t>
+  </si>
+  <si>
+    <t>06/08/2013 - Fenerbahce ve Galatasaray'ın eski futbolcusu, gazete yazarı efsane isim Selçuk Yula hayatını kaybetti. http://t.co/pUpastlx9V</t>
+  </si>
+  <si>
+    <t>06/08/1938 - ''Times'' gazetesi, Atatürk ve Atatürk Türkiyesi özelsayısı yayımladı. http://t.co/4ELpXF1fDF</t>
+  </si>
+  <si>
+    <t>06/08/1982 - Feridun Fazıl Tülbentçi, Türk gazeteci, şair, yazar, romancı hayatını kaybetti (d. 1912).</t>
+  </si>
+  <si>
+    <t>06/08/1984 - Türkiye-Irak ikinci boru hattı kurulması anlaşması imzalandı.</t>
+  </si>
+  <si>
+    <t>06/08/1923 - Türkiye ile Amerika arasında Lozan'da "Suçluların İadesi Antlaşması" imzalandı.</t>
+  </si>
+  <si>
+    <t>06/08/1726 - Alman İmparatorluğu ve Rusya, Osmanlı'ya karşı ittifaka vardılar.</t>
+  </si>
+  <si>
+    <t>05/08/1985 - Erkan Zengin,Türk asıllı İsveçli futbolcu dünyaya geldi.</t>
+  </si>
+  <si>
+    <t>05/08/1948 - Cemil İpekçi, Türk moda tasarımcısı dünyaya geldi. http://t.co/Xy4kp5mZjI</t>
+  </si>
+  <si>
+    <t>05/08/1966 - Suzan Seçkiner, İlk kadın FIDE hakemi dünyaya geldi.</t>
+  </si>
+  <si>
+    <t>05/08/1995 - II. Akkuyu Nükleer Karşıtı Şenliği yapıldı.</t>
+  </si>
+  <si>
+    <t>05/08/1971 - Türkiye, Çin Halk Cumhuriyeti'ni resmen tanıdı. http://t.co/zYNGhI6jxN</t>
+  </si>
+  <si>
+    <t>05/08/1968 - Bolu Çimento Fabrikası kuruldu.</t>
+  </si>
+  <si>
+    <t>05/08/1925 - Mustafa Kemal ile Latife Hanım boşandı. http://t.co/5U7NL9J5ky</t>
+  </si>
+  <si>
+    <t>05/08/1912 - Padişah Sultan Reşat,Meclis-i Mebusan'ı feshetti ve 14/05/1914'e kadar Osmanlı Meclisi toplanamadı. http://t.co/wAxIA6ep0o</t>
+  </si>
+  <si>
+    <t>04/08/1922 - Enver Paşa, Ünlü Osmanlı Komutanı hayatını kaybetti (d. 1881). http://t.co/GremcfjmLd</t>
+  </si>
+  <si>
+    <t>04/08/1944 - Türk Müzisyen Orhan Gencebay dünyaya geldi. http://t.co/hGJX2gkvOK</t>
+  </si>
+  <si>
+    <t>04/08/1988 - Samsun ve Sinop sahillerine, zehirli oldukları bildirilen çok sayıda varil vurdu.</t>
+  </si>
+  <si>
+    <t>04/08/1986 - Yargıtay, ameliyatla cinsiyet değiştiren Bülent Ersoy'un erkek olduğuna karar verdi. http://t.co/9yC0RG1mx5</t>
+  </si>
+  <si>
+    <t>04/08/1950 - Türkiye Sanayi Kalkınma Bankası kuruldu.</t>
+  </si>
+  <si>
+    <t>04/08/1791 - Osmanlı - Avusturya devletleri arasında Ziştovi Antlaşması imzalandı. http://t.co/J2bwnzoNXh</t>
+  </si>
+  <si>
+    <t>Kadir Gecemiz mübarek, dualarımız kabul olsun.</t>
+  </si>
+  <si>
+    <t>03/08/2007 - İzmir Gazeteciler Cemiyeti Onursal Başkanı İsmail Sivri hayatını kaybetti.</t>
+  </si>
+  <si>
+    <t>#Türkiye, #İran'da 1 numaralı turizm pazarı haline geldi https://t.co/vYffJGx3mY https://t.co/rLv3tofYwE</t>
+  </si>
+  <si>
+    <t>• Yer altında depolanmış tonlarca silah ve mühimmat
+• Silahların büyük bölümü Türkiye'nin NATO müttefiki ABD menşeli
+Terör örgütü YPG/PKK'ya verilen silahlar Afrin'de ortaya çıktı https://t.co/L4mmJrVyld</t>
+  </si>
+  <si>
+    <t>Emine Erdoğan, Canan Karatay'ı kabul etti https://t.co/mb1993s5nE https://t.co/Iah35HK9XK</t>
+  </si>
+  <si>
+    <t>❝Down sendromlu oğlumun başarıları beni hayata döndürdü❞
+Geçirdikleri trafik kazasında eşini ve kızını kaybettikten sonra zor günler geçiren Denizlili anne, down sendromlu milli sporcu oğlunun yüzme sporundaki başarılarıyla gurur duyuyor https://t.co/MBCbJTIFQz https://t.co/9SJrJFVFCp</t>
+  </si>
+  <si>
+    <t>AK Parti Ankara Milletvekili Arslan: Engellilere karşı hassasiyet gittikçe artıyor https://t.co/kR8dIbcm1h https://t.co/4WoUCp9IT4</t>
+  </si>
+  <si>
+    <t>Down sendromlu genç işiyle hayata bağlandı
+"İşim Var Benim" projesi kapsamında bir konfeksiyon firmasında çalışmaya başlayan down sendromlu Pultaş, çalışma azmi ve disipliniyle herkese örnek oluyor https://t.co/2bWCmcxgEG https://t.co/YLeOXCvVSi</t>
+  </si>
+  <si>
+    <t>#Idlib'e hava saldırısı: 16'sı öğrenci 20 ölü https://t.co/t6WVGnJg2w https://t.co/4f1Nv2HPgb</t>
+  </si>
+  <si>
+    <t>Afrin, kültürel miras ve kara propaganda
+@cengiztomar, #Afrin operasyonunun başarısı üzerine Avrupa basını ve sosyal medyadaki kara propagandayı yazdı https://t.co/fnWsnK0YBi https://t.co/jlK7R9r6SU</t>
+  </si>
+  <si>
+    <t>Altının gram fiyatı tüm zamanların zirvesini gördü https://t.co/tD8NF6lyjq https://t.co/PPn4tekYzs</t>
+  </si>
+  <si>
+    <t>Zuckerberg'in serveti yaklaşık 7 milyar dolar azaldı
+Facebook'un veri skandalı regülatörleri harekete geçirdi https://t.co/ZY9F2VDJh8 https://t.co/rKrCah84ST</t>
+  </si>
+  <si>
+    <t>CHP Sözcüsü Tezcan: Siyasetin görevi güzel bir gelecek yaratmaktır https://t.co/25hIPFJI2N https://t.co/ugDtNjbtPx</t>
+  </si>
+  <si>
+    <t>❝Türkiye'mizi kurtarmış bir liderimiz var. Allah onu başımızdan eksik etmesin. O Kur'an okurken biz televizyon karşısında ağlıyoruz❞
+Üçüz bebeklerine Recep, Tayyip, Erdoğan ismini verdiler https://t.co/iuUEHQsBtu https://t.co/6Z05bz6Mlw</t>
+  </si>
+  <si>
+    <t>RT @AACanli: Suriye'nin İdlib ilinde savaş uçaklarının okul çıkışı öğrencileri hedef alan hava saldırısında 16'sı öğrenci toplam 20 sivil h…</t>
+  </si>
+  <si>
+    <t>Sağlık Bakanlığı: Deniz Baykal'ın genel durumu iyi, bilinci açık durumda https://t.co/pkpyzpL9ow https://t.co/8abOl7HAY9</t>
+  </si>
+  <si>
+    <t>Yarın Regaip Kandili
+İslam aleminde mübarek kabul edilen ve recep, şaban, ramazan aylarını kapsayan "üç ayların" habercisi Regaip Kandili, yarın idrak edilecek https://t.co/Vmfq7eILMw https://t.co/XaxCrB3z37</t>
+  </si>
+  <si>
+    <t>'+1' başarıya engel değil
+Down sendromlu bireyler, erken eğitim programları, fizyoterapi, dil terapisi, alternatif terapiler ve oyun grupları sayesinde artık lise hatta üniversite bitirebiliyor https://t.co/pUxJjONMYG
+#DownSendromuFarkındalıkGünü https://t.co/xeTu7ViYgo</t>
+  </si>
+  <si>
+    <t>Okul sıralarıyla 92 yaşında buluştu
+Okuma yazma seferberliği kapsamında açılan kursa katılan 92 yaşındaki Güllü Saraç, yıllar sonra okul sıralarıyla buluşmanın mutluluğunu yaşıyor https://t.co/78igFSSxY6 https://t.co/x6A8EujC7n</t>
+  </si>
+  <si>
+    <t>15 Temmuz Şehidi Münir Alkan'ın eşi Aylin Alkan: O gece 'uyudum' diyen, 'havaya sıktım, ateş etmedim' diyen asker üniforması giyip 'korktum' ya da 'ağladım' diyen herkesten şikayetçiyim https://t.co/Ely2yXjQjD https://t.co/x158gqYVO8</t>
+  </si>
+  <si>
+    <t>RT @AACanli: #BaşbakanYıldırım: 16 yılda 4 milyar 39 milyon fidanı toprakla buluşturduk. Bazıları diyor ki, iş yapmaya yüzü olmayan, sürekl…</t>
+  </si>
+  <si>
+    <t>❝Sayenizde terör örgütü PKK'dan kurtulduk❞
+#ZeytinDalıHarekatı kapsamında terör örgütü YPG/PKK'nın işgalinden kurtarılan #Afrin'deki siviller özgürlüklerine kavuşmanın sevincini yaşıyor https://t.co/n9fjCPVaJ4</t>
+  </si>
+  <si>
+    <t>Bilinçsiz kullanım hem cana hem bütçeye zarar
+Devlet ilaca 25 milyar lira ödedi https://t.co/FGNGBkQ4lZ https://t.co/yD2g5sDJlZ</t>
+  </si>
+  <si>
+    <t>RT @AACanli: #Canlı: #BaşbakanYıldırım, "Milletimizle Birlikte Daha Yeşil Türkiye Buluşması"nda konuşuyor https://t.co/Ugas3meUXV</t>
+  </si>
+  <si>
+    <t>Başarılarının sırrı 'dostlukları'
+Babaları kalp krizi geçirdikten sonra maddi imkansızlıkları aşmak için annelerine yardım eden iki down sendromlu arkadaş, dostluklarıyla engelleri aşarak başarı için mücadele veriyor https://t.co/ZRGuk6p97n
+#DownSendromuFarkındalıkGünü https://t.co/fygZlTG3aD</t>
+  </si>
+  <si>
+    <t>'Nefer'li zırhlılar göreve başladı
+Komuta ve devriye araçları için geliştirilen gizli zırhlama sistemi "Nefer", güvenlik güçlerinin kullanımına sunuldu https://t.co/DPorVh4DeJ https://t.co/G2Gg1Ra1or</t>
+  </si>
+  <si>
+    <t>RT @AACanli: Dışişleri Bakanı Çavuşoğlu: "(ABD ile) Çalışma grubunun yol haritasını mutabakata bağlarsak 'anlaştık' diyebiliriz. Şimdi bir…</t>
+  </si>
+  <si>
+    <t>Ekonomi Bakanı Zeybekci: #Malta'ya ihracat 541,2 milyon dolara ulaştı https://t.co/qavVNYsR3j https://t.co/mk8j4xpHUP</t>
+  </si>
+  <si>
+    <t>Cumhurbaşkanı ve AK Parti Genel Başkanı Erdoğan, AK Parti'li 45 milletvekiliyle bir araya geldi https://t.co/cp67xIWOAb https://t.co/LYWjUXnjJ5</t>
+  </si>
+  <si>
+    <t>RT @anadoluagency: PYD/PKK continues smear campaign against Afrin op https://t.co/q23pvZakSw https://t.co/8WffYYPZ32</t>
+  </si>
+  <si>
+    <t>Teröristlere ait çok sayıda füze ve el yapımı patlayıcı ele geçirildi
+ÖSO, #Afrin'de YPG/PKK cephanesi buldu https://t.co/AIZlqgXtKj https://t.co/LOY6NfG1M4</t>
+  </si>
+  <si>
+    <t>SGK 5 kanser ilacını geri ödeme kapsamına aldı https://t.co/3qAteSRSM6 https://t.co/idNwVonm2Y</t>
+  </si>
+  <si>
+    <t>- Oğlumun yanı sıra amcam ve dedem de şehit
+- #15Temmuz bize her türlü oyunu nasıl bozacağımızı gösterdi
+Fetullahçı Terör Örgütü'nün darbe girişiminde şehit olan yüksek ihtisas mühendisi Mehmet Şengül'ün Kıbrıs gazisi babası AA'ya konuştu https://t.co/3vvuTtgGBv https://t.co/YlAFri0B6g</t>
+  </si>
+  <si>
+    <t>Fetullahçı Terör Örgütü'nün Deniz Kuvvetleri Komutanlığı astsubay yapılanmasına yönelik soruşturmada 11 gözaltı
+#İstanbul'da yürütülen soruşturmada 16 şüpheli hakkında yakalama ve gözaltı kararı verilmişti https://t.co/BJTGp12cDA https://t.co/BY37coKImK</t>
+  </si>
+  <si>
+    <t>Sağlıklı Yaşam Aracı, 10 milyon kişiye ulaştı
+81 ilde hizmet vermek için iki yıl önce yola çıkan Sağlıklı Yaşam Araçları, 3 milyon kilometre yol kat ederek 10 milyon kişiyle temas etti https://t.co/Ec0Lzxjlxt https://t.co/EvJ2NpmOty</t>
+  </si>
+  <si>
+    <t>Aile ve Sosyal Politikalar Bakanı Kaya'dan 'Zeytin Dalı' paylaşımı https://t.co/VNwhVLlQYQ https://t.co/HI3UnQhxdK</t>
+  </si>
+  <si>
+    <t>Yasa dışı yollardan Yunanistan'a kaçmak isterken pirinç tarlasında yakalanan 7 FETÖ şüphelisi tutuklandı https://t.co/fN7aoGPi1f https://t.co/hsSCaSD5iM</t>
+  </si>
+  <si>
+    <t>RT @aa_spor: #EczacıbaşıVitrA, Kadınlar CEV Kupasında finale yükselmeyi garantiledi https://t.co/QwhIGv15zP https://t.co/a5PGdfIQ6o</t>
+  </si>
+  <si>
+    <t>#İsrail, #Suriye'de hava saldırısı düzenlediğini doğruladı https://t.co/DVtzizGfP5 https://t.co/gcNZthCsfw</t>
+  </si>
+  <si>
+    <t>#ZeytinDalıHarekatı kapsamında #Afrin’i PYD/PKK'lı teröristlerden arındıran Kahraman Mehmetçik, ilçe merkezinde terör örgütü üyelerince kullanılan sığınak ve silah depolarını arıyor https://t.co/wAnwJgELLp https://t.co/GbHbxFGLcZ</t>
+  </si>
+  <si>
+    <t>#ZeytinDalıHarekatı kapsamında PYD/PKK'lı teröristlerden temizlenen #Afrin'deki arama-tarama çalışmaları sırasında teröristlerin mezarlığı bulundu https://t.co/5RjNozdpbS https://t.co/lFPPPNj9Ef</t>
+  </si>
+  <si>
+    <t>❝İnsanların buraya gelip davaları izlemeleri lazım❞
+Oyuncu Durul Bazan, Fetullahçı Terör Örgütü'nün darbe girişimi sırasında 34 kişinin şehit edildiği 15 Temmuz Şehitler Köprüsü'ndeki olaylara ilişkin davayı izledi https://t.co/4dnMWCqfoU https://t.co/CrNkimPmaE</t>
+  </si>
+  <si>
+    <t>Meslekten ihraç edilen 4 hakim ve savcı ile 2 hakim adayı gözaltına alındı
+Fetullahçı Terör Örgütü'nün 'hakim ve savcı çalışma evleri'ne yönelik soruşturma kapsamında 5 ilde operasyon düzenlendi https://t.co/OptgIDnrmb https://t.co/WKZUPKE2A6</t>
+  </si>
+  <si>
+    <t>Üsküdar Belediyesi'nin Tebessüm Kahvesi'nde çalışan down sendromlu Emrah'ın yaşama sevinci, ilgi alanları, insan ilişkileri kendisi gibi gençlere, ailelerine ve topluma umut veriyor 
+👆🏻 Tamamı #YouTube kanalımızda: https://t.co/C6JWirORVt https://t.co/OV0ysyxuuj</t>
+  </si>
+  <si>
+    <t>❝Bölge halkı kardeşimiz. Türk, Kürt, Arap, Acem ve bu topraklarda yaşayan herkes dost ve kardeş❞
+2. Ordu Komutanı Korgeneral İsmail Metin Temel’den Afrin’de kardeşlik mesajı https://t.co/FWG5XA9TtQ https://t.co/BM1DKDpYEn</t>
+  </si>
+  <si>
+    <t>Eski MHP Milletvekili, emekli büyükelçi Deniz Bölükbaşı, tedavi gördüğü hastanede 69 yaşında hayatını kaybetti https://t.co/Fs6G6HfRDT https://t.co/mUfDxh56tN</t>
+  </si>
+  <si>
+    <t>ABD'nin Austin kentinde yerel bir alışveriş mağazasında patlayan bombalı paket bir kişinin yaralanmasına neden oldu
+ABD'de bombalı paket saldırılarına bir yenisi daha eklendi https://t.co/XYFMN3Tn3c https://t.co/2nx7mfUx4z</t>
+  </si>
+  <si>
+    <t>RT @aa_spor: Milli eskrimciler bugün #AASporMasası'na konuk olacak
+Canlı yayın saat 12.00'de başlayacak https://t.co/vKchcy6IOq https://t.…</t>
+  </si>
+  <si>
+    <t>RT @AACanli: Eski MHP Milletvekili, emekli büyükelçi Deniz Bölükbaşı, tedavi gördüğü hastanede 69 yaşında hayatını kaybetti.</t>
+  </si>
+  <si>
+    <t>RT @AACanli: Türk Silahlı Kuvvetlerince, Irak'ın kuzeyindeki Hakurk'ta saldırı hazırlığında olan 12 silahlı terörist, hava harekatıyla etki…</t>
+  </si>
+  <si>
+    <t>RT @aa_spor: Milli eskrimciler AA Spor Masası'na konuk olacak https://t.co/et9aJwQpJ8 https://t.co/XYgaKZKH5R</t>
+  </si>
+  <si>
+    <t>#ABD'de bombalı paket saldırılarına bir yenisi daha eklendi https://t.co/wH2UjxtaUP https://t.co/nRPfe9raDa</t>
+  </si>
+  <si>
+    <t>❝Bölge halkı kardeşimiz. Türk, Kürt, Arap, Acem ve bu topraklarda yaşayan herkes dost ve kardeş❞
+2. Ordu Komutanı Korgeneral İsmail Metin Temel’den Afrin’de kardeşlik mesajı https://t.co/tGqu8BSEfb https://t.co/u4PJpKxu5z</t>
+  </si>
+  <si>
+    <t>❝#ZeytinDalıHarekatı hedefe ulaşılana kadar devam edecek❞
+Dışişleri Bakanı Çavuşoğlu, #Fransa'nın önde gelen gazetelerinden Le Monde'a makale yazdı https://t.co/h8ysuj5Hsx https://t.co/nhOA2mhJOk</t>
+  </si>
+  <si>
+    <t>#Gazze'ye 456 milyon avro yardım taahhüdü https://t.co/OKfbeFo8w8 https://t.co/YOK0i4joba</t>
+  </si>
+  <si>
+    <t>ABD'li generalden nükleer açıklaması https://t.co/fKF8pjzBJi https://t.co/rJpbpQgoJj</t>
+  </si>
+  <si>
+    <t>Irak'ta Nevruz kutlamaları düzenlendi https://t.co/bpPUKaW22e https://t.co/xWrqNKrlZq</t>
+  </si>
+  <si>
+    <t>Küresel piyasada petrol fiyatları, son 3 haftanın en yüksek seviyesine ulaştı https://t.co/ndCDA2MQBq https://t.co/noy4tuqIvT</t>
+  </si>
+  <si>
+    <t>Amazon, dünyanın piyasa değeri en yüksek ikinci şirketi oldu https://t.co/lenvVLRIe5 https://t.co/iE1ChbtfT1</t>
+  </si>
+  <si>
+    <t>ABD Dışişleri Bakanlığı Kamu Diplomasisinden Sorumlu Müsteşar Vekili Nauert: Putin'in tekrar seçilmesi sürpriz olmadı https://t.co/4k86OXEooU https://t.co/QQqN4s82LN</t>
+  </si>
+  <si>
+    <t>#Yunanistan #Gümülicne'de bulunan Ziraat Bankası şubesine taşlı saldırıda bulunuldu https://t.co/qyd8Nc3PTD https://t.co/udhd4sSAc9</t>
+  </si>
+  <si>
+    <t>#İsrail’den Twitter’a tehdit https://t.co/x7aefbFDiw https://t.co/0vprO8PRUQ</t>
+  </si>
+  <si>
+    <t>#İngiltere Hava Kuvvetlerine ait gösteri uçağı düştü https://t.co/qVeh27FVds https://t.co/oWK76kOOpp</t>
+  </si>
+  <si>
+    <t>RT @aa_spor: THY Avrupa Ligi'nde Fenerbahçe Doğuş, İsrail ekibi Maccabi FOX'u 87-73 mağlup etti https://t.co/0cemLJeLZo https://t.co/puxH9U…</t>
+  </si>
+  <si>
+    <t>Karagöz'ün ilk kadın 'hayali' oldu
+Geleneksel Türk gölge oyununun ustalarından Suat Veral'in yanında çocuk yaşta "yardak" olarak çalışmaya başlayan Merve İlken, 11 yıllık deneyiminin ardından Türkiye'nin ilk kadın Karagöz ustası oldu https://t.co/zgnwwDfk6F https://t.co/tSojSewHFX</t>
+  </si>
+  <si>
+    <t>#İsrail Başbakanı Netanyahu: Afrikalı göçmenler terörden tehlikeli https://t.co/jBwnJ1sCVA https://t.co/f4TELhpZQu</t>
+  </si>
+  <si>
+    <t>Mazlumun umudu Türk Kızılayı Afrinlilerin yanında https://t.co/dHC2RL4sRq https://t.co/7eEcisqdZ1</t>
+  </si>
+  <si>
+    <t>❝Afrin'de klor gazı kullanıldığına dair hiçbir kanıt yok❞
+Kimyasal Silahların Yasaklanması Örgütü Genel Direktörü Üzümcü'den #Afrin açıklaması https://t.co/JLxA15MZIc https://t.co/F8FE6pptQt</t>
+  </si>
+  <si>
+    <t>ABD Başkanı Trump, Suudi Veliaht Prens Selman ile görüştü 
+Beyaz Saray'daki görüşmede ağırlıklı olarak iki ülke arasındaki silah ve yatırım anlaşmaları ile İran konusu ele alındı https://t.co/cI4IfmsZWr https://t.co/HyN8nWkQNN</t>
+  </si>
+  <si>
+    <t>- Eşim sadece vatanını, milletini düşündü
+- Bu şahıslar kendi vatandaşlarına, Türk bayrağına nasıl ateş ettiler?
+Fetullahçı Terör Örgütü'nün darbe girişiminde 15 Temmuz Şehitler Köprüsü'nde şehit düşen Köksal Karmil’in eşi mahkemede konuştu https://t.co/zeIlyDLgpx https://t.co/Pq9v9h686K</t>
+  </si>
+  <si>
+    <t>❝Bölge halkı kardeşimiz. Türk, Kürt, Arap, Acem ve bu topraklarda yaşayan herkes dost ve kardeş❞
+2. Ordu Komutanı Korgeneral İsmail Metin Temel’den Afrin’de kardeşlik mesajı https://t.co/fyyUm5u12S https://t.co/JujHQUEJ9z</t>
+  </si>
+  <si>
+    <t>Terör yuvasına dönüştürülen #Afrin huzuru arıyor https://t.co/1YmB15AWqF https://t.co/iPkAUjMAQm</t>
+  </si>
+  <si>
+    <t>#Almanya'da cami önüne domuz başı bırakıldı https://t.co/V0b1RwF0bX https://t.co/DXMx5zM62O</t>
+  </si>
+  <si>
+    <t>RT @AACanli: Beşşar Esed rejimi ve destekçilerinin, Doğu Guta'ya yönelik aralıksız bombardımanlarında 59 sivil hayatını kaybetti.</t>
+  </si>
+  <si>
+    <t>Fetullahçı Terör Örgütü’nün yurt dışına kaçan firarileri https://t.co/MtfKjQHdh8 https://t.co/Yx1aHWDky0</t>
+  </si>
+  <si>
+    <t>'#Gana'da halkın sadece yüzde 27'si temiz suya erişebiliyor' https://t.co/h905HqKS43 https://t.co/mNuCYjJZMr</t>
+  </si>
+  <si>
+    <t>ABD'de lisede silahlı saldırı: 2 öğrenci yaralandı https://t.co/VzYzCjkqcn https://t.co/044wVwoW0K</t>
+  </si>
+  <si>
+    <t>#Şırnak'ta 2 terörist etkisiz hale getirildi https://t.co/bwtRxp2HCC https://t.co/NaQqEssEwQ</t>
+  </si>
+  <si>
+    <t>Teröristlerden arındırılan #Afrin'de patlayıcı ve mayın temizliği sürüyor https://t.co/60e5Nqt03H https://t.co/4EThQqcUTj</t>
+  </si>
+  <si>
+    <t>Siirt merkezli 3 ilde terör örgütü PKK'ya operasyon: 8 gözaltı https://t.co/BF9tDlmXLu https://t.co/50xcFJeZRo</t>
+  </si>
+  <si>
+    <t>🗓 Yarın görülecek FETÖ/PDY davaları https://t.co/arTWx5BdJz</t>
+  </si>
+  <si>
+    <t>'Facebook hakkında soruşturma başlatıldı' iddiası https://t.co/fWYG1rWQmH https://t.co/nCasYc8aqQ</t>
+  </si>
+  <si>
+    <t>Saldırı hazırlığındaki 12 terörist etkisiz hale getirildi
+PKK'nın #Irak'ın kuzeyindeki terör kamplarına operasyon https://t.co/0fNoPMBGM5 https://t.co/zRCc9pKfZT</t>
+  </si>
+  <si>
+    <t>Başbakan Yıldırım: Ülkemize yönelen her terör tehdidini kararlılıkla bertaraf edeceğiz https://t.co/fJU2tEQ3g7 https://t.co/apjiWmPx1y</t>
+  </si>
+  <si>
+    <t>Teröristler #Afrin'i yakıp yıkarak kaçtı
+#ZeytinDalıHarekatı ile teröristlerden temizlenen #Afrin'de, YPG/PKK'dan geriye çok sayıda tahrip edilmiş yapı ve araçlar kaldı https://t.co/soAiS1Ajsu https://t.co/PQGTJnNBXD</t>
+  </si>
+  <si>
+    <t>Fetullahçı Terör Örgütü'ne yönelik #Bartın merkezli operasyonda 9 muvazzaf asker gözaltına alındı https://t.co/Pigks7zelZ https://t.co/O8dObszBVP</t>
+  </si>
+  <si>
+    <t>#İspanya'da ETA üyesini anma törenine katılanlara gözaltı https://t.co/mfrNoLcY9u https://t.co/Aoxv75ITRR</t>
+  </si>
+  <si>
+    <t>Gazzeli basketçi kadınlar
+Filistinli kadınlar, Gazze'deki tekerlekli sandalye basketbol takımlarında oynayarak "engellere" meydan okuyor https://t.co/ZV5iy2pMq4 https://t.co/qSat2ILbWu</t>
+  </si>
+  <si>
+    <t>❝Eşimle çocuk yapma hayalimiz vardı. Çocuk yapma hayalimizi elimizden aldılar❞
+Fetullahçı Terör Örgütü'nün darbe girişiminde 15 Temmuz Şehitler Köprüsü'nde şehit düşen Yılmaz Ercan’ın eşinden duygulandıran ifade https://t.co/zeIlyDLgpx https://t.co/uyQokdpiWE</t>
+  </si>
+  <si>
+    <t>Bin Selman'ın iktidar hırsı ve hanedanın geleceği
+[Görüş] Samuel Ramani, Suudi Arabistan'ın geleceği hakkında değerlendirmelerde bulundu https://t.co/PU1KUxt3eh https://t.co/KroGJEVVv1</t>
+  </si>
+  <si>
+    <t>ABD'de bir bombalı paket daha patladı https://t.co/qy4TlGKzdI https://t.co/jbbHN0lCJd</t>
+  </si>
+  <si>
+    <t>#BosnaHersek'te sel: Çok sayıda ev ve iş yeri hasar gördü https://t.co/dwaC3ZaczF https://t.co/XC8WpPvK7H</t>
+  </si>
+  <si>
+    <t>Deniz Baykal, tedavisinin tamamlandığı Münih'ten Sağlık Bakanlığına ait ambulans uçakla Ankara'ya getirildi 
+Baykal'ın tedavisine Gülhane Eğitim ve Araştırma Hastanesi'nde bir süre daha devam edilecek https://t.co/OLY0LcjxLN https://t.co/0r5Br8n35c</t>
+  </si>
+  <si>
+    <t>Yunan mahkemesinden izinsiz #Yunanistan'a geçen Türk vatandaşına hapis cezası https://t.co/8sgxpMINgV https://t.co/eYtwxraDK2</t>
+  </si>
+  <si>
+    <t>❝#Rusya'ya ait SU 24 tipi savaş uçağı iki hava saldırısı düzenledi❞
+#İdlib'deki sığınmacı kampına yönelik hava saldırısında 10 sivil hayatını kaybetti https://t.co/uYPkshBUoW https://t.co/pmysvHgYKr</t>
+  </si>
+  <si>
+    <t>NATO, TSK'nın başvurusu üzerine Yunan gazetesindeki haberi tekzip etti https://t.co/0L3uWrJwaa https://t.co/PtOny41MCa</t>
+  </si>
+  <si>
+    <t>❝Hava Harp Okulu öğrencileri gelmeden önce bize saniyede 100 kurşun atılıyorsa, öğrenciler geldikten sonra bu sayı saniyede 200'e çıktı❞
+FETÖ'nün darbe girişimi sırasında 15 Temmuz Şehitler Köprüsü'ndeki olaylara ilişkin dava sürüyor https://t.co/Yo9bjIi3bh https://t.co/fkXqlE5cX4</t>
+  </si>
+  <si>
+    <t>Yaşlı nüfus 241 milyona ulaştı
+Dünyanın en kalabalık ülkesi #Çin hızla yaşlanıyor https://t.co/YO674Q1fjW https://t.co/02OZJBnfD5</t>
+  </si>
+  <si>
+    <t>❝#ZeytinDalıHarekatı hedefe ulaşılana kadar devam edecek❞
+Dışişleri Bakanı Çavuşoğlu, #Fransa'nın önde gelen gazetelerinden Le Monde'a makale yazdı https://t.co/E89sUKfWn7 https://t.co/dkg71AotwO</t>
+  </si>
+  <si>
+    <t>❝Üniversitelerin teröristlerden temizlenmesini istiyoruz❞
+Boğaziçi Üniversitesi öğrencilerinden #Afrin açıklaması https://t.co/0lLz4HJmtW https://t.co/B6aqckvGkA</t>
+  </si>
+  <si>
+    <t>Fetullahçı Terör Örgütü'nün darbe girişimi sırasında şehit olan Prof. Dr. İlhan Varank'ın ailesi tüm sanıklardan şikayetçi oldu https://t.co/aOBZk5zu7o https://t.co/7GBmQAqZIH</t>
+  </si>
+  <si>
+    <t>60 saniyede bugün https://t.co/UGeKNP8DdC https://t.co/nwVjmFKhbY</t>
+  </si>
+  <si>
+    <t>Benzine 15 kuruş zam https://t.co/MS8PUVaQZ8 https://t.co/LVaMtLEdvD</t>
+  </si>
+  <si>
+    <t>#Çin'in küresel ticarette 'deniz' hamlesi https://t.co/K5uWex6cwZ https://t.co/eEW3bMObnT</t>
+  </si>
+  <si>
+    <t>#CumhurbaşkanıErdoğan: Türkiye, zirveye ulaşana kadar durmayacaktır https://t.co/VoBQm67vb5 https://t.co/vvFrHmJuFN</t>
+  </si>
+  <si>
+    <t>❝ABD'de radikal güç ve acımasızlık öne çıkacak❞
+ANKA Enstitüsü Yönetim Kurulu Başkanı Prof. Dr. Sencer İmer, ABD Başkanı Trump'ın, Pompeo ve Haspel'i atamasını AA muhabirine değerlendirdi https://t.co/B5EBMDEHUW https://t.co/3HSBYePvDH</t>
+  </si>
+  <si>
+    <t>❝Türk askerini görünce kurban kestik❞
+Afrinliler, Türk askerini görünce mutluluklarını göstermek için iki kurban kestiklerini söyledi https://t.co/rpSc8MWqWe https://t.co/hSLQSw2PjS</t>
+  </si>
+  <si>
+    <t>Çerkez kültürünü heykellerle geleceğe taşıyor
+#Sinop'ta yaşayan heykel sanatçısı Eşref Baş, Çerkez kültüründe bulunan motiflerle yaptığı heykel ve heykelciklerle, bu kültürün unutulmaması ve gelecek kuşaklara aktarılması için mücadele veriyor https://t.co/qeWGeap7A4 https://t.co/R7HmA3mTw9</t>
+  </si>
+  <si>
+    <t>ABD'li papaz ile FETÖ ve PKK'nın hedef birlikteliği iddianamede https://t.co/UJtiEA7nuP https://t.co/teXAjUbXLX</t>
+  </si>
+  <si>
+    <t>#CumhurbaşkanıErdoğan: Birlikte teröristleri temizleyelim' dediğimizde neredeydiniz https://t.co/bk26flJeJm https://t.co/69lbKMi28i</t>
+  </si>
+  <si>
+    <t>Minik kızın 'tek kişilik' koruyucu ailesi oldu https://t.co/Aix7Fyln9C https://t.co/cLXSJPq5VI</t>
+  </si>
+  <si>
+    <t>Dışişleri Bakanı Çavuşoğlu: #Afrin'de insanlık dışı muameleye müsaade etmeyiz https://t.co/bNOagtg5vG https://t.co/YyuK2XWpAp</t>
+  </si>
+  <si>
+    <t>THY'den yurt içi bilet kampanyası https://t.co/CFnHHSL9Nt https://t.co/uRccCLynef</t>
+  </si>
+  <si>
+    <t>Suriyeli bebek Türkiye'de yaşama tutundu 
+Bombadan yaralanan Suriyeli bebek Türkiye'de yaşama tutundu https://t.co/y4RZTrihfW https://t.co/4CBX74Ef4c</t>
+  </si>
+  <si>
+    <t>❝Darphane Reşat altın basımına başlamalı❞
+AA Finans Analisti Memiş, Türk toplumunun hediyeleşmek için tercih ettiği altında talebin devam ettiğini söyledi https://t.co/VPufp0A7DW https://t.co/EAOctHYf2B</t>
+  </si>
+  <si>
+    <t>Ekonomi Bakanı Zeybekci'den ihracatçıya 'https://t.co/r9eYSRxE8u' çağrısı https://t.co/7PJBeitSt8 https://t.co/kREPYEiOyQ</t>
+  </si>
+  <si>
+    <t>RT @AACanli: #Canlı: #CumhurbaşkanıErdoğan, 101 yerleşim yerine doğalgaz dağıtım töreninde konuşuyor https://t.co/ChKSDiD42p</t>
+  </si>
+  <si>
+    <t>Karadeniz'in 'gönülleri yaşlanmayan' nine ve dedeleri https://t.co/Q95Xac2M5Q https://t.co/6l97KJnMRA</t>
+  </si>
+  <si>
+    <t>Turkish Cargo 1,5 milyon canlı çipurayı Umman'a taşıdı https://t.co/2xFk6N57U0 https://t.co/xhqQQyPDdL</t>
+  </si>
+  <si>
+    <t>RT @AACanli: Dışişleri Bakanı Çavuşoğlu, ABD Dışişleri Bakanlığı'na atanan Mike Pompeo ile ABD Kongresi'ndeki onay sürecinden sonra görüşec…</t>
+  </si>
+  <si>
+    <t>❝Türk askerini görünce kurban kestik❞
+Afrinliler, Türk askerini görünce mutluluklarını göstermek için iki kurban kestiklerini söyledi https://t.co/i9mrWPGqhM https://t.co/fsRdwRjYeI</t>
+  </si>
+  <si>
+    <t>Cumhurbaşkanı Erdoğan'dan 'Dünya Nevruz Günü' mesajı https://t.co/MYeZK0WEb5 https://t.co/mJEPJcJWvc</t>
+  </si>
+  <si>
+    <t>Kendi kumanyasını paylaştı
+Mehmetçik #Afrin'de çocukları sevindirdi https://t.co/w0VqchL0L1 https://t.co/Gk5fWQgJ44</t>
+  </si>
+  <si>
+    <t>'Her 100 kilometreye bir havalimanı' için son viraj https://t.co/sbAiOIrmKj https://t.co/ECoCM4KzCT</t>
+  </si>
+  <si>
+    <t>RT @AACanli: TSK: "Şanlıurfa Ceylanpınar’da Hudut Karakol Komutanlığına silahlı ve roketli saldırıda bulunan 23 terörist etkisiz hale getir…</t>
+  </si>
+  <si>
+    <t>#Afrin'de yerel meclis kurulacak https://t.co/4A2PEiGeJ5 https://t.co/algqQs87MZ</t>
+  </si>
+  <si>
+    <t>YKS başvuruları yarın sona erecek https://t.co/xw517RLjDs https://t.co/Bp2qkP8Jj5</t>
+  </si>
+  <si>
+    <t>Dışişleri Bakanlığından Uluslararası Kızılhaç Komitesine tepki https://t.co/x2sX6ILa8o https://t.co/5amOhPtdk6</t>
+  </si>
+  <si>
+    <t>Kapana yakalanan ayı kurtarıldı, ardından tedavi uygulandı. https://t.co/vz7qZKOIy4</t>
+  </si>
+  <si>
+    <t>#CumhurbaşkanıErdoğan: Birlikte teröristleri temizleyelim' dediğimizde neredeydiniz https://t.co/bk26flJeJm https://t.co/kmm7m10Weo</t>
+  </si>
+  <si>
+    <t>Sivillerin kullandığı binalarda tek kurşun izi dahi yok
+Sivil hassasiyeti #Afrin’deki binalarda kendini gösterdi https://t.co/56YBjiPEop https://t.co/aHgT3vn5Km</t>
+  </si>
+  <si>
+    <t>#Afrin'de bomba ile tuzaklanmış araç imha edildi https://t.co/2kWTgHguCc https://t.co/0o4IQl5sVf</t>
+  </si>
+  <si>
+    <t>❝Türk askerini görünce kurban kestik❞
+#Afrin'de yaşayan 60 yaşındaki Melek Salih, teröristlerin ilçede olduğu süreçte büyük sıkıntılar yaşadıklarını söyledi https://t.co/WqmDO43zHZ https://t.co/NvY7PqCHA3</t>
+  </si>
+  <si>
+    <t>TAEK'ten 'nükleer madde' açıklaması https://t.co/46WVSjBZIE https://t.co/hQB6HR3EBR</t>
+  </si>
+  <si>
+    <t>RT @AACanli: #CumhurbaşkanıErdoğan: Çatlasanız da patlasanız da Türkiye'yi durduramayacaksınız. 2023 hedeflerimize engel olamayacaksınız. O…</t>
+  </si>
+  <si>
+    <t>RT @AACanli: #CumhurbaşkanıErdoğan: Eğer bizimle stratejik ortaksan bize saygı duyacaksınız, bizimle beraber yürüyeceksiniz. Bir de bizi al…</t>
+  </si>
+  <si>
+    <t>RT @AACanli: #CumhurbaşkanıErdoğan: Etkisiz hale getirilen terörist sayısı 3647'ye yükseldi.</t>
+  </si>
+  <si>
+    <t>RT @AACanli: #Canlı: #CumhurbaşkanıErdoğan, AK Parti Grup Toplantısı'nda konuşuyor https://t.co/DnKCDCmibX</t>
+  </si>
+  <si>
+    <t>Kaynak Holding'in FETÖ yöneticilerine ilk dava https://t.co/WPGPzd7SqF https://t.co/c3vcXK9gUS</t>
+  </si>
+  <si>
+    <t>RT @AACanli: Hasan Celal Güzel için TBMM'de tören düzenleniyor https://t.co/yoafnxlFG4</t>
+  </si>
+  <si>
+    <t>#CumhurbaşkanıErdoğan: Bir gece ansızın #Sincar'a da girer, oradaki PKK'lıları da temizleriz https://t.co/TjM9kmWhXE https://t.co/y427rI3c2A</t>
+  </si>
+  <si>
+    <t>#ZeytinDalıHarekatı'nın 58 günü https://t.co/ViaFnbXlk6 https://t.co/5Uvzo2vsw5</t>
+  </si>
+  <si>
+    <t>Afrin'in kontrol altına alınmasına giden yol
+TSK ve ÖSO'nun terör örgütleri YPG/PKK ve DEAŞ'a karşı yürüttüğü harekatta #Afrin ilçe merkezi ve tüm beldeleri kontrol altına alındı #ZeytinDalıHarekatı https://t.co/wA7YsusEAe https://t.co/zDodLOkMNr</t>
+  </si>
+  <si>
+    <t>Türkiye ve dünya gündemi, lider programları ve uluslararası etkinlikler #Gündem sayfasında: https://t.co/evn8Q34CcO https://t.co/tIfDTUk9XP</t>
+  </si>
+  <si>
+    <t>#ABD Başkanı Trump'tan nevruz mesajında İran'a tepki https://t.co/tfufKwX8Hw https://t.co/ujrtK8kNA1</t>
+  </si>
+  <si>
+    <t>RT @AACanli: Başbakan Yardımcısı Bozdağ: Türkiye kınayıcının kınamasına bakmadan, kimseden de takdir beklemeden bildiği doğru yolda ilerlem…</t>
+  </si>
+  <si>
+    <t>RT @AACanli: Başbakan Yardımcısı Bozdağ: Türkiye sivillere zarar vermeden, yerleşim yerlerini yakıp yıkmadan bir askeri harekatı başarıyla…</t>
+  </si>
+  <si>
+    <t>RT @AACanli: Başbakan Yardımcısı Bozdağ: Zeytin Dalı Harekatı'nda sivillere zarar verilmemiş; su, gıda, ilaç ve benzeri ihtiyaçlara erişimi…</t>
+  </si>
+  <si>
+    <t>RT @AACanli: Başbakan Yardımcısı Bozdağ: Zeytin Dalı Harekatı masum sivillere veya Kürtlere karşı bir harekat değildir; terör örgütlerine k…</t>
+  </si>
+  <si>
+    <t>Hizmetli unvanlı şehit yakınları, gazi ve gazi yakınlarına yönelik genelge yayımlandı https://t.co/amyN7O6F9s https://t.co/B2bsSq4R15</t>
+  </si>
+  <si>
+    <t>Trump, bir ülkenin dijital para birimini yasakladı https://t.co/DieMN8ivxx https://t.co/6bdXaEwLMI</t>
+  </si>
+  <si>
+    <t>❝Üreticinin yüzünün güleceği bir üretim sezonuna gireceğiz❞
+'Dünya kayısı başkenti' beyaza büründü https://t.co/ErRHxTADe5 https://t.co/6j6j7gqyZb</t>
+  </si>
+  <si>
+    <t>Filistin Devlet Başkanı Abbas'tan ABD Büyükelçisi'ne 'ağır sözler' https://t.co/VG9kFp9fxN https://t.co/Jk9tlpQiY0</t>
+  </si>
+  <si>
+    <t>Öğrenen müşteriler para üstü almıyor
+'Simitçi abla'nın bir günlük geliri Mehmetçik'e https://t.co/FlpGSbolEv https://t.co/DctHwYA60L</t>
+  </si>
+  <si>
+    <t>Esed rejimi Doğu Guta'yı bombalamaya devam ediyor https://t.co/CrujfDpf6C https://t.co/PXuz5sERwa</t>
+  </si>
+  <si>
+    <t>AB'den Rusya'ya seçim eleştirisi https://t.co/oBlKo9FKsy https://t.co/1wo7i6qhrK</t>
+  </si>
+  <si>
+    <t>❝PKK bizi 3 gün susuz ve yemeksiz bıraktı❞
+Terör örgütü PYD/PKK'nın #Afrin'de kalmaya mahkum ettiği sivillerden Ebu Ahmet yaşadıklarını anlattı https://t.co/N51MulDfWc https://t.co/fUqQJjyNBn</t>
+  </si>
+  <si>
+    <t>❝#ZeytinDalıHarekatı, bir terörle mücadele harekatıdır❞
+Türkiye'den ABD'nin Afrin açıklamasına tepki https://t.co/hGXmvRpEuo https://t.co/IZrOEB7gvo</t>
+  </si>
+  <si>
+    <t>TÜBİTAK MAM'DAN ORGANİK PASİF BTEX ve VOC ÖRNEKLEYİCİ
+Dış Ortamdaki BTEX (Benzen-Toluen-Etil benzen-Ksilen) veya VOC (Uçucu Organik Bileşikler) Parametrelerinin Miktarlarını Belirleyen İlk ve Yerli Organik Pasif Örnekleyici Tüp
+#BTEX #VOC #ornekleyici #cevre #hava #tubitak #mam https://t.co/KOeXz3RJvT</t>
+  </si>
+  <si>
+    <t>Türkiye’de İlk YERLİ BACA GAZI İZLEME SİSTEMİ
+Çevre Şehircilik Bknlığı ve TÜBİTAK MAM ortak çalışmasıyla endüstriyel tesis bacalarının sürekli izlenmesni sağlayan ve yurtdışından temin edilen Baca Analizörü cihazının yerlisi üretildi. Yerli cihazla ülke bütçesine katkı sağlanacak https://t.co/JVqQuxvioW</t>
+  </si>
+  <si>
+    <t>TÜBİTAK MAM Türk Tersanelerinin "AR-GE MERKEZİ" Olmalıdır
+TÜBİTAK MAM Başkanı Prof. Dr. İbrahim Kılıçaslan, Gölcük Tersane Komutanı Sayın Tuğamiral Aydın Eken’i ziyaret etti. Gölcük Tersane  Komutanlığı ile TÜBİTAK MAM arasında gerçekleştirilebilecek işbirliği  konuları görüşüldü https://t.co/V7HV3Ql6tb</t>
+  </si>
+  <si>
+    <t>TÜBİTAK MARMARA Research Vessel is available for service at national and international R&amp;amp;D, engineering and infrastructure projects as part of cooperations with public and private institutions. https://t.co/2RIcgpvoxi</t>
+  </si>
+  <si>
+    <t>Üniversitelerimiz ile TÜBİTAK MAM İşbirliğine Devam Ediyor. Nitelikli ortak çalışmalar için MAM Bşk. Prof.Dr.İbrahim Kılıçaslan ile Yıldız Teknik Üni. Rektörü Prof.Dr.Bahri Şahin işbirliği protokolüne imza attı. Türkiye için kritik teknolojilerde uzmanların yetişmesi amaçlanıyor. https://t.co/zT2g0Ivpmj</t>
+  </si>
+  <si>
+    <t>Terör Mağduru Öğrencileri TÜBİTAK MAM’da Ağırladık. TÜBİTAK MAM Başkanı Prof.Dr.İbrahim Kılıçaslan,“Geleceğe Uçmak Projesi” kapsamında Doğu ve Güneydoğu Anadolu Bölgesindeki illerden gelen başarılı öğrencilerle buluştu, öğrencilere TÜBİTAK MAM’ın kapılarının açık olduğunu söyledi https://t.co/NXvI0TgNRK</t>
+  </si>
+  <si>
+    <t>Milli Yakma Sistemleri MAM-İZAYDAŞ Teknolojisiyle Oluşturulabilir. TÜBİTAK MAM Bşk. Prof. Dr. İbrahim Kılıçaslan İZAYDAŞ Gn. Md.Muhammet Saraç’ı ziyaret etti. MAM Enerji Enstitüsünün atık bertarafı, katı atık gazlaştırma, organik atıklardan elektrik üretimi çalışmaları aktarıldı. https://t.co/02aJkhaaex</t>
+  </si>
+  <si>
+    <t>TÜBİTAK MAM Başkanı Prof.Dr. İbrahim Kılıçaslan ile TCDD Genel Md. İsa Apaydın mevcut projelerin durumunu görüşerek işbirliklerini artırmak için biraraya geldi. TÜBİTAK MAM Enerji Enstitüsü ve Malzeme Enstitüsünün demiryollarında kullanılmakta olan milli ürünleri değerlendirildi. https://t.co/k9hJWSRuqx</t>
+  </si>
+  <si>
+    <t>Kocaeli Valisi Sn. Hüseyin Aksoy, ülkemizin en büyük Ar-Ge Kampüsü olan TÜBİTAK Gebze Yerleşkesini, TÜBİTAK MAM Başkanı Prof. Dr. İbrahim Kılıçaslan eşliğinde ziyaret etti. Kömürden sıvı yakıt üretim tesisi Trijen Pilot Tesisi ve Yüksek Sıcaklık Mükemmeliyet Merkezi incelendi. https://t.co/Hjbs0ERvao</t>
+  </si>
+  <si>
+    <t>TÜLOMSAŞ ve TÜBİTAK MAM İşbirliği Devam Ediyor. E-1000 ve E-5000 elektrikli lokomotif geliştirme projelerinde birlikte çalıştığımız proje ortağımız TÜLOMSAŞ Gn. Md. Hayri Avcı ve Ar-Ge Daire Bşk. İbrahim Erşahin, TÜBİTAK MAM Başkanı Prof. Dr. İbrahim Kılıçaslan’ı ziyaret etti. https://t.co/iHp47YR57q</t>
+  </si>
+  <si>
+    <t>https://t.co/FxXG6i9zFF</t>
+  </si>
+  <si>
+    <t>ASPİLSAN Genel Müdürü Tuğgeneral Ferhat Özsoy ve beraberindeki heyet TÜBİTAK MAM'ı ziyaret etti. Toplantıda lityum iyon batarya sistemleri başta olmak üzere pil ve hücre konusunda ülkemizdeki altyapılar, sektörün ihtiyaçları ve bunlara yönelik çözümler üzerinde görüşme yapıldı. https://t.co/7o8E8PZP75</t>
+  </si>
+  <si>
+    <t>TÜBİTAK MAM Mermer atıklarını ekonomiye kazandırıyor: 
+Bursa Eskişehir Bilecik Kalkınma Ajansı (@TCBEBKA) ve TÜBİTAK MAM iş birliğiyle düzenlenen “Mermer Atıklarının Değerlendirilmesi” konulu toplantı Bilecik’te yapıldı.
+https://t.co/ifBgpGcrl8 https://t.co/xeRqqb0rjn</t>
+  </si>
+  <si>
+    <t>https://t.co/8jgF8mJNgF</t>
+  </si>
+  <si>
+    <t>Türkiye’de bir İlk! Enzime dirençli nişasta üretimi başladı.
+Konya OSB'de Türkiye’nin ilk enzime dirençli nişasta tesisinin açılışı Bilim Sanayi Teknoloji Bakanı Faruk Özlü'nün katılımıyla yapıldı.
+Konya Valisi Yakup Canbolat obezite ve diyabet için önemli katkı olacağını söyledi https://t.co/bU5O65zsSR</t>
+  </si>
+  <si>
+    <t>RT @Dr_Faruk_Ozlu: Tübitak’ta geliştirilen ve diyabet hastalarının kullanımına uygun, “Enzime Dirençli Nişasta” üreten Demirpolat Grubu'nun…</t>
+  </si>
+  <si>
+    <t>PRO-METROFOOD Projesi Uluslararası Sempozyumuna katıldık.
+MAM Gıda Enstitümüzden Dr.Hayrettin Özer,Dr.Aytunga Arık Kibar“Gıda analiz lab.larında iç-dış kalite kontrol faal.”,“Gıdalarda otantisitenin belirlenmesinde etkin araç diferansiyel taramalı kalorimetri”eğitimlerini verdi. https://t.co/RZaARI6Xp9</t>
+  </si>
+  <si>
+    <t>Çevre ve Şehircilik Bakanlığı yürütücüğünde, TÜBİTAK MAM koordinasyonunda gerçekleştirilen 2017-2019 dönemi Denizlerde Bütünleşik Kirlilik İzleme İşi kapsamında DEN-İZ Marmara Denizi Çalıştayı düzenlendi. Çalıştaya kamu kuruluşları ve üniversitelerden 90’ın üzerinde uzman katıldı https://t.co/4rNn4VVMDC</t>
+  </si>
+  <si>
+    <t>RT @TubitakUlakbim: LibreOffice Geliştirici Sertifikasını Türkiye’de ilk alan, Pardus Projesi yazılım geliştiricisi olarak görev yapan Muha…</t>
+  </si>
+  <si>
+    <t>ÇAYKUR İle Yeni Proje Çalışmaları Başlıyor. TÜBİTAK MAM ve ÇAYKUR'un uzun yıllara dayanan işbirliği yeni projelerle ivme kazanıyor. ÇAYKUR Yön.Kur.Bşk. İmdat Sütlüoğlu ile fonksiyonel çay ürünleri ve Karadenizdeki çay üretim ekosistemine katkı sağlayacak yeni projeler görüşüldü. https://t.co/CPleYlm7Cm</t>
+  </si>
+  <si>
+    <t>TÜBİTAK MAM Yurdun Dört Bir Yanından Gelen Öğrencilere Bilim Sevgisi Aşılıyor.
+İzmit Muammer Dereli Fen Lisesi, Kartal Dil Koleji, İstek Özel Kaşgarlı Mahmut Anadolu Lisesi, MEB Biz Anadoluyuz Projesi kapsamında Ağrı'dan gelen öğrenciler bilim insanları ile buluşturuldu. https://t.co/XqOqCKoRQP</t>
+  </si>
+  <si>
+    <t>GÜRMOD Projesi Başarıyla Tamamlandı. Çevre ve Şehircilik Bakanlığı ve TÜBİTAK MAM işbirliğiyle Türkiye'de Kaynak Bazlı Gürültü Modellemesi için Envanter Altyapısının Oluşturulması Projesinde yerleşim alanlarında kaynak bazlı gürültü modellemesi için envanter altyapısı hazırlandı. https://t.co/cwxQ5sEeD5</t>
+  </si>
+  <si>
+    <t>RT @TUBA_TurkBlmAkd: 217 #TÜBAÖDÜLLERİ #CUMHURBAŞKANI ERDOĞAN TARAFINDAN SAHİPLERİNE TEVDİ EDİLDİ.Ödül Kazanan Bilim İnsanlarını Tebrik edi…</t>
+  </si>
+  <si>
+    <t>RT @Tubitak: TÜBİTAK SAGE’nin Geliştirdiği Kanatlı Güdüm Kiti’nin (KGK) seri üretimine başlandı!
+https://t.co/54r4ZYjTVA https://t.co/eD9a…</t>
+  </si>
+  <si>
+    <t>Doğu Marmara Kalkınma Ajansı TÜBİTAK MAM’ı Yakından İnceledi
+Doğu Marmara Kalkınma Ajansı (MARKA) Genel Sekreteri Dr. Mustafa Çöpoğlu ve beraberindeki MARKA heyetini TÜBİTAK MAM Başkanı Prof. Dr. İbrahim Kılıçaslan karşıladı. https://t.co/9QpC3UT9Wt</t>
+  </si>
+  <si>
+    <t>TÜBİTAK MAM’ın Obezite ve Diyabete Karşı Dirençli Nişasta’ya ait canlı yayın haberi
+https://t.co/TOqLgmawVC
+#helalexpo #obezite #diyabet #un #nişasta https://t.co/Is6HMca745</t>
+  </si>
+  <si>
+    <t>"TÜBİTAK MAM’ın Kapıları Sanayicimize Açık": OSTİM Yönetim Kurulu Başkanı Orhan Aydın, Yönetim Kurulu Üyeleri ve firma temsilcilerinden oluşan heyet sanayi ve TÜBİTAK işbirliği kapsamında TÜBİTAK MAM'ı ziyaret etti. https://t.co/8gP4ANXoYz</t>
+  </si>
+  <si>
+    <t>TÜBİTAK MAM Malzeme Enstitüsü tarafından yürütülen “Havacılık Teknolojileri Test ve Mükemmeliyet Merkezi Fizibilite Etüdü Projesi” kapsamında düzenlenen “Havacılık Teknolojileri Test Ve Mükemmeliyet Merkezi Fizibilite Etüdü Projesi Kapanış Çalıştayı” Ankara’da gerçekleştirildi. https://t.co/P94u9WsyoL</t>
+  </si>
+  <si>
+    <t>RT @TubitakKitaplar: Mersin CNR kitap fuarı başladı... Biz geldik, Mersinli kitapsever dostlarımızı da bekliyoruz. https://t.co/SpYxCycP5B</t>
+  </si>
+  <si>
+    <t>aHaber’de canlı yayınımız birazdan başlıyor... #HelalExpo #ahaber #tubitakmam #tubitak</t>
+  </si>
+  <si>
+    <t>Özellikle obezite ve diyabet hastalarını yakından ilgilendiren ve tüm tüketicilere yönelik yeni geliştirilen unlu mamuller bugün 14:00'de tüketicilere ikram edilecek. Lütfi Kırdar Kongre Sarayı, Rumeli Salonu B holünde yer alan standımıza bekleriz. #HelalExpo #tubitak</t>
+  </si>
+  <si>
+    <t>“TÜBİTAK MAM Ülkemizin Beslenme Alışkanlığını Değiştiriyor” 
+Obezite ve Diyabet hastalarını yakından ilgilendiren ve tüm tüketicilere yönelik yeni geliştirilen “ekmek” ve unlu mamuller bugün 14:00'de "Helal Expo 2017" TÜBİTAK MAM standında L.Kırdar'da tüketicilere ikram edilecek</t>
+  </si>
+  <si>
+    <t>TÜBİTAK MAM koordinatörlüğündeki Nanoteknoloji Kümelenmesi, savunma, havacılık, enerji, otomotiv, tekstil, sağlık, inşaat sektörlerinde katma değeri yükseltecek nanoteknolojik ürün üretimi konulu proje önerileri hazırladı.
+https://t.co/r5eZ1pttpn https://t.co/5TEqO0A85f</t>
+  </si>
+  <si>
+    <t>EÜAŞ Genel Müdür Danışmanları, Daire Başkanları, Şube Müdürleri ve teknik personelden oluşan bir heyet geleceğe dönük işbirliği çalışmaları planlamak üzere TÜBİTAK MAM’ı ziyaret etti.
+https://t.co/RWdcHbeP89 https://t.co/eFymyMTDbK</t>
+  </si>
+  <si>
+    <t>“3R ve 2D ve 3D Karaciğer, Deri, Göz ve Bağırsak Düzenleyici Modeller” Uluslararası Çalıştayı
+https://t.co/gJLwRLrMT4 https://t.co/VTqVUvxtA8</t>
+  </si>
+  <si>
+    <t>10 KASIM ATATÜRK’Ü ANMA TÖRENİ
+https://t.co/GcpS19Tju8 https://t.co/zjCrnhOSGE</t>
+  </si>
+  <si>
+    <t>Kültür ve Turizm Bakanlığı Yetkililerinin“TÜBİTAK Marmara Araştırma Gemisi”İle“Karbon-14 AMS Laboratuvarı” Ziyareti
+https://t.co/rGkL3yFfqi https://t.co/24iZ0dScfi</t>
+  </si>
+  <si>
+    <t>Güneş Pillerinin Ülkemizde Üretilebilmesine Yönelik Etüt Çalışmaları Proje Paneli
+https://t.co/ZQTxnRsJHu https://t.co/PRrRbdPv81</t>
+  </si>
+  <si>
+    <t>Denizlerimizin Kara Kökenli Kirleticilere Karşı Korunmasına Yönelik Ulusal Eylem Planının Güncellenmesi Projesi
+https://t.co/2Y17dnU6Za https://t.co/OKnG9nxCkB</t>
+  </si>
+  <si>
+    <t>İngiltere İstanbul Başkonsolosluğu'ndan TÜBİTAK MAM’a Ziyaret
+https://t.co/sFDojag8AV https://t.co/eFIJZ2CMVp</t>
+  </si>
+  <si>
+    <t>TAYSAD İşbirliğiyle TÜBİTAK MAM Bilgi Günü
+https://t.co/Y4fpBINAHr https://t.co/lPGs3lOjUu</t>
+  </si>
+  <si>
+    <t>Filistin HCIE İle TÜBİTAK MAM İşbirliği Görüşmeleri
+https://t.co/2ee50MhjWs https://t.co/fKDrbsHEoX</t>
+  </si>
+  <si>
+    <t>SANVER Proje Kapanış Toplantısı
+https://t.co/LBFdBuE0Ey https://t.co/e1bYc03Pfz</t>
+  </si>
+  <si>
+    <t>Kore-Türkiye Yenilenebilir Enerji Semineri
+https://t.co/Mg0gx7V8G1 https://t.co/7nH8W0t7tL</t>
+  </si>
+  <si>
+    <t>#BayramınızMübarekOlsun https://t.co/EDpn4eJQXT</t>
+  </si>
+  <si>
+    <t>TÜBİTAK MAM "86. İzmir Enternasyonal Fuarı"na Katıldı
+https://t.co/DqNwMxXSn3 https://t.co/2pBNviNjSO</t>
+  </si>
+  <si>
+    <t>Katar Heyeti Ziyareti
+https://t.co/lBh80RNA2r https://t.co/xkiAj2DwuH</t>
+  </si>
+  <si>
+    <t>TÜBİTAK MAM Yönetiminden Kocaeli Valisi Hüseyin Aksoy’a Hayırlı Olsun Ziyareti
+https://t.co/r1cbuc1MSr https://t.co/9ufL7W0IGa</t>
+  </si>
+  <si>
+    <t>@lipiindonesia 
+https://t.co/mdxZQ4LOE3 https://t.co/4odt698jZR</t>
+  </si>
+  <si>
+    <t>https://t.co/pqYzBVqwGX</t>
+  </si>
+  <si>
+    <t>R/V TÜBİTAK Marmara Araştırma Gemisi 3 Denizi Dolaştı
+https://t.co/3SqzxU0ESP https://t.co/uh8dxmZzU0</t>
+  </si>
+  <si>
+    <t>''Malzeme Enstitüsü Sualtı Akustik Laboratuvarı'' Bünyesinde
+Yapılan Ölçümler İçin: https://t.co/vYmmxANQS9 https://t.co/rfmSLIy1sP</t>
+  </si>
+  <si>
+    <t>“Sağlık Kuruluşlarından Kaynaklanan Atıksuların Arıtımı ve Bertarafı Projesi” Çalıştayı
+https://t.co/RWCsudWm1B https://t.co/zWkG25hlT6</t>
+  </si>
+  <si>
+    <t>Yer ve Deniz Bilimleri Enstitüsü bünyesinde sunulan “Karbon 14 İle Yaş Tayini Ölçümleri” hakkında bilgi için
+https://t.co/vYmmxANQS9 https://t.co/zv8cimfrQR</t>
+  </si>
+  <si>
+    <t>TÜBİTAK MAM “39. Uluslararası Kazı, Araştırma ve Arkeometri Sempozyumu”na katıldı
+https://t.co/z3FDSixF0a https://t.co/5Foqu64Ec8</t>
+  </si>
+  <si>
+    <t>Avrupa-Akdeniz İşbirliğini Araştırma ve İnovasyon Aracılığıyla Güçlendirme Bakanlar Konferansı – PRIMA Initiative
+https://t.co/DZJnDS1ahw https://t.co/usgBs49kAB</t>
+  </si>
+  <si>
+    <t>“TÜBİTAK MAM 2016 YILI ARAŞTIRMA VE DESTEK ÖDÜLLERİ TÖRENİ”
+https://t.co/sVehf4ByGt https://t.co/dMyATQTssn</t>
+  </si>
+  <si>
+    <t>Kocaeli Kamu Hastaneleri Genel Sekreteri Dr. Şenol Ergüney Gen Mühendisliği ve Biyoteknoloji Enstitüsünü ziyaret etti. https://t.co/tTQXr2lTbv</t>
+  </si>
+  <si>
+    <t>En Başarılı Araştırma Ekibi Ödülü Malzeme Enstitüsünden KBRN Sensör Teknolojileri Proje Grubunun oldu https://t.co/IPDNd72H8F</t>
+  </si>
+  <si>
+    <t>İnovasyon Ödülü Enerji Enstitüsünden Elektrikli Araçlar için Bor Temelli Yakıt Pil Menzil Artırıcı Projesi Ekibinin oldu. https://t.co/SJMrHj1Wml</t>
+  </si>
+  <si>
+    <t>TÜBİTAK MAM 2016 Yılı Araştırma ve Destek Ödül Töreninde Patent Alan Buluş Sahiplerine Teşekkür Belgeleri verildi. https://t.co/Onc8sKZ3Oo</t>
+  </si>
+  <si>
+    <t>TÜBİTAK MAM 2016 Yılı Araştırma ve Destek Ödül Töreni Başkan Vekili Dr. Orkun Hasekioğlu'nun açılış konuşması ile başladı. https://t.co/5ONzYm4nvG</t>
+  </si>
+  <si>
+    <t>“Tunçbilek Lavvarı Şlam Atıklarının Tuğla ve Çimento Üretiminde Hammadde Olarak Değerlendirilmesi”
+https://t.co/jjtKTttTqA https://t.co/P3khjhbd26</t>
+  </si>
+  <si>
+    <t>TÜBİTAK MAM “HERITAGE İSTANBUL 2017” FUARINA KATILDI
+https://t.co/f1r9yZ8okd https://t.co/PxMWQVPxZ6</t>
+  </si>
+  <si>
+    <t>TÜBİTAK MAM IDEF 2017'DE
+https://t.co/8L8MTkiICf https://t.co/bOpIme6ROx</t>
+  </si>
+  <si>
+    <t>TÜBİTAK MAM ME Sualtı Çalışmaları ve MİLGEM 5-8 DSH Sonar Sistemi Bilgilendirme ve Tanıtım Toplantısı
+https://t.co/rZd2HkBSMI https://t.co/yR5AJx1jpM</t>
+  </si>
+  <si>
+    <t>“HTTMM-Havacılık Sanayii Sertifikasyon, Test Altyapı ve İhtiyaçlarını Belirleme Çalıştayı”
+https://t.co/wctoZqIhAO https://t.co/Uwpx6JJcPG</t>
+  </si>
+  <si>
+    <t>TÜBİTAK MAM “Expo Turkey By Qatar” Fuarına Katıldı
+https://t.co/XxXs1ClWY1 https://t.co/5CCVzasv5A</t>
+  </si>
+  <si>
+    <t>TÜBİTAK Marmara Araştırma Merkezi’nde “Dünya Fikri Mülkiyet Günü” Düzenlendi
+https://t.co/T1PsjvRFPH https://t.co/jyZ0hU5J5d</t>
+  </si>
+  <si>
+    <t>Mendeley ve SciVal Eğitimi
+https://t.co/IJRflhXZaa https://t.co/1Ig8TH8KsR</t>
+  </si>
+  <si>
+    <t>2017-2019 dönemi Denizlerde Bütünleşik Kirlilik İzleme Projesi
+https://t.co/1j4aLc6KAw https://t.co/blEeylWvbs</t>
+  </si>
+  <si>
+    <t>TÜBİTAK MAM Gen Mühendisliği ve Biyoteknoloji Enstitüsü “Elginkan Vakfı Teknoloji Ödülü”nün sahibi oldu.
+https://t.co/nrvloDt43P https://t.co/uzoclharG5</t>
+  </si>
+  <si>
+    <t>Slovakya Cumhuriyeti İstanbul Başkonsolosluğundan MAM’a ziyaret
+https://t.co/bNYhFi3LeJ https://t.co/AkXIALtOFW</t>
+  </si>
+  <si>
+    <t>ROKETSAN A.Ş. ve TÜBİTAK MAM İşbirliği
+https://t.co/3Xks0ukbCV https://t.co/bpP72k4R9k</t>
+  </si>
+  <si>
+    <t>TÜBİTAK MAM Enerji Enstitüsü Tarafından Geliştirilen  TEİAŞ Yük Tevzi Bilgi Sistemi 4 Yaşında
+https://t.co/NCLSDUGViC https://t.co/VROiAHGzsy</t>
+  </si>
+  <si>
+    <t>Gebze Teknik Üniversitesi Rektöründen TÜBİTAK MAM’a ziyaret
+https://t.co/8CglevLKRI https://t.co/HFkKcgJPRx</t>
+  </si>
+  <si>
+    <t>I. Ulusal Deniz İzleme ve Değerlendirme Sempozyumu 
+https://t.co/8ynI86qitN https://t.co/ttQ0ggXJUf</t>
+  </si>
+  <si>
+    <t>KSO’dan TÜBİTAK MAM Malzeme Enstitüsüne Ziyaret
+https://t.co/jq9p6BUNTC https://t.co/3gHiid8Iio</t>
+  </si>
+  <si>
+    <t>Kimyasal Teknoloji Enstitüsü Yöneticilerinin İKMİB Ziyareti https://t.co/wgHyiMDglw</t>
+  </si>
+  <si>
+    <t>T.C. Toprak Mahsulleri Ofisi Genel Müdürlük Heyeti TÜBİTAK Marmara Araştırma Merkezinde
+https://t.co/wDvWVMEwAP https://t.co/ufo30prHlX</t>
+  </si>
+  <si>
+    <t>TÜBİTAK MAM Kimyasal Teknoloji Enstitüsü ve GEBKİM işbirliğiyle Kimyasal Teknoloji Günleri yapıldı
+https://t.co/mKjjPv1JBF https://t.co/6nwne0I4uA</t>
+  </si>
+  <si>
+    <t>KAMUOYUNA DUYURU
+https://t.co/T5qxRHW7Qp</t>
+  </si>
+  <si>
+    <t>İran Tebriz Eyalet Tarım Biyoteknoloji Merkezi’nden TÜBİTAK MAM’a Ziyaret
+https://t.co/PYi1dLO4Ds https://t.co/ZU5wcP2Ht3</t>
+  </si>
+  <si>
+    <t>Hollanda Kraliyeti İstanbul Başkonsolosluğu ile Toplantı
+https://t.co/U4gNrvIrgL https://t.co/9FqJuo13Ol</t>
+  </si>
+  <si>
+    <t>Denizlerimizin Kara Kökenli Kirleticilere Karşı Korunmasına Yönelik Ulusal Eylem Planının Güncellenmesi Projesi 
+https://t.co/xkTu6bXT0N https://t.co/KvTVGC8ZsO</t>
+  </si>
+  <si>
+    <t>Daha İyi Bir Gelecek İçin Akıllı Hareketliliğe Odaklandık https://t.co/RAEIwqfpRF</t>
+  </si>
+  <si>
+    <t>DSİ Genel Müdürlüğü ve TÜBİTAK MAM Arasında ATHOM Projesi İmzalandı
+https://t.co/R2fXlCwbkR</t>
+  </si>
+  <si>
+    <t>TÜBİTAK MAM Enstitüleri UFUK 2020 Yol Haritası Çalıştayı
+https://t.co/6qaFZ1guJH https://t.co/5R5lKTT6gF</t>
+  </si>
+  <si>
+    <t>Karbon 14 ile yaş tayini için el sıkıştılar
+https://t.co/QBumrlAavj https://t.co/j7nC3gYRT7</t>
+  </si>
+  <si>
+    <t>Fotonik Teknolojiler Grubu tarafından düzenlenen “Organik Elektronik Çalıştayı” TÜBİTAK MAM’da gerçekleştirildi.
+https://t.co/kKRncw9M3L https://t.co/rsEyYNte6s</t>
+  </si>
+  <si>
+    <t>2015 Yılı Ar-Ge Faaliyetleri Anketi Sonuçları Açıklandı
+https://t.co/LSYOgHNYB8</t>
+  </si>
+  <si>
+    <t>20. IBF Forumu, MÜSİAD EXPO ile Eş Zamanlı Olarak Gerçekleştirildi 
+https://t.co/KloChlFcji</t>
+  </si>
+  <si>
+    <t>TÜBİTAK MAM 16. MÜSİAD EXPO 3. High Tech Port Fuarına Katıldı
+https://t.co/HafOwd8tUk</t>
+  </si>
+  <si>
+    <t>“Atık pillerin bertarafı ve geri kazanım teknolojilerinin geliştirilmesi” projesi kapanış toplantısı
+https://t.co/iLEam3Q2ml</t>
+  </si>
+  <si>
+    <t>“Sulardaki Organik Kirleticilerin Twister GC-MS/MS ile Analizleri” Semineri
+https://t.co/vVzAoJnpsy https://t.co/FP5KgLkFCb</t>
+  </si>
+  <si>
+    <t>TÜBİTAK MAM'dan şeker ve kalp hastalığı riskini azaltan yeni bir gıda katkı maddesi
+https://t.co/isGpywPLps https://t.co/Sk54vTLfy3</t>
+  </si>
+  <si>
+    <t>“Nükleer Araştırma Reaktörleriyle, Temel Bilimler, Teknik Ve Teknolojik Konularında Uygulamalar” konulu seminer
+https://t.co/ftm4oorVHS https://t.co/19FXDRnYDa</t>
+  </si>
+  <si>
+    <t>Kayseri İl Gıda,Tarım ve Hayvancılık Müdürlüğü ile Ar-Ge İşbirliği Çalıştayı
+https://t.co/MCoqgZsLfn https://t.co/dNvCJ01Z9h</t>
+  </si>
+  <si>
+    <t>‘’Kıyı Yerleşimlerinde Su Yönetimi” Konulu Uluslararası Yaz Okulu
+https://t.co/nmScFJtXPX https://t.co/RzS6fCxwTn</t>
+  </si>
+  <si>
+    <t>Denizlerimizin Kara Kökenli Kirleticilere Karşı Korunmasına Yönelik Ulusal Eylem Planının Güncellenmesi https://t.co/gNcnod0DLt https://t.co/UtgmQLyudQ</t>
+  </si>
+  <si>
+    <t>"Türkiye'de Havza Bazında Hassas Alanların ve Su Kalitesi Hedeflerinin Belirlenmesi Projesi" kapanış toplantısı https://t.co/LOYweuTxE8 https://t.co/1vLOmax0ZW</t>
+  </si>
+  <si>
+    <t>Sanayide Temiz Üretim Olanaklarının ve Uygulanabilirliğinin Belirlenmesi (SANTEM) Projesi Çalıştayı https://t.co/ZyUEwZiUnk</t>
+  </si>
+  <si>
+    <t>TÜBİTAK MARMARA ARAŞTIRMA MERKEZİ
+ÇEVRE
+VE TEMİZ ÜRETİM ENSTİTÜSÜ https://t.co/DbNitpK7Co</t>
+  </si>
+  <si>
+    <t>Seramik Sektörü Strateji Belgesi ve Eylem Planı Çalıştayı yapıldı
+https://t.co/84T9w8H7hw https://t.co/riXaW4E6Qn</t>
+  </si>
+  <si>
+    <t>İSKİ Genel Müdürlüğü'nün R/V TÜBİTAK MAM MARMARA Araştırma Gemisi Ziyareti | TÜBİTAK MARMARA ARAŞTIRMA MERKEZİ https://t.co/OH4foq0Slb</t>
+  </si>
+  <si>
+    <t>TÜBİTAK Marmara Araştırma Merkezi Başkanı Doç. Dr. Bahadır Tunaboylu'nun Kurban Bayramı Mesajı https://t.co/yIzPPTWEYe</t>
+  </si>
+  <si>
+    <t>17. Kimya Teknik Komitesi Toplantısı Yapıldı | TÜBİTAK MARMARA ARAŞTIRMA MERKEZİ https://t.co/J1NHwxZStB</t>
+  </si>
+  <si>
+    <t>TÜBİTAK Marmara Araştırma Gemisi Çanakkale Boğazında Mavi Adım Eğitimi Verdi | MARMARA ARAŞTIRMA MERKEZİ https://t.co/n32gD7y4rY</t>
+  </si>
+  <si>
+    <t>TÜBİTAK BASIN AÇIKLAMASI
+https://t.co/R7ad8e9A6G https://t.co/Pp0YQFibNe</t>
+  </si>
+  <si>
+    <t>TÜRKİYE BİLİMSEL VE TEKNOLOJİK ARAŞTIRMA KURUMU BİLİM KURULU DEMOKRASİ BİLDİRİSİ |  https://t.co/1uA66srpG6</t>
+  </si>
+  <si>
+    <t>C14 Yaş Tayini Testlerine Başlandı
+https://t.co/n6IrWZuDbX https://t.co/YqExIRxctM</t>
+  </si>
+  <si>
+    <t>Nükleer Teknolojinin Tarım, Tıp ve Tahribatsız Muayene Alanlarındaki Uygulamaları ve Nükleer Güvenlik Düzenlemeleri https://t.co/Jj9kB8eWsm</t>
+  </si>
+  <si>
+    <t>Ruanda Büyükelçisi ile Ticari Ateşesi TÜBİTAK MAM’ı ziyaret etti.
+https://t.co/bZjQeqGskb https://t.co/sPEeSmVBpa</t>
+  </si>
+  <si>
+    <t>EMBL-Avrupa Moleküler Biyoloji Laboratuvarı ile İşbirliği Olasılıkları Görüşüldü
+https://t.co/15FNoTMaaL https://t.co/O7dDXpWg5V</t>
+  </si>
+  <si>
+    <t>FP7-NutraHEALTH Projesi “Benim Avrupalı Kentim” Belgeselinde Yayınlandı
+https://t.co/xPgvZXhOMw https://t.co/l0ShMitKIu</t>
+  </si>
+  <si>
+    <t>TEB KOBİ TV ile TÜBİTAK MAM Malzeme Enstitüsünün geliştirdiği fotovoltaik güneş paneli
+https://t.co/uHXfrLlyv3 https://t.co/HBLEHyjOiN</t>
+  </si>
+  <si>
+    <t>TuR&amp;amp;Bo Heyetinin TÜBİTAK MAM Ziyareti
+https://t.co/B8N5LkcFKJ https://t.co/jVMpCdlNJB</t>
+  </si>
+  <si>
+    <t>Bilim, Sanayi ve Teknoloji Bakanı Faruk Özlü TÜBİTAK MAM’da incelemelerde bulundu.
+https://t.co/ROrBFQsf8h https://t.co/zorwZRJkz9</t>
+  </si>
+  <si>
+    <t>TÜBİTAK MAM 2015 Yılı Araştırma ve Destek Ödülleri Töreni yapıldı | MARMARA ARAŞTIRMA MERKEZİ https://t.co/kMLbwKhwbs</t>
+  </si>
+  <si>
+    <t>“Havacılık Teknolojileri Test ve Mükemmeliyet Merkezi Fizibilite Etüdü Projesi” İmza Töreni | https://t.co/3PYgW4KAvR</t>
+  </si>
+  <si>
+    <t>Santa Farma İlaç Sanayi A.Ş.’ne Ziyaret | MARMARA ARAŞTIRMA MERKEZİ https://t.co/Jc0WZBeOcF</t>
+  </si>
+  <si>
+    <t>Japonya Dış Ticaret Teşkilatı JETRO Heyeti TÜBİTAK MAM’da
+https://t.co/awRi9k7SWx https://t.co/l5jFj26nhj</t>
+  </si>
+  <si>
+    <t>Bilim, Sanayi ve Teknoloji Bakanı Fikri Işık ile Sağlık Bakanı Dr.Mehmet Müezzinoğlu’ndan Santa Farma İlaç'a Ziyaret https://t.co/Jqz9z9lz4v</t>
+  </si>
+  <si>
+    <t>TÜBİTAK MAM “BAHRİYE HAFTASI”na TÜBİTAK MARMARA Araştırma Gemisi ile Katıldı
+https://t.co/rIoGcUm5Dy https://t.co/liVcWbJ3Mi</t>
+  </si>
+  <si>
+    <t>1 dug 100km into the Earth on http://t.co/Ji9HkSxAXG #MrMine</t>
+  </si>
+  <si>
+    <t>“Allâhü Teâlâ’ya -içinde kendisine ibadet olunan- en sevimli günler Zilhicce’nin (ilk) on günüdür. Her bir gü...</t>
+  </si>
+  <si>
+    <t>15/08/2012 - Ülkü Adatepe,Atatürk'ün manevi kızı hayatını kaybetti (d. 1932). http://t.co/Wnx8bmn483</t>
+  </si>
+  <si>
+    <t>15/18/1976 - Hasan Şaş, Türk futbolcu dünyaya geldi. http://t.co/JY5jqQzx0n</t>
+  </si>
+  <si>
+    <t>1969 - Altıncı Filo’yu protesto amaçlı mitinge saldırı sonucu çıkan olaylarda iki genç öldü, 200 kişi yaralandı. http://t.co/LsAAn1AOLS</t>
+  </si>
+  <si>
+    <t>1971 - TÜSİAD kuruldu. http://t.co/DYHiimlr8R</t>
+  </si>
+  <si>
+    <t>1950 - Türkiye NATO’ya başvurdu. http://t.co/3JySezLHX9</t>
+  </si>
+  <si>
+    <t>1571 - Lala Mustafa Paşa Venedik Cumhuriyetine ait Kıbrıs adasını feth etti.</t>
+  </si>
+  <si>
+    <t>14/08/1974 - Nihat Sami Banarlı, Türk edebiyat tarihçisi hayatını kaybetti (d. 1907). http://t.co/Gw1g8WIniV</t>
+  </si>
+  <si>
+    <t>14/08/1987 - Sinem Kobal, Türk oyuncu dünyaya geldi. http://t.co/es4gzo5kTR</t>
+  </si>
+  <si>
+    <t>14/08/1981 - Berk Hakman,Türk oyuncu dünyaya geldi. http://t.co/4TPcbkYHZI</t>
+  </si>
+  <si>
+    <t>4/08/1980- Aydın Toscalı, Türk futbolcu dünyaya geldi. http://t.co/HNViELL5Ls</t>
+  </si>
+  <si>
+    <t>14/08/2007 - Gazeteci Emin Çölaşan'ın Hürriyet Gazetesi'ndeki köşe yazarlığına son verildi. http://t.co/sawPXQa6RS</t>
+  </si>
+  <si>
+    <t>14/08/1974 - ANKA Ajansı muhabiri Gazeteci Adem Yavuz, Rumlar tarafından tutsak edildi ve gözleri bağlıyken ateş edilerek, yaralandı.</t>
+  </si>
+  <si>
+    <t>14/08/1974 - Türkiye başkent Lefkoşaya girdi.</t>
+  </si>
+  <si>
+    <t>14/08/1934 - Türkiye Selüloz ve Kağıt Fabrikaları Genel Müdürlüğü (SEKA) kuruldu. Paşabahçe Cam Fabrikası'nın temeli atıldı.</t>
+  </si>
+  <si>
+    <t>14/08/1908 - Türk Basın Birliği kuruldu. http://t.co/jtAI5OdPtq</t>
+  </si>
+  <si>
+    <t>13/08/1993 - Eski Cumhuriyet Senatosu başkanlarından Tekin Arıburun hayatını kaybetti. http://t.co/7Fa5hrHPIk</t>
+  </si>
+  <si>
+    <t>13/08/1976 - Shell şirketine Ege Denizinde petrol arama ruhsatı verildi. http://t.co/lfEBi2DJdJ</t>
+  </si>
+  <si>
+    <t>13/08/1997 - Basında sorumlu müdürlerin dava ve cezalarını şartlı erteleyen düzenleme yasalaştı.</t>
+  </si>
+  <si>
+    <t>13/08/1986 - Başbakan Turgut Özal, "12 Eylül olmasaydı iktidara gelemezdik" dedi. http://t.co/fmR5LE1IfC</t>
+  </si>
+  <si>
+    <t>13/08/1984 - Yurtdışından Türkiye'ye dönüş yapan işçi çocuklarına "uyum dersleri" verilmeye başladı.</t>
+  </si>
+  <si>
+    <t>13/08/1976 - Özge Özberk, Türk oyuncu dünyaya geldi. http://t.co/aC9HhobwlG</t>
+  </si>
+  <si>
+    <t>13/08/1949 - Prof. Sencer Ayata Türk Sosyoloji Profesörü ve Sosyal Demokrat Düşünür. http://t.co/xaIYf9gINA</t>
+  </si>
+  <si>
+    <t>12/08/1999 - Can Yücel, şair, çevirmen hayatını kaybetti (d. 1926).</t>
+  </si>
+  <si>
+    <t>12/08/1999 - Abbas Sayar, yazar, şair, ressam hayatını kaybetti (d. 1923).</t>
+  </si>
+  <si>
+    <t>12/08/1980 - Rojda Demirer, Türk aktris dünyaya geldi.</t>
+  </si>
+  <si>
+    <t>12/08/1972 - Demir Demirkan,şarkıcı dünyaya geldi.</t>
+  </si>
+  <si>
+    <t>12/08/1940 - Gönül Yazar, ses ve sinema sanatçısı dünyaya geldi.</t>
+  </si>
+  <si>
+    <t>12/08/1996 - Türkiye ile İran arasında 2 trilyon tutarında doğalgaz anlaşması imzalandı.</t>
+  </si>
+  <si>
+    <t>+++ Konsey, adada iki toplum arasında, Barış Gücü'nün tampon bölge oluşturmasını kararlaştırdı.</t>
+  </si>
+  <si>
+    <t>12/08/1944 - Tan gazetesi kapatıldı.</t>
+  </si>
+  <si>
+    <t>112/08/1921 - Atatürk, Polatlı'da Başkomutan sıfatıyla ordunun başına geçti.</t>
+  </si>
+  <si>
+    <t>12/08/1687 - II.Mohaç Savaşı: Osmanlı  ile Habsburg arasında, Mohaç'ın güneybatısındaki bölgede yapıldı; Habsburg'un zaferiyle sonuçlandı.</t>
+  </si>
+  <si>
+    <t>11/08/2009 - Aykut Oray, Türk sanatçı hayatını kaybetti (d. 1942). http://t.co/J8lqm6HK0D</t>
+  </si>
+  <si>
+    <t>11/08/2004 - Kocaeli' de, Başkent ve Adapazarı Ekspresleri kafa kafaya çarpışarak kaza yaptı. Kazada 8 kişi öldü, 88 kişi yaralandı.</t>
+  </si>
+  <si>
+    <t>11/08/2000 - Fettullah Gülen hakkında 'çete kurmak ve yönetmek' iddiasıyla gıyabi tutuklama kararı verildi. http://t.co/twDm44VcVH</t>
+  </si>
+  <si>
+    <t>11/08/1995 - Suudi Arabistan'da 4 Türk vatandaşı kılıçla başı kesilerek idam edildi.</t>
+  </si>
+  <si>
+    <t>11/08/1987 - Eskişehir, Gaziantep ve Sağmalcılar'dan sonra Çanakkale ve Erzincan cezaevlerinde de 300 mahkum açlık grevine başladı.</t>
+  </si>
+  <si>
+    <t>11/08/1975 - 30 imam-hatip lisesi daha açılacağı açıklandı.</t>
+  </si>
+  <si>
+    <t>11/08/1971 - Ferhat Atik, Kıbrıslı senarist, yönetmen, yazar ve araştırmacı dünyaya geldi. http://t.co/pDk0vgriyf</t>
+  </si>
+  <si>
+    <t>11/08/1962 - Türk Parasını Koruma Kararnamesi kısmen kaldırıldı.</t>
+  </si>
+  <si>
+    <t>11/08/1961 - 9 ay 25 gün süren Yassıada yargılamaları sona erdi.</t>
+  </si>
+  <si>
+    <t>11/08/1936 - İstanbul Tiyatro festivali başladı.</t>
+  </si>
+  <si>
+    <t>11/08/1923 - İsmet İnönü, Lozan Anlaşması'nı imzaladığı kalemi İstanbul Üniversitesi'ne armağan etti.</t>
+  </si>
+  <si>
+    <t>10/08/1989 - İstanbul'da cezaevlerindeki açlık grevini desteklemek amacıyla siyah elbiselerle yürüyen kadınlar tutuklandı.</t>
+  </si>
+  <si>
+    <t>10/08/1975 - İlhan Mansız, Türk futbolcu dünyaya geldi. http://t.co/49t7hkXA21</t>
+  </si>
+  <si>
+    <t>10/08/1969 - Necmettin Erbakan milletvekili adaylığı için Adalet Partisi'ne kaydını yaptırdı. http://t.co/ARGdOO4Ybf</t>
+  </si>
+  <si>
+    <t>10/08/1960 - Ege Telgraf Gazetesi yayın hayatına başladı. http://t.co/v9d7qDAcY2</t>
+  </si>
+  <si>
+    <t>10/08/1952 - Amerika Birleşik Devletleri'nin Harlem basketbol takımı gösteri maçları için İstanbul'a geldi. http://t.co/csnaOqsVGR</t>
+  </si>
+  <si>
+    <t>10/08/1949 - Aytekin Çakmakçı, Türk görüntü yönetmeni dünyaya geldi. http://t.co/wbawqhAl1k</t>
+  </si>
+  <si>
+    <t>10/08/1920 - Sevr Anlaşması hükümleri uyarınca, Anadolu ve Rumeli toprakları düşmanlarca paylaşılmaya başlandı. http://t.co/GYjv3xB4Rp</t>
+  </si>
+  <si>
+    <t>10/08/1876 - Padişah V. Murat akli dengesini yitirdiği gerekçesiyle tahttan indirildi. http://t.co/6QQfpPDdtJ</t>
+  </si>
+  <si>
+    <t>09/08/1991 - Furkan Aldemir, Türk basketbolcu dünyaya geldi. http://t.co/ue63xoBhTW</t>
+  </si>
+  <si>
+    <t>09/08/2007 - Köksal Toptan 535 geçerli oyun 450'sini alarak TBMM başkanı seçildi. http://t.co/voHzE3FWCB</t>
+  </si>
+  <si>
+    <t>09/08/1994 - Aydın Doğan Hürriyet grubunu satın aldı. http://t.co/l9a3Bb6y3k</t>
+  </si>
+  <si>
+    <t>09/08/1993 - Eski İSKİ (İstanbul Su ve Kanalizasyon İşletmesi) Genel Müdürü Ergun Göknel hakkında "rüşvet" suçlamasıyla soruşturma açıldı.</t>
+  </si>
+  <si>
+    <t>09/08/1991 - Başbakan Mesut Yılmaz Kürdistan Yurtsever Birliği lideri Celal Talabani'nin görüşme isteğini kabul etmedi.</t>
+  </si>
+  <si>
+    <t>09/08/1982 - Profesör Sadun Aren tutuklandı, İstanbul'da yayımlanan Güneş gazetesi sıkıyönetimce kapatıldı. http://t.co/ojCUnDaNj2</t>
+  </si>
+  <si>
+    <t>09/08/1974 - Gravür sanatçısı Aliye Berger hayatını kaybetti. http://t.co/ldO858ir3q</t>
+  </si>
+  <si>
+    <t>09/08/1972 - Profesör Sıddık Sami Onar hayatını kaybetti. http://t.co/ym1w4dg3Ql</t>
+  </si>
+  <si>
+    <t>09/08/1966 - Cumhurbaşkanı Cevdet Sunay Af Kanunu'nu onayladı. http://t.co/fFeN8VQCgR</t>
+  </si>
+  <si>
+    <t>09/08/1936 - Sabahattin Ali'nin hikaye kitabı "Kağnı" yayımlandı. http://t.co/vIW4rWY2LY</t>
+  </si>
+  <si>
+    <t>09/08/1928 - Arap alfabesi yerine Latin esasına dayanan Türk alfabesi kabul edildi. http://t.co/xG1JzybmhU</t>
+  </si>
+  <si>
+    <t>Ramazan Bayramımız mübarek olsun. Her gününüz bayram tadında, her geceniz bayramı bekleyen çocuk heyecanında olsun. Hayırlı bayramlar.</t>
+  </si>
+  <si>
+    <t>+++ yönelik Kanun Hükmünde Kararnameyi "Hukuk devleti ilkesine aykırı" olduğu gerekçesiyle hükümete iade etti.</t>
+  </si>
+  <si>
+    <t>08/08/1998 - Bekir Yıldız, Öykü yazarı hayatını kaybetti. http://t.co/UhbwU9lcgz</t>
+  </si>
+  <si>
+    <t>08/08/1988 - Sağlık ve Sosyal Yardım Bakanlığı'nın İlaç Geliştirme ve Değerlendirme Komisyonu+++</t>
+  </si>
+  <si>
+    <t>08/08/1981 - Türkiye'nin ilk turizm havaalanı olan Dalaman Havaalanı açıldı. http://t.co/Qrhobmd5Q3</t>
+  </si>
+  <si>
+    <t>08/08/1975 - Ankara'da bakkallar yürüyüş yaptı.</t>
+  </si>
+  <si>
+    <t>08/08/1949 - Avrupa Konseyi ilk toplantısını Strasbourg'da yaptı.Türkiye ve Yunanistan Avrupa Konseyi'ne kabul edildi http://t.co/Y7Fd7oBdrs</t>
+  </si>
+  <si>
+    <t>08/08/1928 - İstanbul'da Taksim Cumhuriyet Anıtı açıldı. Açılışa 30 bini aşkın İstanbullu katıldı. http://t.co/J8STkzBymv</t>
+  </si>
+  <si>
+    <t>08/08/1915 - Mustafa Kemal, Anafartalar Grup Komutanlığı'na atandı. http://t.co/NsU2YkE8QR</t>
+  </si>
+  <si>
+    <t>07/08/1954 - Millet gazetesi sahibi Fuat Arna, bir yazısında Başbakan Adnan Menderes'e hakaret ettiği gerekçesiyle tutuklandı.</t>
+  </si>
+  <si>
+    <t>07/08/1945 - Nüfus sayımı için evlere numara verilmesi kararlaştırıldı.</t>
+  </si>
+  <si>
+    <t>07/08/1648 - Sultan İbrahim'in halli sonrasında, IV. Mehmet tahta çıkarıldı.</t>
+  </si>
+  <si>
+    <t>07/08/1984 - Baha Gelenbevi, Türk fotoğraf sanatçısı, yönetmen, senarist hayatını kaybetti (d. 1907). http://t.co/T37xbWiCau</t>
+  </si>
+  <si>
+    <t>07/08/1983 - Murat Dalkılıç, Türk pop şarkıcısı ve söz yazarı dünyaya geldi. http://t.co/dD6Jy57UeF</t>
+  </si>
+  <si>
+    <t>07/08/1998 - Trabzon'un Köprübaşı ilçesinin Beşköy beldesinde meydana gelen sel felaketinde 47 vatandaş öldü.</t>
+  </si>
+  <si>
+    <t>07/08/1982 - Artin Penik, ASALA terörünü protesto etmek için kendisini Taksim Meydanı'nda yaktı. http://t.co/5UaEkisBKF</t>
+  </si>
+  <si>
+    <t>07/08/1982 - Ankara Esenboğa Havalimanı'na iki ASALA militanının düzenlediği saldırıda+++</t>
+  </si>
+  <si>
+    <t>07/08/1936 - Yaşar Erkan, Berlin Olimpiyatları'nda grekoromen güreşte 61 kilo şampiyonu oldu. http://t.co/GEIOyBPwK7</t>
+  </si>
+  <si>
+    <t>07/08/2013 - SELÇUK YULA' nın 3 gol attığı maçta Fenerbahçe Salszburg u 3-1 mağlup etti.SELÇUK YULA! @12numaraorg http://t.co/tjC7NQC8F0</t>
+  </si>
+  <si>
+    <t>06/08/1982 - Samet Ağaoğlu, Azerbaycan doğumlu Türk yazar siyasetçi, eski bakan hayatını kaybetti (d. 1909). http://t.co/rF3w8V1RB0</t>
+  </si>
+  <si>
+    <t>06/08/1986 - Mehmet Akgün, Türk asıllı Alman futbolcu dünyaya geldi. http://t.co/t3a2zoczQW</t>
+  </si>
+  <si>
+    <t>06/08/1924 - Lozan Antlaşması yürürlüğe girdi.</t>
+  </si>
+  <si>
+    <t>06/08/1915 - Kirte Bağları Muharebesi başladı. http://t.co/3ZfgDiURQQ</t>
+  </si>
+  <si>
+    <t>05/08/1967 - Prof. Dr. Mustafa İnan, Türk İnşaat Mühendisi, akademisyen, bilim adamı hayatını kaybetti (d. 1911) . http://t.co/WqaNVa7L8Q</t>
+  </si>
+  <si>
+    <t>05/08/2010 - TFF, Ankaraspor'un lisansını iptal etti ve tüm liglerden ihraç etti. http://t.co/9QUPTf3E6J</t>
+  </si>
+  <si>
+    <t>05/08/1995 - Türk-İş Ankara'da "Emeğe Saygı" mitingi düzenledi. Mitinge 100 bine yakın işçi katıldı.</t>
+  </si>
+  <si>
+    <t>05/08/1995 - Türk-İş Ankara'da "Emeğe Saygı" mitingi düzenledi. Mitinge 100 bine yakın işçi katıldı. http://t.co/ekEMC3mOum</t>
+  </si>
+  <si>
+    <t>05/08/1971 - Yazar Sevgi Soysal tutuklandı http://t.co/HJkqkOAjtx</t>
+  </si>
+  <si>
+    <t>05/08/1959 - Kütahya Cezaevi'nde isyan çıktı. Polisler gaz bombası atarak isyanı bastırdı. http://t.co/0BR4gzehYA</t>
+  </si>
+  <si>
+    <t>05/08/1921 - Gazi Mustafa Kemal, Türk Orduları Başkomutanlığı'na seçildi. http://t.co/W6Fu2eTjlq</t>
+  </si>
+  <si>
+    <t>05/08/1634 - IV. Murad içki yasağı ilan ederek meyhaneleri yıktırdı. http://t.co/Cjz6uAsidv</t>
+  </si>
+  <si>
+    <t>04/08/2013 - Tarihte tam da bugün @Arsenal i 2-1 mağlup eden @GalatasaraySK #EmiratesCup2013 ün sahibi oldu. http://t.co/ZliXxpUmuA</t>
+  </si>
+  <si>
+    <t>04/08/1957 - Talat Artemel, Tiyatro ve sinema sanatçısı hayatını kaybetti (d. 1901) . http://t.co/1PQVyqBcXa</t>
+  </si>
+  <si>
+    <t>04/08/1993 - Sabri Berkel, Türk ressam hayatını kaybetti. http://t.co/OTY0pRdKxZ</t>
+  </si>
+  <si>
+    <t>04/08/1927 -  Türk şair Turgut Uyar dünyaya geldi. http://t.co/BYeuecBUEX</t>
+  </si>
+  <si>
+    <t>04/08/1987 - Uluslararası Barış Araştırmaları Enstitüsü, Türkiye'nin İran'a silah satan ülkeler arasında olduğunu ileri sürdü.</t>
+  </si>
+  <si>
+    <t>04/08/1959 - İstanbul'da yumurta büyüklüğünde dolu yağdı. Yaralanmalar ve maddi hasar meydana geldi.</t>
+  </si>
+  <si>
+    <t>04/08/1924 - Lozan Antlaşması yürürlüğe girdi. http://t.co/QJmWXRfytX</t>
+  </si>
+  <si>
+    <t>03/08/2005 - Tiyatro sanatçısı  Mete Sezer, karaciğer yetmezliği yüzünden Ankara'da hayatını kaybetti. http://t.co/ODrNTMxW0p</t>
+  </si>
+  <si>
+    <t>03/08/2006 - Gazeteci, Cem Şaşmaz hayatını kaybetti.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1004,6 +3606,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1038,16 +3647,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1340,7 +3955,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B273"/>
+  <dimension ref="A1:B1039"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3527,7 +6142,6142 @@
         <v>269</v>
       </c>
     </row>
+    <row r="274" spans="1:2">
+      <c r="A274" s="1">
+        <v>0</v>
+      </c>
+      <c r="B274" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2">
+      <c r="A275" s="1">
+        <v>1</v>
+      </c>
+      <c r="B275" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2">
+      <c r="A276" s="1">
+        <v>2</v>
+      </c>
+      <c r="B276" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2">
+      <c r="A277" s="1">
+        <v>3</v>
+      </c>
+      <c r="B277" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2">
+      <c r="A278" s="1">
+        <v>4</v>
+      </c>
+      <c r="B278" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2">
+      <c r="A279" s="1">
+        <v>5</v>
+      </c>
+      <c r="B279" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2">
+      <c r="A280" s="1">
+        <v>6</v>
+      </c>
+      <c r="B280" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2">
+      <c r="A281" s="1">
+        <v>7</v>
+      </c>
+      <c r="B281" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2">
+      <c r="A282" s="1">
+        <v>8</v>
+      </c>
+      <c r="B282" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2">
+      <c r="A283" s="1">
+        <v>9</v>
+      </c>
+      <c r="B283" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2">
+      <c r="A284" s="1">
+        <v>10</v>
+      </c>
+      <c r="B284" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2">
+      <c r="A285" s="1">
+        <v>11</v>
+      </c>
+      <c r="B285" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2">
+      <c r="A286" s="1">
+        <v>12</v>
+      </c>
+      <c r="B286" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2">
+      <c r="A287" s="1">
+        <v>13</v>
+      </c>
+      <c r="B287" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2">
+      <c r="A288" s="1">
+        <v>14</v>
+      </c>
+      <c r="B288" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2">
+      <c r="A289" s="1">
+        <v>15</v>
+      </c>
+      <c r="B289" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2">
+      <c r="A290" s="1">
+        <v>16</v>
+      </c>
+      <c r="B290" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2">
+      <c r="A291" s="1">
+        <v>17</v>
+      </c>
+      <c r="B291" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2">
+      <c r="A292" s="1">
+        <v>18</v>
+      </c>
+      <c r="B292" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2">
+      <c r="A293" s="1">
+        <v>19</v>
+      </c>
+      <c r="B293" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2">
+      <c r="A294" s="1">
+        <v>20</v>
+      </c>
+      <c r="B294" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2">
+      <c r="A295" s="1">
+        <v>21</v>
+      </c>
+      <c r="B295" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2">
+      <c r="A296" s="1">
+        <v>22</v>
+      </c>
+      <c r="B296" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2">
+      <c r="A297" s="1">
+        <v>23</v>
+      </c>
+      <c r="B297" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2">
+      <c r="A298" s="1">
+        <v>24</v>
+      </c>
+      <c r="B298" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2">
+      <c r="A299" s="1">
+        <v>25</v>
+      </c>
+      <c r="B299" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2">
+      <c r="A300" s="1">
+        <v>26</v>
+      </c>
+      <c r="B300" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2">
+      <c r="A301" s="1">
+        <v>27</v>
+      </c>
+      <c r="B301" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2">
+      <c r="A302" s="1">
+        <v>28</v>
+      </c>
+      <c r="B302" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2">
+      <c r="A303" s="1">
+        <v>29</v>
+      </c>
+      <c r="B303" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2">
+      <c r="A304" s="1">
+        <v>30</v>
+      </c>
+      <c r="B304" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2">
+      <c r="A305" s="1">
+        <v>31</v>
+      </c>
+      <c r="B305" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2">
+      <c r="A306" s="1">
+        <v>32</v>
+      </c>
+      <c r="B306" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2">
+      <c r="A307" s="1">
+        <v>33</v>
+      </c>
+      <c r="B307" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2">
+      <c r="A308" s="1">
+        <v>34</v>
+      </c>
+      <c r="B308" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2">
+      <c r="A309" s="1">
+        <v>35</v>
+      </c>
+      <c r="B309" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2">
+      <c r="A310" s="1">
+        <v>36</v>
+      </c>
+      <c r="B310" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2">
+      <c r="A311" s="1">
+        <v>37</v>
+      </c>
+      <c r="B311" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2">
+      <c r="A312" s="1">
+        <v>38</v>
+      </c>
+      <c r="B312" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2">
+      <c r="A313" s="1">
+        <v>39</v>
+      </c>
+      <c r="B313" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2">
+      <c r="A314" s="1">
+        <v>40</v>
+      </c>
+      <c r="B314" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2">
+      <c r="A315" s="1">
+        <v>41</v>
+      </c>
+      <c r="B315" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2">
+      <c r="A316" s="1">
+        <v>42</v>
+      </c>
+      <c r="B316" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2">
+      <c r="A317" s="1">
+        <v>43</v>
+      </c>
+      <c r="B317" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2">
+      <c r="A318" s="1">
+        <v>44</v>
+      </c>
+      <c r="B318" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2">
+      <c r="A319" s="1">
+        <v>45</v>
+      </c>
+      <c r="B319" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2">
+      <c r="A320" s="1">
+        <v>46</v>
+      </c>
+      <c r="B320" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2">
+      <c r="A321" s="1">
+        <v>47</v>
+      </c>
+      <c r="B321" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2">
+      <c r="A322" s="1">
+        <v>48</v>
+      </c>
+      <c r="B322" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2">
+      <c r="A323" s="1">
+        <v>49</v>
+      </c>
+      <c r="B323" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2">
+      <c r="A324" s="1">
+        <v>50</v>
+      </c>
+      <c r="B324" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2">
+      <c r="A325" s="1">
+        <v>51</v>
+      </c>
+      <c r="B325" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2">
+      <c r="A326" s="1">
+        <v>52</v>
+      </c>
+      <c r="B326" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2">
+      <c r="A327" s="1">
+        <v>53</v>
+      </c>
+      <c r="B327" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2">
+      <c r="A328" s="1">
+        <v>54</v>
+      </c>
+      <c r="B328" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2">
+      <c r="A329" s="1">
+        <v>55</v>
+      </c>
+      <c r="B329" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2">
+      <c r="A330" s="1">
+        <v>56</v>
+      </c>
+      <c r="B330" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2">
+      <c r="A331" s="1">
+        <v>57</v>
+      </c>
+      <c r="B331" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2">
+      <c r="A332" s="1">
+        <v>58</v>
+      </c>
+      <c r="B332" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2">
+      <c r="A333" s="1">
+        <v>59</v>
+      </c>
+      <c r="B333" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2">
+      <c r="A334" s="1">
+        <v>60</v>
+      </c>
+      <c r="B334" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2">
+      <c r="A335" s="1">
+        <v>61</v>
+      </c>
+      <c r="B335" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2">
+      <c r="A336" s="1">
+        <v>62</v>
+      </c>
+      <c r="B336" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2">
+      <c r="A337" s="1">
+        <v>63</v>
+      </c>
+      <c r="B337" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2">
+      <c r="A338" s="1">
+        <v>64</v>
+      </c>
+      <c r="B338" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2">
+      <c r="A339" s="1">
+        <v>65</v>
+      </c>
+      <c r="B339" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2">
+      <c r="A340" s="1">
+        <v>66</v>
+      </c>
+      <c r="B340" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2">
+      <c r="A341" s="1">
+        <v>67</v>
+      </c>
+      <c r="B341" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2">
+      <c r="A342" s="1">
+        <v>68</v>
+      </c>
+      <c r="B342" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2">
+      <c r="A343" s="1">
+        <v>69</v>
+      </c>
+      <c r="B343" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2">
+      <c r="A344" s="1">
+        <v>70</v>
+      </c>
+      <c r="B344" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2">
+      <c r="A345" s="1">
+        <v>71</v>
+      </c>
+      <c r="B345" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2">
+      <c r="A346" s="1">
+        <v>72</v>
+      </c>
+      <c r="B346" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2">
+      <c r="A347" s="1">
+        <v>73</v>
+      </c>
+      <c r="B347" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2">
+      <c r="A348" s="1">
+        <v>74</v>
+      </c>
+      <c r="B348" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2">
+      <c r="A349" s="1">
+        <v>75</v>
+      </c>
+      <c r="B349" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2">
+      <c r="A350" s="1">
+        <v>76</v>
+      </c>
+      <c r="B350" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2">
+      <c r="A351" s="1">
+        <v>77</v>
+      </c>
+      <c r="B351" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2">
+      <c r="A352" s="1">
+        <v>78</v>
+      </c>
+      <c r="B352" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2">
+      <c r="A353" s="1">
+        <v>79</v>
+      </c>
+      <c r="B353" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2">
+      <c r="A354" s="1">
+        <v>80</v>
+      </c>
+      <c r="B354" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2">
+      <c r="A355" s="1">
+        <v>81</v>
+      </c>
+      <c r="B355" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2">
+      <c r="A356" s="1">
+        <v>82</v>
+      </c>
+      <c r="B356" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2">
+      <c r="A357" s="1">
+        <v>83</v>
+      </c>
+      <c r="B357" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2">
+      <c r="A358" s="1">
+        <v>84</v>
+      </c>
+      <c r="B358" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2">
+      <c r="A359" s="1">
+        <v>85</v>
+      </c>
+      <c r="B359" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2">
+      <c r="A360" s="1">
+        <v>86</v>
+      </c>
+      <c r="B360" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2">
+      <c r="A361" s="1">
+        <v>87</v>
+      </c>
+      <c r="B361" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2">
+      <c r="A362" s="1">
+        <v>88</v>
+      </c>
+      <c r="B362" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2">
+      <c r="A363" s="1">
+        <v>89</v>
+      </c>
+      <c r="B363" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2">
+      <c r="A364" s="1">
+        <v>90</v>
+      </c>
+      <c r="B364" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2">
+      <c r="A365" s="1">
+        <v>91</v>
+      </c>
+      <c r="B365" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2">
+      <c r="A366" s="1">
+        <v>92</v>
+      </c>
+      <c r="B366" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2">
+      <c r="A367" s="1">
+        <v>93</v>
+      </c>
+      <c r="B367" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2">
+      <c r="A368" s="1">
+        <v>94</v>
+      </c>
+      <c r="B368" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2">
+      <c r="A369" s="1">
+        <v>95</v>
+      </c>
+      <c r="B369" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2">
+      <c r="A370" s="1">
+        <v>96</v>
+      </c>
+      <c r="B370" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2">
+      <c r="A371" s="1">
+        <v>97</v>
+      </c>
+      <c r="B371" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2">
+      <c r="A372" s="1">
+        <v>98</v>
+      </c>
+      <c r="B372" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2">
+      <c r="A373" s="1">
+        <v>99</v>
+      </c>
+      <c r="B373" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2">
+      <c r="A374" s="1">
+        <v>100</v>
+      </c>
+      <c r="B374" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2">
+      <c r="A375" s="1">
+        <v>101</v>
+      </c>
+      <c r="B375" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2">
+      <c r="A376" s="1">
+        <v>102</v>
+      </c>
+      <c r="B376" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2">
+      <c r="A377" s="1">
+        <v>103</v>
+      </c>
+      <c r="B377" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2">
+      <c r="A378" s="1">
+        <v>104</v>
+      </c>
+      <c r="B378" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2">
+      <c r="A379" s="1">
+        <v>105</v>
+      </c>
+      <c r="B379" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2">
+      <c r="A380" s="1">
+        <v>106</v>
+      </c>
+      <c r="B380" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2">
+      <c r="A381" s="1">
+        <v>107</v>
+      </c>
+      <c r="B381" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2">
+      <c r="A382" s="1">
+        <v>108</v>
+      </c>
+      <c r="B382" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2">
+      <c r="A383" s="1">
+        <v>109</v>
+      </c>
+      <c r="B383" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2">
+      <c r="A384" s="1">
+        <v>110</v>
+      </c>
+      <c r="B384" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2">
+      <c r="A385" s="1">
+        <v>111</v>
+      </c>
+      <c r="B385" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2">
+      <c r="A386" s="1">
+        <v>112</v>
+      </c>
+      <c r="B386" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2">
+      <c r="A387" s="1">
+        <v>113</v>
+      </c>
+      <c r="B387" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2">
+      <c r="A388" s="1">
+        <v>114</v>
+      </c>
+      <c r="B388" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2">
+      <c r="A389" s="1">
+        <v>115</v>
+      </c>
+      <c r="B389" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2">
+      <c r="A390" s="1">
+        <v>116</v>
+      </c>
+      <c r="B390" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2">
+      <c r="A391" s="1">
+        <v>117</v>
+      </c>
+      <c r="B391" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2">
+      <c r="A392" s="1">
+        <v>118</v>
+      </c>
+      <c r="B392" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2">
+      <c r="A393" s="1">
+        <v>119</v>
+      </c>
+      <c r="B393" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2">
+      <c r="A394" s="1">
+        <v>120</v>
+      </c>
+      <c r="B394" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2">
+      <c r="A395" s="1">
+        <v>121</v>
+      </c>
+      <c r="B395" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2">
+      <c r="A396" s="1">
+        <v>122</v>
+      </c>
+      <c r="B396" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2">
+      <c r="A397" s="1">
+        <v>123</v>
+      </c>
+      <c r="B397" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2">
+      <c r="A398" s="1">
+        <v>124</v>
+      </c>
+      <c r="B398" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2">
+      <c r="A399" s="1">
+        <v>125</v>
+      </c>
+      <c r="B399" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2">
+      <c r="A400" s="1">
+        <v>126</v>
+      </c>
+      <c r="B400" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2">
+      <c r="A401" s="1">
+        <v>127</v>
+      </c>
+      <c r="B401" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2">
+      <c r="A402" s="1">
+        <v>128</v>
+      </c>
+      <c r="B402" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2">
+      <c r="A403" s="1">
+        <v>129</v>
+      </c>
+      <c r="B403" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2">
+      <c r="A404" s="1">
+        <v>130</v>
+      </c>
+      <c r="B404" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2">
+      <c r="A405" s="1">
+        <v>131</v>
+      </c>
+      <c r="B405" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2">
+      <c r="A406" s="1">
+        <v>132</v>
+      </c>
+      <c r="B406" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2">
+      <c r="A407" s="1">
+        <v>133</v>
+      </c>
+      <c r="B407" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2">
+      <c r="A408" s="1">
+        <v>134</v>
+      </c>
+      <c r="B408" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2">
+      <c r="A409" s="1">
+        <v>135</v>
+      </c>
+      <c r="B409" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2">
+      <c r="A410" s="1">
+        <v>136</v>
+      </c>
+      <c r="B410" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2">
+      <c r="A411" s="1">
+        <v>137</v>
+      </c>
+      <c r="B411" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2">
+      <c r="A412" s="1">
+        <v>138</v>
+      </c>
+      <c r="B412" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2">
+      <c r="A413" s="1">
+        <v>139</v>
+      </c>
+      <c r="B413" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2">
+      <c r="A414" s="1">
+        <v>140</v>
+      </c>
+      <c r="B414" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2">
+      <c r="A415" s="1">
+        <v>141</v>
+      </c>
+      <c r="B415" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2">
+      <c r="A416" s="1">
+        <v>142</v>
+      </c>
+      <c r="B416" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2">
+      <c r="A417" s="1">
+        <v>143</v>
+      </c>
+      <c r="B417" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2">
+      <c r="A418" s="1">
+        <v>144</v>
+      </c>
+      <c r="B418" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2">
+      <c r="A419" s="1">
+        <v>145</v>
+      </c>
+      <c r="B419" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2">
+      <c r="A420" s="1">
+        <v>146</v>
+      </c>
+      <c r="B420" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2">
+      <c r="A421" s="1">
+        <v>147</v>
+      </c>
+      <c r="B421" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2">
+      <c r="A422" s="1">
+        <v>148</v>
+      </c>
+      <c r="B422" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2">
+      <c r="A423" s="1">
+        <v>149</v>
+      </c>
+      <c r="B423" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2">
+      <c r="A424" s="1">
+        <v>150</v>
+      </c>
+      <c r="B424" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2">
+      <c r="A425" s="1">
+        <v>151</v>
+      </c>
+      <c r="B425" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2">
+      <c r="A426" s="1">
+        <v>152</v>
+      </c>
+      <c r="B426" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2">
+      <c r="A427" s="1">
+        <v>153</v>
+      </c>
+      <c r="B427" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2">
+      <c r="A428" s="1">
+        <v>154</v>
+      </c>
+      <c r="B428" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2">
+      <c r="A429" s="1">
+        <v>155</v>
+      </c>
+      <c r="B429" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2">
+      <c r="A430" s="1">
+        <v>156</v>
+      </c>
+      <c r="B430" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2">
+      <c r="A431" s="1">
+        <v>157</v>
+      </c>
+      <c r="B431" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2">
+      <c r="A432" s="1">
+        <v>158</v>
+      </c>
+      <c r="B432" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2">
+      <c r="A433" s="1">
+        <v>159</v>
+      </c>
+      <c r="B433" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2">
+      <c r="A434" s="1">
+        <v>160</v>
+      </c>
+      <c r="B434" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2">
+      <c r="A435" s="1">
+        <v>161</v>
+      </c>
+      <c r="B435" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2">
+      <c r="A436" s="1">
+        <v>162</v>
+      </c>
+      <c r="B436" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2">
+      <c r="A437" s="1">
+        <v>163</v>
+      </c>
+      <c r="B437" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2">
+      <c r="A438" s="1">
+        <v>164</v>
+      </c>
+      <c r="B438" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2">
+      <c r="A439" s="1">
+        <v>165</v>
+      </c>
+      <c r="B439" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2">
+      <c r="A440" s="1">
+        <v>166</v>
+      </c>
+      <c r="B440" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2">
+      <c r="A441" s="1">
+        <v>167</v>
+      </c>
+      <c r="B441" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2">
+      <c r="A442" s="1">
+        <v>168</v>
+      </c>
+      <c r="B442" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2">
+      <c r="A443" s="1">
+        <v>169</v>
+      </c>
+      <c r="B443" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2">
+      <c r="A444" s="1">
+        <v>170</v>
+      </c>
+      <c r="B444" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2">
+      <c r="A445" s="1">
+        <v>171</v>
+      </c>
+      <c r="B445" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2">
+      <c r="A446" s="1">
+        <v>172</v>
+      </c>
+      <c r="B446" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2">
+      <c r="A447" s="1">
+        <v>173</v>
+      </c>
+      <c r="B447" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2">
+      <c r="A448" s="1">
+        <v>174</v>
+      </c>
+      <c r="B448" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2">
+      <c r="A449" s="1">
+        <v>175</v>
+      </c>
+      <c r="B449" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2">
+      <c r="A450" s="1">
+        <v>176</v>
+      </c>
+      <c r="B450" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2">
+      <c r="A451" s="1">
+        <v>177</v>
+      </c>
+      <c r="B451" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2">
+      <c r="A452" s="1">
+        <v>178</v>
+      </c>
+      <c r="B452" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2">
+      <c r="A453" s="1">
+        <v>179</v>
+      </c>
+      <c r="B453" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2">
+      <c r="A454" s="1">
+        <v>180</v>
+      </c>
+      <c r="B454" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2">
+      <c r="A455" s="1">
+        <v>181</v>
+      </c>
+      <c r="B455" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2">
+      <c r="A456" s="1">
+        <v>182</v>
+      </c>
+      <c r="B456" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2">
+      <c r="A457" s="1">
+        <v>183</v>
+      </c>
+      <c r="B457" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2">
+      <c r="A458" s="1">
+        <v>184</v>
+      </c>
+      <c r="B458" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2">
+      <c r="A459" s="1">
+        <v>185</v>
+      </c>
+      <c r="B459" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2">
+      <c r="A460" s="1">
+        <v>186</v>
+      </c>
+      <c r="B460" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2">
+      <c r="A461" s="1">
+        <v>187</v>
+      </c>
+      <c r="B461" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2">
+      <c r="A462" s="1">
+        <v>188</v>
+      </c>
+      <c r="B462" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2">
+      <c r="A463" s="1">
+        <v>189</v>
+      </c>
+      <c r="B463" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2">
+      <c r="A464" s="1">
+        <v>190</v>
+      </c>
+      <c r="B464" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2">
+      <c r="A465" s="1">
+        <v>191</v>
+      </c>
+      <c r="B465" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2">
+      <c r="A466" s="1">
+        <v>192</v>
+      </c>
+      <c r="B466" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2">
+      <c r="A467" s="1">
+        <v>193</v>
+      </c>
+      <c r="B467" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2">
+      <c r="A468" s="1">
+        <v>194</v>
+      </c>
+      <c r="B468" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2">
+      <c r="A469" s="1">
+        <v>195</v>
+      </c>
+      <c r="B469" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2">
+      <c r="A470" s="1">
+        <v>196</v>
+      </c>
+      <c r="B470" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2">
+      <c r="A471" s="1">
+        <v>197</v>
+      </c>
+      <c r="B471" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2">
+      <c r="A472" s="1">
+        <v>198</v>
+      </c>
+      <c r="B472" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2">
+      <c r="A473" s="1">
+        <v>199</v>
+      </c>
+      <c r="B473" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2">
+      <c r="A474" s="1">
+        <v>200</v>
+      </c>
+      <c r="B474" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2">
+      <c r="A475" s="1">
+        <v>201</v>
+      </c>
+      <c r="B475" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2">
+      <c r="A476" s="1">
+        <v>202</v>
+      </c>
+      <c r="B476" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2">
+      <c r="A477" s="1">
+        <v>203</v>
+      </c>
+      <c r="B477" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2">
+      <c r="A478" s="1">
+        <v>204</v>
+      </c>
+      <c r="B478" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2">
+      <c r="A479" s="1">
+        <v>205</v>
+      </c>
+      <c r="B479" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2">
+      <c r="A480" s="1">
+        <v>206</v>
+      </c>
+      <c r="B480" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2">
+      <c r="A481" s="1">
+        <v>207</v>
+      </c>
+      <c r="B481" s="2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2">
+      <c r="A482" s="1">
+        <v>208</v>
+      </c>
+      <c r="B482" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2">
+      <c r="A483" s="1">
+        <v>209</v>
+      </c>
+      <c r="B483" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2">
+      <c r="A484" s="1">
+        <v>210</v>
+      </c>
+      <c r="B484" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2">
+      <c r="A485" s="1">
+        <v>211</v>
+      </c>
+      <c r="B485" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2">
+      <c r="A486" s="1">
+        <v>212</v>
+      </c>
+      <c r="B486" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2">
+      <c r="A487" s="1">
+        <v>213</v>
+      </c>
+      <c r="B487" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2">
+      <c r="A488" s="1">
+        <v>214</v>
+      </c>
+      <c r="B488" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2">
+      <c r="A489" s="1">
+        <v>215</v>
+      </c>
+      <c r="B489" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2">
+      <c r="A490" s="1">
+        <v>216</v>
+      </c>
+      <c r="B490" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2">
+      <c r="A491" s="1">
+        <v>217</v>
+      </c>
+      <c r="B491" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2">
+      <c r="A492" s="1">
+        <v>218</v>
+      </c>
+      <c r="B492" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2">
+      <c r="A493" s="1">
+        <v>219</v>
+      </c>
+      <c r="B493" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2">
+      <c r="A494" s="1">
+        <v>220</v>
+      </c>
+      <c r="B494" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2">
+      <c r="A495" s="1">
+        <v>221</v>
+      </c>
+      <c r="B495" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2">
+      <c r="A496" s="1">
+        <v>222</v>
+      </c>
+      <c r="B496" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2">
+      <c r="A497" s="1">
+        <v>223</v>
+      </c>
+      <c r="B497" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2">
+      <c r="A498" s="1">
+        <v>224</v>
+      </c>
+      <c r="B498" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2">
+      <c r="A499" s="1">
+        <v>225</v>
+      </c>
+      <c r="B499" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2">
+      <c r="A500" s="1">
+        <v>226</v>
+      </c>
+      <c r="B500" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2">
+      <c r="A501" s="1">
+        <v>227</v>
+      </c>
+      <c r="B501" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2">
+      <c r="A502" s="1">
+        <v>228</v>
+      </c>
+      <c r="B502" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2">
+      <c r="A503" s="1">
+        <v>229</v>
+      </c>
+      <c r="B503" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2">
+      <c r="A504" s="1">
+        <v>230</v>
+      </c>
+      <c r="B504" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2">
+      <c r="A505" s="1">
+        <v>231</v>
+      </c>
+      <c r="B505" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2">
+      <c r="A506" s="1">
+        <v>232</v>
+      </c>
+      <c r="B506" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2">
+      <c r="A507" s="1">
+        <v>233</v>
+      </c>
+      <c r="B507" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2">
+      <c r="A508" s="1">
+        <v>234</v>
+      </c>
+      <c r="B508" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2">
+      <c r="A509" s="1">
+        <v>235</v>
+      </c>
+      <c r="B509" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2">
+      <c r="A510" s="1">
+        <v>236</v>
+      </c>
+      <c r="B510" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2">
+      <c r="A511" s="1">
+        <v>237</v>
+      </c>
+      <c r="B511" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2">
+      <c r="A512" s="1">
+        <v>238</v>
+      </c>
+      <c r="B512" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2">
+      <c r="A513" s="1">
+        <v>239</v>
+      </c>
+      <c r="B513" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2">
+      <c r="A514" s="1">
+        <v>240</v>
+      </c>
+      <c r="B514" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2">
+      <c r="A515" s="1">
+        <v>241</v>
+      </c>
+      <c r="B515" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2">
+      <c r="A516" s="1">
+        <v>242</v>
+      </c>
+      <c r="B516" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2">
+      <c r="A517" s="1">
+        <v>243</v>
+      </c>
+      <c r="B517" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2">
+      <c r="A518" s="1">
+        <v>244</v>
+      </c>
+      <c r="B518" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2">
+      <c r="A519" s="1">
+        <v>245</v>
+      </c>
+      <c r="B519" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2">
+      <c r="A520" s="1">
+        <v>246</v>
+      </c>
+      <c r="B520" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2">
+      <c r="A521" s="1">
+        <v>247</v>
+      </c>
+      <c r="B521" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2">
+      <c r="A522" s="1">
+        <v>248</v>
+      </c>
+      <c r="B522" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2">
+      <c r="A523" s="1">
+        <v>249</v>
+      </c>
+      <c r="B523" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2">
+      <c r="A524" s="1">
+        <v>250</v>
+      </c>
+      <c r="B524" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2">
+      <c r="A525" s="1">
+        <v>251</v>
+      </c>
+      <c r="B525" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2">
+      <c r="A526" s="1">
+        <v>252</v>
+      </c>
+      <c r="B526" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2">
+      <c r="A527" s="1">
+        <v>253</v>
+      </c>
+      <c r="B527" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2">
+      <c r="A528" s="1">
+        <v>254</v>
+      </c>
+      <c r="B528" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2">
+      <c r="A529" s="1">
+        <v>255</v>
+      </c>
+      <c r="B529" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2">
+      <c r="A530" s="1">
+        <v>256</v>
+      </c>
+      <c r="B530" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2">
+      <c r="A531" s="1">
+        <v>257</v>
+      </c>
+      <c r="B531" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2">
+      <c r="A532" s="1">
+        <v>258</v>
+      </c>
+      <c r="B532" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2">
+      <c r="A533" s="1">
+        <v>259</v>
+      </c>
+      <c r="B533" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2">
+      <c r="A534" s="1">
+        <v>260</v>
+      </c>
+      <c r="B534" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2">
+      <c r="A535" s="1">
+        <v>261</v>
+      </c>
+      <c r="B535" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2">
+      <c r="A536" s="1">
+        <v>262</v>
+      </c>
+      <c r="B536" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2">
+      <c r="A537" s="1">
+        <v>263</v>
+      </c>
+      <c r="B537" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2">
+      <c r="A538" s="1">
+        <v>264</v>
+      </c>
+      <c r="B538" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2">
+      <c r="A539" s="1">
+        <v>265</v>
+      </c>
+      <c r="B539" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2">
+      <c r="A540" s="1">
+        <v>266</v>
+      </c>
+      <c r="B540" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2">
+      <c r="A541" s="1">
+        <v>267</v>
+      </c>
+      <c r="B541" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2">
+      <c r="A542" s="1">
+        <v>268</v>
+      </c>
+      <c r="B542" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2">
+      <c r="A543" s="1">
+        <v>269</v>
+      </c>
+      <c r="B543" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2">
+      <c r="A544" s="1">
+        <v>270</v>
+      </c>
+      <c r="B544" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2">
+      <c r="A545" s="1">
+        <v>271</v>
+      </c>
+      <c r="B545" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2">
+      <c r="A546" s="1">
+        <v>272</v>
+      </c>
+      <c r="B546" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2">
+      <c r="A547" s="1">
+        <v>273</v>
+      </c>
+      <c r="B547" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2">
+      <c r="A548" s="1">
+        <v>274</v>
+      </c>
+      <c r="B548" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2">
+      <c r="A549" s="1">
+        <v>275</v>
+      </c>
+      <c r="B549" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2">
+      <c r="A550" s="1">
+        <v>276</v>
+      </c>
+      <c r="B550" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2">
+      <c r="A551" s="1">
+        <v>277</v>
+      </c>
+      <c r="B551" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2">
+      <c r="A552" s="1">
+        <v>278</v>
+      </c>
+      <c r="B552" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="553" spans="1:2">
+      <c r="A553" s="1">
+        <v>279</v>
+      </c>
+      <c r="B553" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2">
+      <c r="A554" s="1">
+        <v>280</v>
+      </c>
+      <c r="B554" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="555" spans="1:2">
+      <c r="A555" s="1">
+        <v>281</v>
+      </c>
+      <c r="B555" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2">
+      <c r="A556" s="1">
+        <v>282</v>
+      </c>
+      <c r="B556" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2">
+      <c r="A557" s="1">
+        <v>283</v>
+      </c>
+      <c r="B557" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="558" spans="1:2">
+      <c r="A558" s="1">
+        <v>284</v>
+      </c>
+      <c r="B558" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2">
+      <c r="A559" s="1">
+        <v>285</v>
+      </c>
+      <c r="B559" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="560" spans="1:2">
+      <c r="A560" s="1">
+        <v>286</v>
+      </c>
+      <c r="B560" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2">
+      <c r="A561" s="1">
+        <v>287</v>
+      </c>
+      <c r="B561" s="2" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2">
+      <c r="A562" s="1">
+        <v>288</v>
+      </c>
+      <c r="B562" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2">
+      <c r="A563" s="1">
+        <v>289</v>
+      </c>
+      <c r="B563" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2">
+      <c r="A564" s="1">
+        <v>290</v>
+      </c>
+      <c r="B564" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2">
+      <c r="A565" s="1">
+        <v>291</v>
+      </c>
+      <c r="B565" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2">
+      <c r="A566" s="1">
+        <v>292</v>
+      </c>
+      <c r="B566" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2">
+      <c r="A567" s="1">
+        <v>293</v>
+      </c>
+      <c r="B567" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2">
+      <c r="A568" s="1">
+        <v>294</v>
+      </c>
+      <c r="B568" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="569" spans="1:2">
+      <c r="A569" s="1">
+        <v>295</v>
+      </c>
+      <c r="B569" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2">
+      <c r="A570" s="1">
+        <v>296</v>
+      </c>
+      <c r="B570" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="571" spans="1:2">
+      <c r="A571" s="1">
+        <v>297</v>
+      </c>
+      <c r="B571" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2">
+      <c r="A572" s="1">
+        <v>298</v>
+      </c>
+      <c r="B572" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="573" spans="1:2">
+      <c r="A573" s="1">
+        <v>299</v>
+      </c>
+      <c r="B573" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2">
+      <c r="A574" s="1">
+        <v>300</v>
+      </c>
+      <c r="B574" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2">
+      <c r="A575" s="1">
+        <v>301</v>
+      </c>
+      <c r="B575" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2">
+      <c r="A576" s="1">
+        <v>302</v>
+      </c>
+      <c r="B576" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="577" spans="1:2">
+      <c r="A577" s="1">
+        <v>303</v>
+      </c>
+      <c r="B577" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2">
+      <c r="A578" s="1">
+        <v>304</v>
+      </c>
+      <c r="B578" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2">
+      <c r="A579" s="1">
+        <v>305</v>
+      </c>
+      <c r="B579" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="580" spans="1:2">
+      <c r="A580" s="1">
+        <v>306</v>
+      </c>
+      <c r="B580" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="581" spans="1:2">
+      <c r="A581" s="1">
+        <v>307</v>
+      </c>
+      <c r="B581" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2">
+      <c r="A582" s="1">
+        <v>308</v>
+      </c>
+      <c r="B582" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="583" spans="1:2">
+      <c r="A583" s="1">
+        <v>309</v>
+      </c>
+      <c r="B583" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="584" spans="1:2">
+      <c r="A584" s="1">
+        <v>310</v>
+      </c>
+      <c r="B584" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="585" spans="1:2">
+      <c r="A585" s="1">
+        <v>311</v>
+      </c>
+      <c r="B585" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="586" spans="1:2">
+      <c r="A586" s="1">
+        <v>312</v>
+      </c>
+      <c r="B586" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="587" spans="1:2">
+      <c r="A587" s="1">
+        <v>313</v>
+      </c>
+      <c r="B587" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="588" spans="1:2">
+      <c r="A588" s="1">
+        <v>314</v>
+      </c>
+      <c r="B588" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="589" spans="1:2">
+      <c r="A589" s="1">
+        <v>315</v>
+      </c>
+      <c r="B589" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="590" spans="1:2">
+      <c r="A590" s="1">
+        <v>316</v>
+      </c>
+      <c r="B590" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="591" spans="1:2">
+      <c r="A591" s="1">
+        <v>317</v>
+      </c>
+      <c r="B591" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="592" spans="1:2">
+      <c r="A592" s="1">
+        <v>318</v>
+      </c>
+      <c r="B592" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="593" spans="1:2">
+      <c r="A593" s="1">
+        <v>319</v>
+      </c>
+      <c r="B593" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="594" spans="1:2">
+      <c r="A594" s="1">
+        <v>320</v>
+      </c>
+      <c r="B594" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="595" spans="1:2">
+      <c r="A595" s="1">
+        <v>321</v>
+      </c>
+      <c r="B595" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="596" spans="1:2">
+      <c r="A596" s="1">
+        <v>322</v>
+      </c>
+      <c r="B596" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="597" spans="1:2">
+      <c r="A597" s="1">
+        <v>323</v>
+      </c>
+      <c r="B597" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="598" spans="1:2">
+      <c r="A598" s="1">
+        <v>324</v>
+      </c>
+      <c r="B598" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="599" spans="1:2">
+      <c r="A599" s="1">
+        <v>325</v>
+      </c>
+      <c r="B599" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="600" spans="1:2">
+      <c r="A600" s="1">
+        <v>326</v>
+      </c>
+      <c r="B600" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="601" spans="1:2">
+      <c r="A601" s="1">
+        <v>327</v>
+      </c>
+      <c r="B601" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="602" spans="1:2">
+      <c r="A602" s="1">
+        <v>328</v>
+      </c>
+      <c r="B602" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="603" spans="1:2">
+      <c r="A603" s="1">
+        <v>329</v>
+      </c>
+      <c r="B603" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="604" spans="1:2">
+      <c r="A604" s="1">
+        <v>330</v>
+      </c>
+      <c r="B604" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="605" spans="1:2">
+      <c r="A605" s="1">
+        <v>331</v>
+      </c>
+      <c r="B605" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="606" spans="1:2">
+      <c r="A606" s="1">
+        <v>332</v>
+      </c>
+      <c r="B606" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="607" spans="1:2">
+      <c r="A607" s="1">
+        <v>333</v>
+      </c>
+      <c r="B607" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="608" spans="1:2">
+      <c r="A608" s="1">
+        <v>334</v>
+      </c>
+      <c r="B608" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="609" spans="1:2">
+      <c r="A609" s="1">
+        <v>335</v>
+      </c>
+      <c r="B609" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="610" spans="1:2">
+      <c r="A610" s="1">
+        <v>336</v>
+      </c>
+      <c r="B610" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="611" spans="1:2">
+      <c r="A611" s="1">
+        <v>337</v>
+      </c>
+      <c r="B611" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="612" spans="1:2">
+      <c r="A612" s="1">
+        <v>338</v>
+      </c>
+      <c r="B612" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="613" spans="1:2">
+      <c r="A613" s="1">
+        <v>339</v>
+      </c>
+      <c r="B613" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="614" spans="1:2">
+      <c r="A614" s="1">
+        <v>340</v>
+      </c>
+      <c r="B614" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="615" spans="1:2">
+      <c r="A615" s="1">
+        <v>341</v>
+      </c>
+      <c r="B615" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="616" spans="1:2">
+      <c r="A616" s="1">
+        <v>342</v>
+      </c>
+      <c r="B616" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="617" spans="1:2">
+      <c r="A617" s="1">
+        <v>343</v>
+      </c>
+      <c r="B617" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="618" spans="1:2">
+      <c r="A618" s="1">
+        <v>344</v>
+      </c>
+      <c r="B618" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="619" spans="1:2">
+      <c r="A619" s="1">
+        <v>345</v>
+      </c>
+      <c r="B619" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="620" spans="1:2">
+      <c r="A620" s="1">
+        <v>346</v>
+      </c>
+      <c r="B620" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="621" spans="1:2">
+      <c r="A621" s="1">
+        <v>347</v>
+      </c>
+      <c r="B621" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="622" spans="1:2">
+      <c r="A622" s="1">
+        <v>348</v>
+      </c>
+      <c r="B622" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="623" spans="1:2">
+      <c r="A623" s="1">
+        <v>349</v>
+      </c>
+      <c r="B623" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="624" spans="1:2">
+      <c r="A624" s="1">
+        <v>350</v>
+      </c>
+      <c r="B624" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="625" spans="1:2">
+      <c r="A625" s="1">
+        <v>351</v>
+      </c>
+      <c r="B625" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="626" spans="1:2">
+      <c r="A626" s="1">
+        <v>352</v>
+      </c>
+      <c r="B626" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="627" spans="1:2">
+      <c r="A627" s="1">
+        <v>353</v>
+      </c>
+      <c r="B627" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="628" spans="1:2">
+      <c r="A628" s="1">
+        <v>354</v>
+      </c>
+      <c r="B628" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="629" spans="1:2">
+      <c r="A629" s="1">
+        <v>355</v>
+      </c>
+      <c r="B629" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="630" spans="1:2">
+      <c r="A630" s="1">
+        <v>356</v>
+      </c>
+      <c r="B630" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="631" spans="1:2">
+      <c r="A631" s="1">
+        <v>357</v>
+      </c>
+      <c r="B631" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="632" spans="1:2">
+      <c r="A632" s="1">
+        <v>358</v>
+      </c>
+      <c r="B632" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="633" spans="1:2">
+      <c r="A633" s="1">
+        <v>359</v>
+      </c>
+      <c r="B633" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="634" spans="1:2">
+      <c r="A634" s="1">
+        <v>360</v>
+      </c>
+      <c r="B634" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="635" spans="1:2">
+      <c r="A635" s="1">
+        <v>361</v>
+      </c>
+      <c r="B635" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="636" spans="1:2">
+      <c r="A636" s="1">
+        <v>362</v>
+      </c>
+      <c r="B636" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="637" spans="1:2">
+      <c r="A637" s="1">
+        <v>363</v>
+      </c>
+      <c r="B637" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="638" spans="1:2">
+      <c r="A638" s="1">
+        <v>364</v>
+      </c>
+      <c r="B638" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="639" spans="1:2">
+      <c r="A639" s="1">
+        <v>365</v>
+      </c>
+      <c r="B639" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="640" spans="1:2">
+      <c r="A640" s="1">
+        <v>366</v>
+      </c>
+      <c r="B640" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="641" spans="1:2">
+      <c r="A641" s="1">
+        <v>367</v>
+      </c>
+      <c r="B641" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="642" spans="1:2">
+      <c r="A642" s="1">
+        <v>368</v>
+      </c>
+      <c r="B642" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="643" spans="1:2">
+      <c r="A643" s="1">
+        <v>369</v>
+      </c>
+      <c r="B643" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="644" spans="1:2">
+      <c r="A644" s="1">
+        <v>370</v>
+      </c>
+      <c r="B644" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="645" spans="1:2">
+      <c r="A645" s="1">
+        <v>371</v>
+      </c>
+      <c r="B645" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="646" spans="1:2">
+      <c r="A646" s="1">
+        <v>372</v>
+      </c>
+      <c r="B646" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="647" spans="1:2">
+      <c r="A647" s="1">
+        <v>373</v>
+      </c>
+      <c r="B647" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="648" spans="1:2">
+      <c r="A648" s="1">
+        <v>374</v>
+      </c>
+      <c r="B648" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="649" spans="1:2">
+      <c r="A649" s="1">
+        <v>375</v>
+      </c>
+      <c r="B649" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="650" spans="1:2">
+      <c r="A650" s="1">
+        <v>376</v>
+      </c>
+      <c r="B650" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="651" spans="1:2">
+      <c r="A651" s="1">
+        <v>377</v>
+      </c>
+      <c r="B651" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="652" spans="1:2">
+      <c r="A652" s="1">
+        <v>378</v>
+      </c>
+      <c r="B652" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="653" spans="1:2">
+      <c r="A653" s="1">
+        <v>379</v>
+      </c>
+      <c r="B653" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="654" spans="1:2">
+      <c r="A654" s="1">
+        <v>380</v>
+      </c>
+      <c r="B654" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="655" spans="1:2">
+      <c r="A655" s="1">
+        <v>381</v>
+      </c>
+      <c r="B655" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="656" spans="1:2">
+      <c r="A656" s="1">
+        <v>382</v>
+      </c>
+      <c r="B656" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="657" spans="1:2">
+      <c r="A657" s="1">
+        <v>383</v>
+      </c>
+      <c r="B657" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="658" spans="1:2">
+      <c r="A658" s="1">
+        <v>384</v>
+      </c>
+      <c r="B658" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="659" spans="1:2">
+      <c r="A659" s="1">
+        <v>385</v>
+      </c>
+      <c r="B659" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="660" spans="1:2">
+      <c r="A660" s="1">
+        <v>386</v>
+      </c>
+      <c r="B660" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="661" spans="1:2">
+      <c r="A661" s="1">
+        <v>387</v>
+      </c>
+      <c r="B661" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="662" spans="1:2">
+      <c r="A662" s="1">
+        <v>388</v>
+      </c>
+      <c r="B662" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="663" spans="1:2">
+      <c r="A663" s="1">
+        <v>389</v>
+      </c>
+      <c r="B663" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="664" spans="1:2">
+      <c r="A664" s="1">
+        <v>390</v>
+      </c>
+      <c r="B664" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="665" spans="1:2">
+      <c r="A665" s="1">
+        <v>391</v>
+      </c>
+      <c r="B665" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="666" spans="1:2">
+      <c r="A666" s="1">
+        <v>392</v>
+      </c>
+      <c r="B666" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="667" spans="1:2">
+      <c r="A667" s="1">
+        <v>393</v>
+      </c>
+      <c r="B667" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="668" spans="1:2">
+      <c r="A668" s="1">
+        <v>394</v>
+      </c>
+      <c r="B668" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="669" spans="1:2">
+      <c r="A669" s="1">
+        <v>395</v>
+      </c>
+      <c r="B669" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="670" spans="1:2">
+      <c r="A670" s="1">
+        <v>396</v>
+      </c>
+      <c r="B670" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="671" spans="1:2">
+      <c r="A671" s="1">
+        <v>397</v>
+      </c>
+      <c r="B671" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="672" spans="1:2">
+      <c r="A672" s="1">
+        <v>398</v>
+      </c>
+      <c r="B672" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="673" spans="1:2">
+      <c r="A673" s="1">
+        <v>399</v>
+      </c>
+      <c r="B673" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="674" spans="1:2">
+      <c r="A674" s="1">
+        <v>400</v>
+      </c>
+      <c r="B674" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="675" spans="1:2">
+      <c r="A675" s="1">
+        <v>401</v>
+      </c>
+      <c r="B675" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="676" spans="1:2">
+      <c r="A676" s="1">
+        <v>402</v>
+      </c>
+      <c r="B676" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="677" spans="1:2">
+      <c r="A677" s="1">
+        <v>403</v>
+      </c>
+      <c r="B677" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="678" spans="1:2">
+      <c r="A678" s="1">
+        <v>404</v>
+      </c>
+      <c r="B678" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="679" spans="1:2">
+      <c r="A679" s="1">
+        <v>405</v>
+      </c>
+      <c r="B679" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="680" spans="1:2">
+      <c r="A680" s="1">
+        <v>406</v>
+      </c>
+      <c r="B680" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="681" spans="1:2">
+      <c r="A681" s="1">
+        <v>407</v>
+      </c>
+      <c r="B681" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="682" spans="1:2">
+      <c r="A682" s="1">
+        <v>408</v>
+      </c>
+      <c r="B682" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="683" spans="1:2">
+      <c r="A683" s="1">
+        <v>409</v>
+      </c>
+      <c r="B683" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="684" spans="1:2">
+      <c r="A684" s="1">
+        <v>410</v>
+      </c>
+      <c r="B684" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="685" spans="1:2">
+      <c r="A685" s="1">
+        <v>411</v>
+      </c>
+      <c r="B685" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="686" spans="1:2">
+      <c r="A686" s="1">
+        <v>412</v>
+      </c>
+      <c r="B686" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="687" spans="1:2">
+      <c r="A687" s="1">
+        <v>413</v>
+      </c>
+      <c r="B687" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="688" spans="1:2">
+      <c r="A688" s="1">
+        <v>414</v>
+      </c>
+      <c r="B688" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="689" spans="1:2">
+      <c r="A689" s="1">
+        <v>415</v>
+      </c>
+      <c r="B689" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="690" spans="1:2">
+      <c r="A690" s="1">
+        <v>416</v>
+      </c>
+      <c r="B690" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="691" spans="1:2">
+      <c r="A691" s="1">
+        <v>417</v>
+      </c>
+      <c r="B691" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="692" spans="1:2">
+      <c r="A692" s="1">
+        <v>418</v>
+      </c>
+      <c r="B692" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="693" spans="1:2">
+      <c r="A693" s="1">
+        <v>419</v>
+      </c>
+      <c r="B693" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="694" spans="1:2">
+      <c r="A694" s="1">
+        <v>420</v>
+      </c>
+      <c r="B694" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="695" spans="1:2">
+      <c r="A695" s="1">
+        <v>421</v>
+      </c>
+      <c r="B695" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="696" spans="1:2">
+      <c r="A696" s="1">
+        <v>422</v>
+      </c>
+      <c r="B696" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="697" spans="1:2">
+      <c r="A697" s="1">
+        <v>423</v>
+      </c>
+      <c r="B697" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="698" spans="1:2">
+      <c r="A698" s="1">
+        <v>424</v>
+      </c>
+      <c r="B698" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="699" spans="1:2">
+      <c r="A699" s="1">
+        <v>425</v>
+      </c>
+      <c r="B699" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="700" spans="1:2">
+      <c r="A700" s="1">
+        <v>426</v>
+      </c>
+      <c r="B700" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="701" spans="1:2">
+      <c r="A701" s="1">
+        <v>427</v>
+      </c>
+      <c r="B701" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="702" spans="1:2">
+      <c r="A702" s="1">
+        <v>428</v>
+      </c>
+      <c r="B702" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="703" spans="1:2">
+      <c r="A703" s="1">
+        <v>429</v>
+      </c>
+      <c r="B703" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="704" spans="1:2">
+      <c r="A704" s="1">
+        <v>430</v>
+      </c>
+      <c r="B704" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="705" spans="1:2">
+      <c r="A705" s="1">
+        <v>431</v>
+      </c>
+      <c r="B705" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="706" spans="1:2">
+      <c r="A706" s="1">
+        <v>432</v>
+      </c>
+      <c r="B706" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="707" spans="1:2">
+      <c r="A707" s="1">
+        <v>433</v>
+      </c>
+      <c r="B707" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="708" spans="1:2">
+      <c r="A708" s="1">
+        <v>434</v>
+      </c>
+      <c r="B708" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="709" spans="1:2">
+      <c r="A709" s="1">
+        <v>435</v>
+      </c>
+      <c r="B709" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="710" spans="1:2">
+      <c r="A710" s="1">
+        <v>436</v>
+      </c>
+      <c r="B710" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="711" spans="1:2">
+      <c r="A711" s="1">
+        <v>437</v>
+      </c>
+      <c r="B711" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="712" spans="1:2">
+      <c r="A712" s="1">
+        <v>438</v>
+      </c>
+      <c r="B712" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="713" spans="1:2">
+      <c r="A713" s="1">
+        <v>439</v>
+      </c>
+      <c r="B713" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="714" spans="1:2">
+      <c r="A714" s="1">
+        <v>440</v>
+      </c>
+      <c r="B714" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="715" spans="1:2">
+      <c r="A715" s="1">
+        <v>441</v>
+      </c>
+      <c r="B715" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="716" spans="1:2">
+      <c r="A716" s="1">
+        <v>442</v>
+      </c>
+      <c r="B716" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="717" spans="1:2">
+      <c r="A717" s="1">
+        <v>443</v>
+      </c>
+      <c r="B717" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="718" spans="1:2">
+      <c r="A718" s="1">
+        <v>444</v>
+      </c>
+      <c r="B718" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="719" spans="1:2">
+      <c r="A719" s="1">
+        <v>445</v>
+      </c>
+      <c r="B719" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="720" spans="1:2">
+      <c r="A720" s="1">
+        <v>446</v>
+      </c>
+      <c r="B720" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="721" spans="1:2">
+      <c r="A721" s="1">
+        <v>447</v>
+      </c>
+      <c r="B721" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="722" spans="1:2">
+      <c r="A722" s="1">
+        <v>448</v>
+      </c>
+      <c r="B722" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="723" spans="1:2">
+      <c r="A723" s="1">
+        <v>449</v>
+      </c>
+      <c r="B723" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="724" spans="1:2">
+      <c r="A724" s="1">
+        <v>450</v>
+      </c>
+      <c r="B724" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="725" spans="1:2">
+      <c r="A725" s="1">
+        <v>451</v>
+      </c>
+      <c r="B725" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="726" spans="1:2">
+      <c r="A726" s="1">
+        <v>452</v>
+      </c>
+      <c r="B726" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="727" spans="1:2">
+      <c r="A727" s="1">
+        <v>453</v>
+      </c>
+      <c r="B727" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="728" spans="1:2">
+      <c r="A728" s="1">
+        <v>454</v>
+      </c>
+      <c r="B728" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="729" spans="1:2">
+      <c r="A729" s="1">
+        <v>455</v>
+      </c>
+      <c r="B729" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="730" spans="1:2">
+      <c r="A730" s="1">
+        <v>456</v>
+      </c>
+      <c r="B730" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="731" spans="1:2">
+      <c r="A731" s="1">
+        <v>457</v>
+      </c>
+      <c r="B731" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="732" spans="1:2">
+      <c r="A732" s="1">
+        <v>458</v>
+      </c>
+      <c r="B732" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="733" spans="1:2">
+      <c r="A733" s="1">
+        <v>459</v>
+      </c>
+      <c r="B733" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="734" spans="1:2">
+      <c r="A734" s="1">
+        <v>460</v>
+      </c>
+      <c r="B734" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="735" spans="1:2">
+      <c r="A735" s="1">
+        <v>461</v>
+      </c>
+      <c r="B735" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="736" spans="1:2">
+      <c r="A736" s="1">
+        <v>462</v>
+      </c>
+      <c r="B736" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="737" spans="1:2">
+      <c r="A737" s="1">
+        <v>463</v>
+      </c>
+      <c r="B737" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="738" spans="1:2">
+      <c r="A738" s="1">
+        <v>464</v>
+      </c>
+      <c r="B738" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="739" spans="1:2">
+      <c r="A739" s="1">
+        <v>465</v>
+      </c>
+      <c r="B739" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="740" spans="1:2">
+      <c r="A740" s="1">
+        <v>466</v>
+      </c>
+      <c r="B740" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="741" spans="1:2">
+      <c r="A741" s="1">
+        <v>467</v>
+      </c>
+      <c r="B741" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="742" spans="1:2">
+      <c r="A742" s="1">
+        <v>468</v>
+      </c>
+      <c r="B742" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="743" spans="1:2">
+      <c r="A743" s="1">
+        <v>469</v>
+      </c>
+      <c r="B743" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="744" spans="1:2">
+      <c r="A744" s="1">
+        <v>470</v>
+      </c>
+      <c r="B744" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="745" spans="1:2">
+      <c r="A745" s="1">
+        <v>471</v>
+      </c>
+      <c r="B745" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="746" spans="1:2">
+      <c r="A746" s="1">
+        <v>472</v>
+      </c>
+      <c r="B746" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="747" spans="1:2">
+      <c r="A747" s="1">
+        <v>473</v>
+      </c>
+      <c r="B747" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="748" spans="1:2">
+      <c r="A748" s="1">
+        <v>474</v>
+      </c>
+      <c r="B748" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="749" spans="1:2">
+      <c r="A749" s="1">
+        <v>475</v>
+      </c>
+      <c r="B749" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="750" spans="1:2">
+      <c r="A750" s="1">
+        <v>476</v>
+      </c>
+      <c r="B750" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="751" spans="1:2">
+      <c r="A751" s="1">
+        <v>477</v>
+      </c>
+      <c r="B751" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="752" spans="1:2">
+      <c r="A752" s="1">
+        <v>478</v>
+      </c>
+      <c r="B752" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="753" spans="1:2">
+      <c r="A753" s="1">
+        <v>479</v>
+      </c>
+      <c r="B753" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="754" spans="1:2">
+      <c r="A754" s="1">
+        <v>480</v>
+      </c>
+      <c r="B754" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="755" spans="1:2">
+      <c r="A755" s="1">
+        <v>481</v>
+      </c>
+      <c r="B755" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="756" spans="1:2">
+      <c r="A756" s="1">
+        <v>482</v>
+      </c>
+      <c r="B756" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="757" spans="1:2">
+      <c r="A757" s="1">
+        <v>483</v>
+      </c>
+      <c r="B757" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="758" spans="1:2">
+      <c r="A758" s="1">
+        <v>484</v>
+      </c>
+      <c r="B758" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="759" spans="1:2">
+      <c r="A759" s="1">
+        <v>485</v>
+      </c>
+      <c r="B759" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="760" spans="1:2">
+      <c r="A760" s="1">
+        <v>486</v>
+      </c>
+      <c r="B760" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="761" spans="1:2">
+      <c r="A761" s="1">
+        <v>487</v>
+      </c>
+      <c r="B761" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="762" spans="1:2">
+      <c r="A762" s="1">
+        <v>488</v>
+      </c>
+      <c r="B762" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="763" spans="1:2">
+      <c r="A763" s="1">
+        <v>489</v>
+      </c>
+      <c r="B763" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="764" spans="1:2">
+      <c r="A764" s="1">
+        <v>490</v>
+      </c>
+      <c r="B764" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="765" spans="1:2">
+      <c r="A765" s="1">
+        <v>491</v>
+      </c>
+      <c r="B765" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="766" spans="1:2">
+      <c r="A766" s="1">
+        <v>492</v>
+      </c>
+      <c r="B766" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="767" spans="1:2">
+      <c r="A767" s="1">
+        <v>493</v>
+      </c>
+      <c r="B767" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="768" spans="1:2">
+      <c r="A768" s="1">
+        <v>494</v>
+      </c>
+      <c r="B768" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="769" spans="1:2">
+      <c r="A769" s="1">
+        <v>495</v>
+      </c>
+      <c r="B769" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="770" spans="1:2">
+      <c r="A770" s="1">
+        <v>496</v>
+      </c>
+      <c r="B770" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="771" spans="1:2">
+      <c r="A771" s="1">
+        <v>497</v>
+      </c>
+      <c r="B771" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="772" spans="1:2">
+      <c r="A772" s="1">
+        <v>498</v>
+      </c>
+      <c r="B772" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="773" spans="1:2">
+      <c r="A773" s="1">
+        <v>499</v>
+      </c>
+      <c r="B773" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="774" spans="1:2">
+      <c r="A774" s="1">
+        <v>500</v>
+      </c>
+      <c r="B774" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="775" spans="1:2">
+      <c r="A775" s="1">
+        <v>501</v>
+      </c>
+      <c r="B775" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="776" spans="1:2">
+      <c r="A776" s="1">
+        <v>502</v>
+      </c>
+      <c r="B776" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="777" spans="1:2">
+      <c r="A777" s="1">
+        <v>503</v>
+      </c>
+      <c r="B777" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="778" spans="1:2">
+      <c r="A778" s="1">
+        <v>504</v>
+      </c>
+      <c r="B778" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="779" spans="1:2">
+      <c r="A779" s="1">
+        <v>505</v>
+      </c>
+      <c r="B779" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="780" spans="1:2">
+      <c r="A780" s="1">
+        <v>506</v>
+      </c>
+      <c r="B780" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="781" spans="1:2">
+      <c r="A781" s="1">
+        <v>507</v>
+      </c>
+      <c r="B781" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="782" spans="1:2">
+      <c r="A782" s="1">
+        <v>508</v>
+      </c>
+      <c r="B782" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="783" spans="1:2">
+      <c r="A783" s="1">
+        <v>509</v>
+      </c>
+      <c r="B783" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="784" spans="1:2">
+      <c r="A784" s="1">
+        <v>510</v>
+      </c>
+      <c r="B784" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="785" spans="1:2">
+      <c r="A785" s="1">
+        <v>511</v>
+      </c>
+      <c r="B785" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="786" spans="1:2">
+      <c r="A786" s="1">
+        <v>512</v>
+      </c>
+      <c r="B786" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="787" spans="1:2">
+      <c r="A787" s="1">
+        <v>513</v>
+      </c>
+      <c r="B787" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="788" spans="1:2">
+      <c r="A788" s="1">
+        <v>514</v>
+      </c>
+      <c r="B788" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="789" spans="1:2">
+      <c r="A789" s="1">
+        <v>515</v>
+      </c>
+      <c r="B789" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="790" spans="1:2">
+      <c r="A790" s="1">
+        <v>516</v>
+      </c>
+      <c r="B790" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="791" spans="1:2">
+      <c r="A791" s="1">
+        <v>517</v>
+      </c>
+      <c r="B791" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="792" spans="1:2">
+      <c r="A792" s="1">
+        <v>518</v>
+      </c>
+      <c r="B792" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="793" spans="1:2">
+      <c r="A793" s="1">
+        <v>519</v>
+      </c>
+      <c r="B793" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="794" spans="1:2">
+      <c r="A794" s="1">
+        <v>520</v>
+      </c>
+      <c r="B794" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="795" spans="1:2">
+      <c r="A795" s="1">
+        <v>521</v>
+      </c>
+      <c r="B795" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="796" spans="1:2">
+      <c r="A796" s="1">
+        <v>522</v>
+      </c>
+      <c r="B796" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="797" spans="1:2">
+      <c r="A797" s="1">
+        <v>523</v>
+      </c>
+      <c r="B797" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="798" spans="1:2">
+      <c r="A798" s="1">
+        <v>524</v>
+      </c>
+      <c r="B798" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="799" spans="1:2">
+      <c r="A799" s="1">
+        <v>525</v>
+      </c>
+      <c r="B799" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="800" spans="1:2">
+      <c r="A800" s="1">
+        <v>526</v>
+      </c>
+      <c r="B800" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="801" spans="1:2">
+      <c r="A801" s="1">
+        <v>527</v>
+      </c>
+      <c r="B801" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="802" spans="1:2">
+      <c r="A802" s="1">
+        <v>528</v>
+      </c>
+      <c r="B802" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="803" spans="1:2">
+      <c r="A803" s="1">
+        <v>529</v>
+      </c>
+      <c r="B803" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="804" spans="1:2">
+      <c r="A804" s="1">
+        <v>530</v>
+      </c>
+      <c r="B804" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="805" spans="1:2">
+      <c r="A805" s="1">
+        <v>531</v>
+      </c>
+      <c r="B805" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="806" spans="1:2">
+      <c r="A806" s="1">
+        <v>532</v>
+      </c>
+      <c r="B806" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="807" spans="1:2">
+      <c r="A807" s="1">
+        <v>533</v>
+      </c>
+      <c r="B807" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="808" spans="1:2">
+      <c r="A808" s="1">
+        <v>534</v>
+      </c>
+      <c r="B808" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="809" spans="1:2">
+      <c r="A809" s="1">
+        <v>535</v>
+      </c>
+      <c r="B809" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="810" spans="1:2">
+      <c r="A810" s="1">
+        <v>536</v>
+      </c>
+      <c r="B810" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="811" spans="1:2">
+      <c r="A811" s="1">
+        <v>537</v>
+      </c>
+      <c r="B811" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="812" spans="1:2">
+      <c r="A812" s="1">
+        <v>538</v>
+      </c>
+      <c r="B812" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="813" spans="1:2">
+      <c r="A813" s="1">
+        <v>539</v>
+      </c>
+      <c r="B813" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="814" spans="1:2">
+      <c r="A814" s="1">
+        <v>540</v>
+      </c>
+      <c r="B814" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="815" spans="1:2">
+      <c r="A815" s="1">
+        <v>541</v>
+      </c>
+      <c r="B815" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="816" spans="1:2">
+      <c r="A816" s="1">
+        <v>542</v>
+      </c>
+      <c r="B816" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="817" spans="1:2">
+      <c r="A817" s="1">
+        <v>543</v>
+      </c>
+      <c r="B817" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="818" spans="1:2">
+      <c r="A818" s="1">
+        <v>544</v>
+      </c>
+      <c r="B818" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="819" spans="1:2">
+      <c r="A819" s="1">
+        <v>545</v>
+      </c>
+      <c r="B819" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="820" spans="1:2">
+      <c r="A820" s="1">
+        <v>546</v>
+      </c>
+      <c r="B820" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="821" spans="1:2">
+      <c r="A821" s="1">
+        <v>547</v>
+      </c>
+      <c r="B821" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="822" spans="1:2">
+      <c r="A822" s="1">
+        <v>548</v>
+      </c>
+      <c r="B822" s="2" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="823" spans="1:2">
+      <c r="A823" s="1">
+        <v>549</v>
+      </c>
+      <c r="B823" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="824" spans="1:2">
+      <c r="A824" s="1">
+        <v>550</v>
+      </c>
+      <c r="B824" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="825" spans="1:2">
+      <c r="A825" s="1">
+        <v>551</v>
+      </c>
+      <c r="B825" s="2" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="826" spans="1:2">
+      <c r="A826" s="1">
+        <v>552</v>
+      </c>
+      <c r="B826" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="827" spans="1:2">
+      <c r="A827" s="1">
+        <v>553</v>
+      </c>
+      <c r="B827" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="828" spans="1:2">
+      <c r="A828" s="1">
+        <v>554</v>
+      </c>
+      <c r="B828" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="829" spans="1:2">
+      <c r="A829" s="1">
+        <v>555</v>
+      </c>
+      <c r="B829" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="830" spans="1:2">
+      <c r="A830" s="1">
+        <v>556</v>
+      </c>
+      <c r="B830" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="831" spans="1:2">
+      <c r="A831" s="1">
+        <v>557</v>
+      </c>
+      <c r="B831" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="832" spans="1:2">
+      <c r="A832" s="1">
+        <v>558</v>
+      </c>
+      <c r="B832" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="833" spans="1:2">
+      <c r="A833" s="1">
+        <v>559</v>
+      </c>
+      <c r="B833" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="834" spans="1:2">
+      <c r="A834" s="1">
+        <v>560</v>
+      </c>
+      <c r="B834" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="835" spans="1:2">
+      <c r="A835" s="1">
+        <v>561</v>
+      </c>
+      <c r="B835" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="836" spans="1:2">
+      <c r="A836" s="1">
+        <v>562</v>
+      </c>
+      <c r="B836" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="837" spans="1:2">
+      <c r="A837" s="1">
+        <v>563</v>
+      </c>
+      <c r="B837" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="838" spans="1:2">
+      <c r="A838" s="1">
+        <v>564</v>
+      </c>
+      <c r="B838" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="839" spans="1:2">
+      <c r="A839" s="1">
+        <v>565</v>
+      </c>
+      <c r="B839" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="840" spans="1:2">
+      <c r="A840" s="1">
+        <v>566</v>
+      </c>
+      <c r="B840" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="841" spans="1:2">
+      <c r="A841" s="1">
+        <v>567</v>
+      </c>
+      <c r="B841" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="842" spans="1:2">
+      <c r="A842" s="1">
+        <v>568</v>
+      </c>
+      <c r="B842" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="843" spans="1:2">
+      <c r="A843" s="1">
+        <v>569</v>
+      </c>
+      <c r="B843" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="844" spans="1:2">
+      <c r="A844" s="1">
+        <v>570</v>
+      </c>
+      <c r="B844" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="845" spans="1:2">
+      <c r="A845" s="1">
+        <v>571</v>
+      </c>
+      <c r="B845" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="846" spans="1:2">
+      <c r="A846" s="1">
+        <v>572</v>
+      </c>
+      <c r="B846" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="847" spans="1:2">
+      <c r="A847" s="1">
+        <v>573</v>
+      </c>
+      <c r="B847" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="848" spans="1:2">
+      <c r="A848" s="1">
+        <v>574</v>
+      </c>
+      <c r="B848" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="849" spans="1:2">
+      <c r="A849" s="1">
+        <v>575</v>
+      </c>
+      <c r="B849" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="850" spans="1:2">
+      <c r="A850" s="1">
+        <v>576</v>
+      </c>
+      <c r="B850" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="851" spans="1:2">
+      <c r="A851" s="1">
+        <v>577</v>
+      </c>
+      <c r="B851" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="852" spans="1:2">
+      <c r="A852" s="1">
+        <v>578</v>
+      </c>
+      <c r="B852" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="853" spans="1:2">
+      <c r="A853" s="1">
+        <v>579</v>
+      </c>
+      <c r="B853" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="854" spans="1:2">
+      <c r="A854" s="1">
+        <v>580</v>
+      </c>
+      <c r="B854" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="855" spans="1:2">
+      <c r="A855" s="1">
+        <v>581</v>
+      </c>
+      <c r="B855" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="856" spans="1:2">
+      <c r="A856" s="1">
+        <v>582</v>
+      </c>
+      <c r="B856" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="857" spans="1:2">
+      <c r="A857" s="1">
+        <v>583</v>
+      </c>
+      <c r="B857" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="858" spans="1:2">
+      <c r="A858" s="1">
+        <v>584</v>
+      </c>
+      <c r="B858" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="859" spans="1:2">
+      <c r="A859" s="1">
+        <v>585</v>
+      </c>
+      <c r="B859" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="860" spans="1:2">
+      <c r="A860" s="1">
+        <v>586</v>
+      </c>
+      <c r="B860" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="861" spans="1:2">
+      <c r="A861" s="1">
+        <v>587</v>
+      </c>
+      <c r="B861" s="2" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="862" spans="1:2">
+      <c r="A862" s="1">
+        <v>588</v>
+      </c>
+      <c r="B862" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="863" spans="1:2">
+      <c r="A863" s="1">
+        <v>589</v>
+      </c>
+      <c r="B863" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="864" spans="1:2">
+      <c r="A864" s="1">
+        <v>590</v>
+      </c>
+      <c r="B864" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="865" spans="1:2">
+      <c r="A865" s="1">
+        <v>591</v>
+      </c>
+      <c r="B865" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="866" spans="1:2">
+      <c r="A866" s="1">
+        <v>592</v>
+      </c>
+      <c r="B866" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="867" spans="1:2">
+      <c r="A867" s="1">
+        <v>593</v>
+      </c>
+      <c r="B867" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="868" spans="1:2">
+      <c r="A868" s="1">
+        <v>594</v>
+      </c>
+      <c r="B868" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="869" spans="1:2">
+      <c r="A869" s="1">
+        <v>595</v>
+      </c>
+      <c r="B869" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="870" spans="1:2">
+      <c r="A870" s="1">
+        <v>596</v>
+      </c>
+      <c r="B870" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="871" spans="1:2">
+      <c r="A871" s="1">
+        <v>597</v>
+      </c>
+      <c r="B871" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="872" spans="1:2">
+      <c r="A872" s="1">
+        <v>598</v>
+      </c>
+      <c r="B872" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="873" spans="1:2">
+      <c r="A873" s="1">
+        <v>599</v>
+      </c>
+      <c r="B873" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="874" spans="1:2">
+      <c r="A874" s="1">
+        <v>600</v>
+      </c>
+      <c r="B874" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="875" spans="1:2">
+      <c r="A875" s="1">
+        <v>601</v>
+      </c>
+      <c r="B875" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="876" spans="1:2">
+      <c r="A876" s="1">
+        <v>602</v>
+      </c>
+      <c r="B876" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="877" spans="1:2">
+      <c r="A877" s="1">
+        <v>603</v>
+      </c>
+      <c r="B877" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="878" spans="1:2">
+      <c r="A878" s="1">
+        <v>604</v>
+      </c>
+      <c r="B878" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="879" spans="1:2">
+      <c r="A879" s="1">
+        <v>605</v>
+      </c>
+      <c r="B879" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="880" spans="1:2">
+      <c r="A880" s="1">
+        <v>606</v>
+      </c>
+      <c r="B880" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="881" spans="1:2">
+      <c r="A881" s="1">
+        <v>607</v>
+      </c>
+      <c r="B881" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="882" spans="1:2">
+      <c r="A882" s="1">
+        <v>608</v>
+      </c>
+      <c r="B882" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="883" spans="1:2">
+      <c r="A883" s="1">
+        <v>609</v>
+      </c>
+      <c r="B883" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="884" spans="1:2">
+      <c r="A884" s="1">
+        <v>610</v>
+      </c>
+      <c r="B884" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="885" spans="1:2">
+      <c r="A885" s="1">
+        <v>611</v>
+      </c>
+      <c r="B885" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="886" spans="1:2">
+      <c r="A886" s="1">
+        <v>612</v>
+      </c>
+      <c r="B886" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="887" spans="1:2">
+      <c r="A887" s="1">
+        <v>613</v>
+      </c>
+      <c r="B887" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="888" spans="1:2">
+      <c r="A888" s="1">
+        <v>614</v>
+      </c>
+      <c r="B888" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="889" spans="1:2">
+      <c r="A889" s="1">
+        <v>615</v>
+      </c>
+      <c r="B889" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="890" spans="1:2">
+      <c r="A890" s="1">
+        <v>616</v>
+      </c>
+      <c r="B890" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="891" spans="1:2">
+      <c r="A891" s="1">
+        <v>617</v>
+      </c>
+      <c r="B891" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="892" spans="1:2">
+      <c r="A892" s="1">
+        <v>618</v>
+      </c>
+      <c r="B892" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="893" spans="1:2">
+      <c r="A893" s="1">
+        <v>619</v>
+      </c>
+      <c r="B893" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="894" spans="1:2">
+      <c r="A894" s="1">
+        <v>620</v>
+      </c>
+      <c r="B894" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="895" spans="1:2">
+      <c r="A895" s="1">
+        <v>621</v>
+      </c>
+      <c r="B895" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="896" spans="1:2">
+      <c r="A896" s="1">
+        <v>622</v>
+      </c>
+      <c r="B896" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="897" spans="1:2">
+      <c r="A897" s="1">
+        <v>623</v>
+      </c>
+      <c r="B897" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="898" spans="1:2">
+      <c r="A898" s="1">
+        <v>624</v>
+      </c>
+      <c r="B898" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="899" spans="1:2">
+      <c r="A899" s="1">
+        <v>625</v>
+      </c>
+      <c r="B899" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="900" spans="1:2">
+      <c r="A900" s="1">
+        <v>626</v>
+      </c>
+      <c r="B900" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="901" spans="1:2">
+      <c r="A901" s="1">
+        <v>627</v>
+      </c>
+      <c r="B901" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="902" spans="1:2">
+      <c r="A902" s="1">
+        <v>628</v>
+      </c>
+      <c r="B902" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="903" spans="1:2">
+      <c r="A903" s="1">
+        <v>629</v>
+      </c>
+      <c r="B903" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="904" spans="1:2">
+      <c r="A904" s="1">
+        <v>630</v>
+      </c>
+      <c r="B904" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="905" spans="1:2">
+      <c r="A905" s="1">
+        <v>631</v>
+      </c>
+      <c r="B905" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="906" spans="1:2">
+      <c r="A906" s="1">
+        <v>632</v>
+      </c>
+      <c r="B906" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="907" spans="1:2">
+      <c r="A907" s="1">
+        <v>633</v>
+      </c>
+      <c r="B907" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="908" spans="1:2">
+      <c r="A908" s="1">
+        <v>634</v>
+      </c>
+      <c r="B908" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="909" spans="1:2">
+      <c r="A909" s="1">
+        <v>635</v>
+      </c>
+      <c r="B909" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="910" spans="1:2">
+      <c r="A910" s="1">
+        <v>636</v>
+      </c>
+      <c r="B910" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="911" spans="1:2">
+      <c r="A911" s="1">
+        <v>637</v>
+      </c>
+      <c r="B911" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="912" spans="1:2">
+      <c r="A912" s="1">
+        <v>638</v>
+      </c>
+      <c r="B912" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="913" spans="1:2">
+      <c r="A913" s="1">
+        <v>639</v>
+      </c>
+      <c r="B913" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="914" spans="1:2">
+      <c r="A914" s="1">
+        <v>640</v>
+      </c>
+      <c r="B914" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="915" spans="1:2">
+      <c r="A915" s="1">
+        <v>641</v>
+      </c>
+      <c r="B915" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="916" spans="1:2">
+      <c r="A916" s="1">
+        <v>642</v>
+      </c>
+      <c r="B916" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="917" spans="1:2">
+      <c r="A917" s="1">
+        <v>643</v>
+      </c>
+      <c r="B917" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="918" spans="1:2">
+      <c r="A918" s="1">
+        <v>644</v>
+      </c>
+      <c r="B918" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="919" spans="1:2">
+      <c r="A919" s="1">
+        <v>645</v>
+      </c>
+      <c r="B919" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="920" spans="1:2">
+      <c r="A920" s="1">
+        <v>646</v>
+      </c>
+      <c r="B920" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="921" spans="1:2">
+      <c r="A921" s="1">
+        <v>647</v>
+      </c>
+      <c r="B921" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="922" spans="1:2">
+      <c r="A922" s="1">
+        <v>648</v>
+      </c>
+      <c r="B922" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="923" spans="1:2">
+      <c r="A923" s="1">
+        <v>649</v>
+      </c>
+      <c r="B923" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="924" spans="1:2">
+      <c r="A924" s="1">
+        <v>650</v>
+      </c>
+      <c r="B924" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="925" spans="1:2">
+      <c r="A925" s="1">
+        <v>651</v>
+      </c>
+      <c r="B925" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="926" spans="1:2">
+      <c r="A926" s="1">
+        <v>652</v>
+      </c>
+      <c r="B926" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="927" spans="1:2">
+      <c r="A927" s="1">
+        <v>653</v>
+      </c>
+      <c r="B927" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="928" spans="1:2">
+      <c r="A928" s="1">
+        <v>654</v>
+      </c>
+      <c r="B928" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="929" spans="1:2">
+      <c r="A929" s="1">
+        <v>655</v>
+      </c>
+      <c r="B929" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="930" spans="1:2">
+      <c r="A930" s="1">
+        <v>656</v>
+      </c>
+      <c r="B930" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="931" spans="1:2">
+      <c r="A931" s="1">
+        <v>657</v>
+      </c>
+      <c r="B931" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="932" spans="1:2">
+      <c r="A932" s="1">
+        <v>658</v>
+      </c>
+      <c r="B932" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="933" spans="1:2">
+      <c r="A933" s="1">
+        <v>659</v>
+      </c>
+      <c r="B933" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="934" spans="1:2">
+      <c r="A934" s="1">
+        <v>660</v>
+      </c>
+      <c r="B934" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="935" spans="1:2">
+      <c r="A935" s="1">
+        <v>661</v>
+      </c>
+      <c r="B935" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="936" spans="1:2">
+      <c r="A936" s="1">
+        <v>662</v>
+      </c>
+      <c r="B936" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="937" spans="1:2">
+      <c r="A937" s="1">
+        <v>663</v>
+      </c>
+      <c r="B937" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="938" spans="1:2">
+      <c r="A938" s="1">
+        <v>664</v>
+      </c>
+      <c r="B938" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="939" spans="1:2">
+      <c r="A939" s="1">
+        <v>665</v>
+      </c>
+      <c r="B939" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="940" spans="1:2">
+      <c r="A940" s="1">
+        <v>666</v>
+      </c>
+      <c r="B940" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="941" spans="1:2">
+      <c r="A941" s="1">
+        <v>667</v>
+      </c>
+      <c r="B941" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="942" spans="1:2">
+      <c r="A942" s="1">
+        <v>668</v>
+      </c>
+      <c r="B942" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="943" spans="1:2">
+      <c r="A943" s="1">
+        <v>669</v>
+      </c>
+      <c r="B943" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="944" spans="1:2">
+      <c r="A944" s="1">
+        <v>670</v>
+      </c>
+      <c r="B944" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="945" spans="1:2">
+      <c r="A945" s="1">
+        <v>671</v>
+      </c>
+      <c r="B945" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="946" spans="1:2">
+      <c r="A946" s="1">
+        <v>672</v>
+      </c>
+      <c r="B946" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="947" spans="1:2">
+      <c r="A947" s="1">
+        <v>673</v>
+      </c>
+      <c r="B947" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="948" spans="1:2">
+      <c r="A948" s="1">
+        <v>674</v>
+      </c>
+      <c r="B948" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="949" spans="1:2">
+      <c r="A949" s="1">
+        <v>675</v>
+      </c>
+      <c r="B949" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="950" spans="1:2">
+      <c r="A950" s="1">
+        <v>676</v>
+      </c>
+      <c r="B950" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="951" spans="1:2">
+      <c r="A951" s="1">
+        <v>677</v>
+      </c>
+      <c r="B951" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="952" spans="1:2">
+      <c r="A952" s="1">
+        <v>678</v>
+      </c>
+      <c r="B952" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="953" spans="1:2">
+      <c r="A953" s="1">
+        <v>679</v>
+      </c>
+      <c r="B953" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="954" spans="1:2">
+      <c r="A954" s="1">
+        <v>680</v>
+      </c>
+      <c r="B954" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="955" spans="1:2">
+      <c r="A955" s="1">
+        <v>681</v>
+      </c>
+      <c r="B955" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="956" spans="1:2">
+      <c r="A956" s="1">
+        <v>682</v>
+      </c>
+      <c r="B956" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="957" spans="1:2">
+      <c r="A957" s="1">
+        <v>683</v>
+      </c>
+      <c r="B957" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="958" spans="1:2">
+      <c r="A958" s="1">
+        <v>684</v>
+      </c>
+      <c r="B958" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="959" spans="1:2">
+      <c r="A959" s="1">
+        <v>685</v>
+      </c>
+      <c r="B959" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="960" spans="1:2">
+      <c r="A960" s="1">
+        <v>686</v>
+      </c>
+      <c r="B960" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="961" spans="1:2">
+      <c r="A961" s="1">
+        <v>687</v>
+      </c>
+      <c r="B961" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="962" spans="1:2">
+      <c r="A962" s="1">
+        <v>688</v>
+      </c>
+      <c r="B962" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="963" spans="1:2">
+      <c r="A963" s="1">
+        <v>689</v>
+      </c>
+      <c r="B963" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="964" spans="1:2">
+      <c r="A964" s="1">
+        <v>690</v>
+      </c>
+      <c r="B964" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="965" spans="1:2">
+      <c r="A965" s="1">
+        <v>691</v>
+      </c>
+      <c r="B965" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="966" spans="1:2">
+      <c r="A966" s="1">
+        <v>692</v>
+      </c>
+      <c r="B966" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="967" spans="1:2">
+      <c r="A967" s="1">
+        <v>693</v>
+      </c>
+      <c r="B967" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="968" spans="1:2">
+      <c r="A968" s="1">
+        <v>694</v>
+      </c>
+      <c r="B968" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="969" spans="1:2">
+      <c r="A969" s="1">
+        <v>695</v>
+      </c>
+      <c r="B969" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="970" spans="1:2">
+      <c r="A970" s="1">
+        <v>696</v>
+      </c>
+      <c r="B970" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="971" spans="1:2">
+      <c r="A971" s="1">
+        <v>697</v>
+      </c>
+      <c r="B971" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="972" spans="1:2">
+      <c r="A972" s="1">
+        <v>698</v>
+      </c>
+      <c r="B972" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="973" spans="1:2">
+      <c r="A973" s="1">
+        <v>699</v>
+      </c>
+      <c r="B973" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="974" spans="1:2">
+      <c r="A974" s="1">
+        <v>700</v>
+      </c>
+      <c r="B974" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="975" spans="1:2">
+      <c r="A975" s="1">
+        <v>701</v>
+      </c>
+      <c r="B975" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="976" spans="1:2">
+      <c r="A976" s="1">
+        <v>702</v>
+      </c>
+      <c r="B976" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="977" spans="1:2">
+      <c r="A977" s="1">
+        <v>703</v>
+      </c>
+      <c r="B977" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="978" spans="1:2">
+      <c r="A978" s="1">
+        <v>704</v>
+      </c>
+      <c r="B978" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="979" spans="1:2">
+      <c r="A979" s="1">
+        <v>705</v>
+      </c>
+      <c r="B979" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="980" spans="1:2">
+      <c r="A980" s="1">
+        <v>706</v>
+      </c>
+      <c r="B980" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="981" spans="1:2">
+      <c r="A981" s="1">
+        <v>707</v>
+      </c>
+      <c r="B981" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="982" spans="1:2">
+      <c r="A982" s="1">
+        <v>708</v>
+      </c>
+      <c r="B982" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="983" spans="1:2">
+      <c r="A983" s="1">
+        <v>709</v>
+      </c>
+      <c r="B983" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="984" spans="1:2">
+      <c r="A984" s="1">
+        <v>710</v>
+      </c>
+      <c r="B984" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="985" spans="1:2">
+      <c r="A985" s="1">
+        <v>711</v>
+      </c>
+      <c r="B985" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="986" spans="1:2">
+      <c r="A986" s="1">
+        <v>712</v>
+      </c>
+      <c r="B986" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="987" spans="1:2">
+      <c r="A987" s="1">
+        <v>713</v>
+      </c>
+      <c r="B987" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="988" spans="1:2">
+      <c r="A988" s="1">
+        <v>714</v>
+      </c>
+      <c r="B988" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="989" spans="1:2">
+      <c r="A989" s="1">
+        <v>715</v>
+      </c>
+      <c r="B989" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="990" spans="1:2">
+      <c r="A990" s="1">
+        <v>716</v>
+      </c>
+      <c r="B990" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="991" spans="1:2">
+      <c r="A991" s="1">
+        <v>717</v>
+      </c>
+      <c r="B991" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="992" spans="1:2">
+      <c r="A992" s="1">
+        <v>718</v>
+      </c>
+      <c r="B992" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="993" spans="1:2">
+      <c r="A993" s="1">
+        <v>719</v>
+      </c>
+      <c r="B993" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="994" spans="1:2">
+      <c r="A994" s="1">
+        <v>720</v>
+      </c>
+      <c r="B994" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="995" spans="1:2">
+      <c r="A995" s="1">
+        <v>721</v>
+      </c>
+      <c r="B995" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="996" spans="1:2">
+      <c r="A996" s="1">
+        <v>722</v>
+      </c>
+      <c r="B996" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="997" spans="1:2">
+      <c r="A997" s="1">
+        <v>723</v>
+      </c>
+      <c r="B997" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="998" spans="1:2">
+      <c r="A998" s="1">
+        <v>724</v>
+      </c>
+      <c r="B998" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="999" spans="1:2">
+      <c r="A999" s="1">
+        <v>725</v>
+      </c>
+      <c r="B999" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:2">
+      <c r="A1000" s="1">
+        <v>726</v>
+      </c>
+      <c r="B1000" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:2">
+      <c r="A1001" s="1">
+        <v>727</v>
+      </c>
+      <c r="B1001" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:2">
+      <c r="A1002" s="1">
+        <v>728</v>
+      </c>
+      <c r="B1002" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:2">
+      <c r="A1003" s="1">
+        <v>729</v>
+      </c>
+      <c r="B1003" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:2">
+      <c r="A1004" s="1">
+        <v>730</v>
+      </c>
+      <c r="B1004" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:2">
+      <c r="A1005" s="1">
+        <v>731</v>
+      </c>
+      <c r="B1005" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:2">
+      <c r="A1006" s="1">
+        <v>732</v>
+      </c>
+      <c r="B1006" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:2">
+      <c r="A1007" s="1">
+        <v>733</v>
+      </c>
+      <c r="B1007" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:2">
+      <c r="A1008" s="1">
+        <v>734</v>
+      </c>
+      <c r="B1008" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:2">
+      <c r="A1009" s="1">
+        <v>735</v>
+      </c>
+      <c r="B1009" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:2">
+      <c r="A1010" s="1">
+        <v>736</v>
+      </c>
+      <c r="B1010" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:2">
+      <c r="A1011" s="1">
+        <v>737</v>
+      </c>
+      <c r="B1011" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:2">
+      <c r="A1012" s="1">
+        <v>738</v>
+      </c>
+      <c r="B1012" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:2">
+      <c r="A1013" s="1">
+        <v>739</v>
+      </c>
+      <c r="B1013" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:2">
+      <c r="A1014" s="1">
+        <v>740</v>
+      </c>
+      <c r="B1014" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:2">
+      <c r="A1015" s="1">
+        <v>741</v>
+      </c>
+      <c r="B1015" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:2">
+      <c r="A1016" s="1">
+        <v>742</v>
+      </c>
+      <c r="B1016" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:2">
+      <c r="A1017" s="1">
+        <v>743</v>
+      </c>
+      <c r="B1017" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:2">
+      <c r="A1018" s="1">
+        <v>744</v>
+      </c>
+      <c r="B1018" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:2">
+      <c r="A1019" s="1">
+        <v>745</v>
+      </c>
+      <c r="B1019" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:2">
+      <c r="A1020" s="1">
+        <v>746</v>
+      </c>
+      <c r="B1020" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:2">
+      <c r="A1021" s="1">
+        <v>747</v>
+      </c>
+      <c r="B1021" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:2">
+      <c r="A1022" s="1">
+        <v>748</v>
+      </c>
+      <c r="B1022" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:2">
+      <c r="A1023" s="1">
+        <v>749</v>
+      </c>
+      <c r="B1023" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:2">
+      <c r="A1024" s="1">
+        <v>750</v>
+      </c>
+      <c r="B1024" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:2">
+      <c r="A1025" s="1">
+        <v>751</v>
+      </c>
+      <c r="B1025" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:2">
+      <c r="A1026" s="1">
+        <v>752</v>
+      </c>
+      <c r="B1026" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:2">
+      <c r="A1027" s="1">
+        <v>753</v>
+      </c>
+      <c r="B1027" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:2">
+      <c r="A1028" s="1">
+        <v>754</v>
+      </c>
+      <c r="B1028" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:2">
+      <c r="A1029" s="1">
+        <v>755</v>
+      </c>
+      <c r="B1029" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:2">
+      <c r="A1030" s="1">
+        <v>756</v>
+      </c>
+      <c r="B1030" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:2">
+      <c r="A1031" s="1">
+        <v>757</v>
+      </c>
+      <c r="B1031" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:2">
+      <c r="A1032" s="1">
+        <v>758</v>
+      </c>
+      <c r="B1032" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:2">
+      <c r="A1033" s="1">
+        <v>759</v>
+      </c>
+      <c r="B1033" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:2">
+      <c r="A1034" s="1">
+        <v>760</v>
+      </c>
+      <c r="B1034" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:2">
+      <c r="A1035" s="1">
+        <v>761</v>
+      </c>
+      <c r="B1035" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:2">
+      <c r="A1036" s="1">
+        <v>762</v>
+      </c>
+      <c r="B1036" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:2">
+      <c r="A1037" s="1">
+        <v>763</v>
+      </c>
+      <c r="B1037" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:2">
+      <c r="A1038" s="1">
+        <v>764</v>
+      </c>
+      <c r="B1038" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:2">
+      <c r="A1039" s="1">
+        <v>765</v>
+      </c>
+      <c r="B1039" t="s">
+        <v>1035</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B481" r:id="rId1"/>
+    <hyperlink ref="B561" r:id="rId2"/>
+    <hyperlink ref="B822" r:id="rId3"/>
+    <hyperlink ref="B825" r:id="rId4"/>
+    <hyperlink ref="B861" r:id="rId5"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>